--- a/examples/99_tower_gbf/15mw/30m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/30m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[11.02193253]</t>
+          <t>[12.15889738]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5634,8 +5634,8 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[12.15889738 12.15888125 12.15888235 12.15888151 12.15888179 12.15888242
+ 12.15890171]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[11.02193253]</t>
+          <t>[12.15890325]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[11.02193253]</t>
+          <t>[12.15890171]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>[2.8228916]</t>
+          <t>[2.97518627]</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[12.15890325 12.15890288 12.15891143  5.99900759  5.999     ]</t>
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>[[0.05789818 0.03809647 0.01626663 0.00731973 0.01548895]]</t>
+          <t>[[0.03197045 0.02       0.02       0.02       0.02006662]]</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[12.15890325 12.15890288 12.15891143  5.99900759  5.999     ]</t>
         </is>
       </c>
       <c r="E414" t="inlineStr"/>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[1080.12191663]</t>
+          <t>[1050.94098711]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[3313.64955573]</t>
+          <t>[3343.04783069]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[1080.12191663]</t>
+          <t>[1050.94098711]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[1034.28683383]</t>
+          <t>[834.22230578]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[1757.27023422]</t>
+          <t>[1929.42646863]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[4544675.00943214]</t>
+          <t>[4960569.13398183]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>[86.04207288]</t>
+          <t>[86.04480685]</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -18257,8 +18257,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          730.45653917  861.94111345
-  950.56135486  986.83834303 1019.50308153 1049.3143179 ]</t>
+    0.            0.            0.          805.19232802  952.87004532
+ 1053.07881241 1094.24599601 1131.38327615 1165.33198849]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -18402,10 +18402,10 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          48129.07265843
-  48823.69299811  50930.68327043  54520.64739801  59715.6422191
-  66696.98950538  75719.0074046   87132.29856126 101422.72217212
- 119276.22248537      0.              0.              0.
+          <t>[     0.              0.              0.          58341.71359646
+  59179.6323348   61721.01244711  66050.29282546  72313.76611886
+  80729.4964548   91604.63173404 105364.67716482 122602.19305405
+ 144157.39678584      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -18656,10 +18656,10 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[12.15889738 12.158892   12.15888663 12.15888125 12.15888162 12.15888198
+ 12.15888235 12.15888207 12.15888179 12.15888151 12.1588816  12.1588817
+ 12.15888179 12.158882   12.15888221 12.15888242 12.15888885 12.15889528
+ 12.15890171]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -18826,11 +18826,11 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          48129.07265843
-  48823.69299811  50930.68327043  54520.64739801  59715.6422191
-  66696.98950538  75719.0074046   87132.29856126 101422.72217212
- 119276.22248537    730.45653917    861.94111345    950.56135486
-    986.83834303   1019.50308153   1049.3143179 ]</t>
+          <t>[     0.              0.              0.          58341.71359646
+  59179.6323348   61721.01244711  66050.29282546  72313.76611886
+  80729.4964548   91604.63173404 105364.67716482 122602.19305405
+ 144157.39678584    805.19232802    952.87004532   1053.07881241
+   1094.24599601   1131.38327615   1165.33198849]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -18972,11 +18972,11 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -48129.07265843
-  -48823.69299811  -50930.68327043  -54520.64739801  -59715.6422191
-  -66696.98950538  -75719.0074046   -87132.29856126 -101422.72217212
- -119276.22248537    -730.45653917    -861.94111345    -950.56135486
-    -986.83834303   -1019.50308153   -1049.3143179 ]</t>
+          <t>[      0.               0.               0.          -58341.71359646
+  -59179.6323348   -61721.01244711  -66050.29282546  -72313.76611886
+  -80729.4964548   -91604.63173404 -105364.67716482 -122602.19305405
+ -144157.39678584    -805.19232802    -952.87004532   -1053.07881241
+   -1094.24599601   -1131.38327615   -1165.33198849]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19026,8 +19026,8 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[12.15889738 12.15888125 12.15888235 12.15888151 12.15888179 12.15888242
+ 12.15890171]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
@@ -19116,8 +19116,8 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[12.15889738 12.15888125 12.15888235 12.15888151 12.15888179 12.15888242
+ 12.15890171]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19568,7 +19568,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[1657270.23422367]</t>
+          <t>[1829426.46862955]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[4044675.00943214]</t>
+          <t>[4460569.13398183]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -19614,7 +19614,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>[37.5]</t>
+          <t>[37.49999518]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[3.13219879e+09 3.13219879e+09 4.96341982e+07 0.00000000e+00
+          <t>[3.46355619e+09 3.46355619e+09 6.67639525e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -19661,7 +19661,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>[1034286.83382815]</t>
+          <t>[834222.30577811]</t>
         </is>
       </c>
       <c r="E773" t="inlineStr"/>
@@ -19684,7 +19684,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>[2920794.25999043]</t>
+          <t>[2483080.31721022]</t>
         </is>
       </c>
       <c r="E774" t="inlineStr"/>
@@ -19731,26 +19731,26 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[[2.25728098e+10 5.88832555e+12 2.25728098e+10 5.88832555e+12
-  1.52235685e+10 1.24971223e+11]
- [2.04978625e+10 4.24270853e+12 2.04978625e+10 4.24270853e+12
-  1.41035685e+10 1.24971223e+11]
- [1.84229151e+10 2.95106681e+12 1.84229151e+10 2.95106681e+12
-  1.29835685e+10 1.24971223e+11]
- [1.63479677e+10 1.96915349e+12 1.63479677e+10 1.96915349e+12
-  1.18635685e+10 1.24971223e+11]
- [1.42730203e+10 1.25272165e+12 1.42730203e+10 1.25272165e+12
-  1.07435685e+10 1.24971223e+11]
- [1.21980730e+10 7.57524372e+11 1.21980730e+10 7.57524372e+11
-  9.62356851e+09 1.24971223e+11]
- [1.01231256e+10 4.39314753e+11 1.01231256e+10 4.39314753e+11
-  8.50356851e+09 1.24971223e+11]
- [8.04817824e+09 2.53845875e+11 8.04817824e+09 2.53845875e+11
-  7.38356851e+09 1.24971223e+11]
- [5.97323087e+09 1.56870824e+11 5.97323087e+09 1.56870824e+11
-  6.26356851e+09 1.24971223e+11]
- [3.89828350e+09 1.04142686e+11 3.89828350e+09 1.04142686e+11
-  5.14356851e+09 1.24971223e+11]]</t>
+          <t>[[2.29749363e+10 6.01254828e+12 2.29749363e+10 6.01254828e+12
+  1.57541521e+10 1.67771951e+11]
+ [2.08999890e+10 4.35709176e+12 2.08999890e+10 4.35709176e+12
+  1.46341521e+10 1.67771951e+11]
+ [1.88250416e+10 3.05561055e+12 1.88250416e+10 3.05561055e+12
+  1.35141521e+10 1.67771951e+11]
+ [1.67500942e+10 2.06385773e+12 1.67500942e+10 2.06385773e+12
+  1.23941521e+10 1.67771951e+11]
+ [1.46751469e+10 1.33758639e+12 1.46751469e+10 1.33758639e+12
+  1.12741521e+10 1.67771951e+11]
+ [1.26001995e+10 8.32549624e+11 1.26001995e+10 8.32549624e+11
+  1.01541521e+10 1.67771951e+11]
+ [1.05252521e+10 5.04500510e+11 1.05252521e+10 5.04500510e+11
+  9.03415211e+09 1.67771951e+11]
+ [8.45030476e+09 3.09192137e+11 8.45030476e+09 3.09192137e+11
+  7.91415211e+09 1.67771951e+11]
+ [6.37535739e+09 2.02377592e+11 6.37535739e+09 2.02377592e+11
+  6.79415211e+09 1.67771951e+11]
+ [4.30041002e+09 1.39809959e+11 4.30041002e+09 1.39809959e+11
+  5.67415211e+09 1.67771951e+11]]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -19773,9 +19773,9 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057]</t>
+          <t>[3.1272271  3.12722571 3.12722432 3.12722367 3.12722377 3.12722386
+ 3.12722387 3.1272238  3.12722373 3.1272237  3.12722373 3.12722375
+ 3.12722379 3.12722385 3.1272239  3.12722476 3.12722642 3.12722809]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -19798,9 +19798,9 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114]</t>
+          <t>[1.77966795 1.77966716 1.77966637 1.779666   1.77966605 1.77966611
+ 1.77966611 1.77966607 1.77966603 1.77966602 1.77966603 1.77966604
+ 1.77966607 1.7796661  1.77966613 1.77966662 1.77966756 1.7796685 ]</t>
         </is>
       </c>
       <c r="E778" t="inlineStr"/>
@@ -19823,9 +19823,9 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114]</t>
+          <t>[1.77966795 1.77966716 1.77966637 1.779666   1.77966605 1.77966611
+ 1.77966611 1.77966607 1.77966603 1.77966602 1.77966603 1.77966604
+ 1.77966607 1.7796661  1.77966613 1.77966662 1.77966756 1.7796685 ]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -19848,9 +19848,9 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162]</t>
+          <t>[57.06333712 57.06326097 57.06318482 57.06314933 57.0631545  57.06315967
+ 57.06316028 57.06315632 57.06315237 57.06315104 57.06315234 57.06315365
+ 57.06315579 57.06315878 57.06316177 57.06320881 57.06329989 57.06339097]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -19873,9 +19873,9 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162]</t>
+          <t>[57.06333712 57.06326097 57.06318482 57.06314933 57.0631545  57.06315967
+ 57.06316028 57.06315632 57.06315237 57.06315104 57.06315234 57.06315365
+ 57.06315579 57.06315878 57.06316177 57.06320881 57.06329989 57.06339097]</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -19898,9 +19898,10 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323]</t>
+          <t>[114.12667425 114.12652194 114.12636964 114.12629866 114.126309
+ 114.12631934 114.12632056 114.12631264 114.12630473 114.12630208
+ 114.12630469 114.12630729 114.12631158 114.12631756 114.12632354
+ 114.12641761 114.12659977 114.12678194]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20095,8 +20096,8 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>[1.77056998 1.77056998 1.77056998 1.00460023 1.00460023 1.00460023
- 0.42942434 0.41532698 0.40122961 0.35592244 0.30536904 0.25481564]</t>
+          <t>[1.05980354 1.05980353 1.05980352 0.81609954 0.81609973 0.81609993
+ 0.74707821 0.6090346  0.47099098 0.40263631 0.40263614 0.40263597]</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
@@ -20119,8 +20120,8 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>[1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[0.60197436 0.60197436 0.60197435 0.46344772 0.46344783 0.46344793
+ 0.42428035 0.34594521 0.26761036 0.22882286 0.22882276 0.22882267]</t>
         </is>
       </c>
       <c r="E790" t="inlineStr"/>
@@ -20143,8 +20144,8 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[0.60197436 0.60197436 0.60197435 0.46344772 0.46344783 0.46344793
+ 0.42428035 0.34594521 0.26761036 0.22882286 0.22882276 0.22882267]</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20167,8 +20168,8 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[19.50149451 19.50149392 19.50149333 15.03188005 15.03189064 15.03190123
+ 11.53140809  6.24756426  2.88950891  1.7992065   1.79920422  1.79920193]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20191,8 +20192,8 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>[26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[19.50149451 19.50149392 19.50149333 15.03188005 15.03189064 15.03190123
+ 11.53140809  6.24756426  2.88950891  1.7992065   1.79920422  1.79920193]</t>
         </is>
       </c>
       <c r="E793" t="inlineStr"/>
@@ -20215,8 +20216,8 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>[53.30723966 53.30723966 53.30723966 30.36034687 30.36034687 30.36034687
- 12.59712135 11.39677056 10.27520193  7.67006363  4.84404422  2.81456778]</t>
+          <t>[39.00298902 39.00298784 39.00298665 30.0637601  30.06378128 30.06380246
+ 23.06281618 12.49512853  5.77901783  3.598413    3.59840843  3.59840386]</t>
         </is>
       </c>
       <c r="E794" t="inlineStr"/>
@@ -20310,8 +20311,8 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
+          <t>[12.15890325 12.15890313 12.158903   12.15890288 12.15890573 12.15890858
+ 12.15891143 10.10561015  8.05230887  5.99900759  5.99900506  5.99900253
   5.999     ]</t>
         </is>
       </c>
@@ -20335,8 +20336,8 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[0.04799733 0.04799733 0.04799733 0.02718155 0.02718155 0.02718155
- 0.01179318 0.01179318 0.01179318 0.01140434 0.01140434 0.01140434]</t>
+          <t>[0.02598522 0.02598522 0.02598522 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02003331 0.02003331 0.02003331]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -20493,7 +20494,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-1.71966582e+07]]</t>
+ [-1.52336482e+07]]</t>
         </is>
       </c>
       <c r="E805" t="inlineStr"/>
@@ -20516,8 +20517,8 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>[[-1.98321300e+06]
- [ 4.14731705e+08]
+          <t>[[-1.99256715e+06]
+ [ 4.16124579e+08]
  [ 6.20262840e+06]]</t>
         </is>
       </c>
@@ -20541,7 +20542,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>[1518537.45761618 1518537.45761618 3037074.91523236       0.
+          <t>[1847986.13360689 1847986.13360689 3695972.26721378       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -20634,7 +20635,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>[1982682.0360818]</t>
+          <t>[1782617.50803176]</t>
         </is>
       </c>
       <c r="E811" t="inlineStr"/>
@@ -20657,7 +20658,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>[-3.23276744e+00 -4.58545692e-02  1.02545578e+02]</t>
+          <t>[-3.59558341e+00 -5.10008626e-02  1.13679861e+02]</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -20680,7 +20681,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>[2.76178965e+10 2.74869637e+10 2.96358377e+08 5.41253437e+02
+          <t>[2.80389697e+10 2.79080368e+10 2.92605692e+08 5.41253437e+02
  1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
@@ -20859,22 +20860,22 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -48129.07265843]
- [ -48823.69299811]
- [ -50930.68327043]
- [ -54520.64739801]
- [ -59715.6422191 ]
- [ -66696.98950538]
- [ -75719.0074046 ]
- [ -87132.29856126]
- [-101422.72217212]
- [-119276.22248537]
- [   -730.45653917]
- [   -861.94111345]
- [   -950.56135486]
- [   -986.83834303]
- [  -1019.50308153]
- [  -1049.3143179 ]]</t>
+ [ -58341.71359646]
+ [ -59179.6323348 ]
+ [ -61721.01244711]
+ [ -66050.29282546]
+ [ -72313.76611886]
+ [ -80729.4964548 ]
+ [ -91604.63173404]
+ [-105364.67716482]
+ [-122602.19305405]
+ [-144157.39678584]
+ [   -805.19232802]
+ [   -952.87004532]
+ [  -1053.07881241]
+ [  -1094.24599601]
+ [  -1131.38327615]
+ [  -1165.33198849]]</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
@@ -20967,18 +20968,18 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>[[-1049.3143179 ]
- [-1209.09984782]
- [-1324.13573378]
- [-1416.35103859]
- [-1524.64894179]
- [-1615.27225137]
- [-1693.97102547]
- [-1670.92053784]
- [-1643.10187946]
- [-1611.31912862]
- [-1403.93903101]
- [-1204.52743689]
+          <t>[[-1165.33215078]
+ [-1348.13552701]
+ [-1480.54620333]
+ [-1587.12312104]
+ [-1712.7354511 ]
+ [-1818.18816273]
+ [-1909.9971849 ]
+ [-1570.39069597]
+ [-1259.22881894]
+ [ -962.19979696]
+ [ -978.02723149]
+ [ -993.06343273]
  [-1007.39469272]]</t>
         </is>
       </c>
@@ -21002,24 +21003,24 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>[[-34780255.00368635]
- [-32613356.64435896]
- [-30208219.37682861]
- [-29325947.8627499 ]
- [-28439053.69326902]
- [-27542759.55126799]
- [-26631970.22392911]
- [-25701089.92969346]
- [-24743804.07997975]
- [-23752799.96512831]
- [-22719384.74073331]
- [-21632932.046011  ]
- [-20712621.58716938]
- [-19987694.67788485]
- [-19262404.59579078]
- [-18899656.51454088]
- [-18536851.55643091]
- [-18173995.0555603 ]]</t>
+          <t>[[-34811406.71440998]
+ [-32419411.52586045]
+ [-29738625.81761167]
+ [-28747384.32061258]
+ [-27750566.98385061]
+ [-26742413.00059635]
+ [-25716780.95431354]
+ [-24666928.28706744]
+ [-23585245.70231289]
+ [-22462915.05877052]
+ [-21289438.43784246]
+ [-20051953.83190156]
+ [-19015434.29883802]
+ [-18215202.213343  ]
+ [-17414561.05112594]
+ [-17014123.77119652]
+ [-16613621.66645006]
+ [-16213060.69235374]]</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -21042,24 +21043,24 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>[[ -4468466.39089279]
- [-11225939.47700839]
- [-11474784.03195867]
- [  2938079.72142881]
- [  2938171.14662342]
- [  2938264.57579226]
- [  2938361.5897738 ]
- [  2938463.9710914 ]
- [  2938573.81184287]
- [  2938693.65778748]
- [  2938826.71843568]
- [  2938977.19405941]
- [  2938952.15482558]
- [  2938683.72594222]
- [  2938743.46720102]
- [  2938249.97959883]
- [  2938264.34409583]
- [  2938278.52644299]]</t>
+          <t>[[ -4543418.05423865]
+ [-10466549.74067794]
+ [-10089741.7266597 ]
+ [  2938034.75273627]
+ [  2938111.22110245]
+ [  2938189.68292118]
+ [  2938271.55873316]
+ [  2938358.45241817]
+ [  2938452.24993978]
+ [  2938555.25223254]
+ [  2938670.37070417]
+ [  2938801.43188554]
+ [  2938772.24702778]
+ [  2938521.4229866 ]
+ [  2938570.43470349]
+ [  2938159.52565694]
+ [  2938171.31245785]
+ [  2938182.95061114]]</t>
         </is>
       </c>
       <c r="E824" t="inlineStr"/>
@@ -21082,24 +21083,24 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>[[-19692.99876817]
- [-49887.07752378]
- [-52664.8893375 ]
- [  8739.75404055]
- [  8740.15990336]
- [  8740.57700063]
- [  8741.01245737]
- [  8741.47438087]
- [  8741.97235793]
- [  8742.51812311]
- [  8743.12653575]
- [  8743.81710118]
- [  8743.72459888]
- [  8742.53496604]
- [  8742.82077469]
- [  8740.59600368]
- [  8740.66568973]
- [  8740.73482336]]</t>
+          <t>[[-20060.37093002]
+ [-46655.5435187 ]
+ [-46648.4920919 ]
+ [  8739.55757137]
+ [  8739.89734627]
+ [  8740.24790573]
+ [  8740.61565732]
+ [  8741.00790057]
+ [  8741.43328195]
+ [  8741.9024109 ]
+ [  8742.42876836]
+ [  8743.03012324]
+ [  8742.91641447]
+ [  8741.80345087]
+ [  8742.03820088]
+ [  8740.18583631]
+ [  8740.24308513]
+ [  8740.29988443]]</t>
         </is>
       </c>
       <c r="E825" t="inlineStr"/>
@@ -21122,24 +21123,24 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>[[ -220500.3256792 ]
- [-1010389.29808811]
- [-1995511.02999457]
- [-2287476.6543693 ]
- [-2257908.78622725]
- [-2228270.13821105]
- [-2198567.22351875]
- [-2168806.65660904]
- [-2138995.2217123 ]
- [-2109139.95281189]
- [-2079248.23038005]
- [-2049327.902593  ]
- [-2019387.4254771 ]
- [-1989426.7493924 ]
- [-1959443.19461986]
- [-1944448.30315836]
- [-1929449.56870645]
- [-1914447.47718543]]</t>
+          <t>[[ -269118.02513553]
+ [-1064400.47442276]
+ [-1978275.89007289]
+ [-2286766.02189921]
+ [-2257304.95136506]
+ [-2227794.46218465]
+ [-2198239.8872334 ]
+ [-2168646.65858278]
+ [-2139020.36928405]
+ [-2109366.84558688]
+ [-2079692.23446286]
+ [-2050003.11361697]
+ [-2020306.61937913]
+ [-1990602.13297915]
+ [-1960886.66308017]
+ [-1946029.30231485]
+ [-1931170.69234217]
+ [-1916311.21763347]]</t>
         </is>
       </c>
       <c r="E826" t="inlineStr"/>
@@ -21162,24 +21163,24 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>[[5.07879754e+07]
- [2.31085435e+08]
- [4.51494646e+08]
- [5.15078637e+08]
- [5.05185241e+08]
- [4.95276081e+08]
- [4.85352735e+08]
- [4.75416790e+08]
- [4.65469860e+08]
- [4.55513602e+08]
- [4.45549736e+08]
- [4.35580075e+08]
- [4.25606547e+08]
- [4.15629177e+08]
- [4.05647408e+08]
- [4.00656092e+08]
- [3.95664103e+08]
- [3.90671551e+08]]</t>
+          <t>[[6.19423844e+07]
+ [2.43191070e+08]
+ [4.47093687e+08]
+ [5.14405372e+08]
+ [5.04536408e+08]
+ [4.94656466e+08]
+ [4.84766825e+08]
+ [4.74868775e+08]
+ [4.64963634e+08]
+ [4.55052761e+08]
+ [4.45137574e+08]
+ [4.35219577e+08]
+ [4.25300381e+08]
+ [4.15379864e+08]
+ [4.05457379e+08]
+ [4.00496395e+08]
+ [3.95535255e+08]
+ [3.90574044e+08]]</t>
         </is>
       </c>
       <c r="E827" t="inlineStr"/>
@@ -21202,24 +21203,24 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>[[1021817.29636113]
- [2233439.34490298]
- [3859943.24988701]
- [6203462.56240326]
- [6203438.19650274]
- [6203413.70313015]
- [6203388.95035488]
- [6203363.79747132]
- [6203338.08995482]
- [6203311.65343544]
- [6203284.28598583]
- [6203255.74757335]
- [6203225.74478086]
- [6203200.33029463]
- [6203180.31149574]
- [6203160.28279713]
- [6203150.26565092]
- [6203140.24696647]]</t>
+          <t>[[1022564.3479814 ]
+ [2234696.87482138]
+ [3861125.13288338]
+ [6203372.3072843 ]
+ [6203347.50879065]
+ [6203322.57090245]
+ [6203297.34969462]
+ [6203271.69152532]
+ [6203245.42752312]
+ [6203218.36751372]
+ [6203190.29087809]
+ [6203160.93502771]
+ [6203129.97827938]
+ [6203104.04903091]
+ [6203084.03080782]
+ [6203064.00244278]
+ [6203053.98519368]
+ [6203043.96636646]]</t>
         </is>
       </c>
       <c r="E828" t="inlineStr"/>
@@ -21271,11 +21272,11 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
+          <t>[12.15889738 12.158892   12.15888663 12.15888125 12.15888162 12.15888198
+ 12.15888235 12.15888207 12.15888179 12.15888151 12.1588816  12.1588817
+ 12.15888179 12.158882   12.15888221 12.15888242 12.15888885 12.15889528
+ 12.15890325 12.15890313 12.158903   12.15890288 12.15890573 12.15890858
+ 12.15891143 10.10561015  8.05230887  5.99900759  5.99900506  5.99900253
   5.999     ]</t>
         </is>
       </c>
@@ -21302,8 +21303,8 @@
           <t>[0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
- 0.04799733 0.04799733 0.04799733 0.02718155 0.02718155 0.02718155
- 0.01179318 0.01179318 0.01179318 0.01140434 0.01140434 0.01140434]</t>
+ 0.02598522 0.02598522 0.02598522 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02003331 0.02003331 0.02003331]</t>
         </is>
       </c>
       <c r="E831" t="inlineStr"/>
@@ -21451,11 +21452,11 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>[2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 1.77056998 1.77056998 1.77056998 1.00460023 1.00460023 1.00460023
- 0.42942434 0.41532698 0.40122961 0.35592244 0.30536904 0.25481564]</t>
+          <t>[3.1272271  3.12722571 3.12722432 3.12722367 3.12722377 3.12722386
+ 3.12722387 3.1272238  3.12722373 3.1272237  3.12722373 3.12722375
+ 3.12722379 3.12722385 3.1272239  3.12722476 3.12722642 3.12722809
+ 1.05980354 1.05980353 1.05980352 0.81609954 0.81609973 0.81609993
+ 0.74707821 0.6090346  0.47099098 0.40263631 0.40263614 0.40263597]</t>
         </is>
       </c>
       <c r="E837" t="inlineStr"/>
@@ -21478,11 +21479,11 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[1.77966795 1.77966716 1.77966637 1.779666   1.77966605 1.77966611
+ 1.77966611 1.77966607 1.77966603 1.77966602 1.77966603 1.77966604
+ 1.77966607 1.7796661  1.77966613 1.77966662 1.77966756 1.7796685
+ 0.60197436 0.60197436 0.60197435 0.46344772 0.46344783 0.46344793
+ 0.42428035 0.34594521 0.26761036 0.22882286 0.22882276 0.22882267]</t>
         </is>
       </c>
       <c r="E838" t="inlineStr"/>
@@ -21505,11 +21506,11 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[1.77966795 1.77966716 1.77966637 1.779666   1.77966605 1.77966611
+ 1.77966611 1.77966607 1.77966603 1.77966602 1.77966603 1.77966604
+ 1.77966607 1.7796661  1.77966613 1.77966662 1.77966756 1.7796685
+ 0.60197436 0.60197436 0.60197435 0.46344772 0.46344783 0.46344793
+ 0.42428035 0.34594521 0.26761036 0.22882286 0.22882276 0.22882267]</t>
         </is>
       </c>
       <c r="E839" t="inlineStr"/>
@@ -21532,11 +21533,11 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[57.06333712 57.06326097 57.06318482 57.06314933 57.0631545  57.06315967
+ 57.06316028 57.06315632 57.06315237 57.06315104 57.06315234 57.06315365
+ 57.06315579 57.06315878 57.06316177 57.06320881 57.06329989 57.06339097
+ 19.50149451 19.50149392 19.50149333 15.03188005 15.03189064 15.03190123
+ 11.53140809  6.24756426  2.88950891  1.7992065   1.79920422  1.79920193]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -21559,11 +21560,11 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[57.06333712 57.06326097 57.06318482 57.06314933 57.0631545  57.06315967
+ 57.06316028 57.06315632 57.06315237 57.06315104 57.06315234 57.06315365
+ 57.06315579 57.06315878 57.06316177 57.06320881 57.06329989 57.06339097
+ 19.50149451 19.50149392 19.50149333 15.03188005 15.03189064 15.03190123
+ 11.53140809  6.24756426  2.88950891  1.7992065   1.79920422  1.79920193]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -21586,11 +21587,12 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 53.30723966 53.30723966 53.30723966 30.36034687 30.36034687 30.36034687
- 12.59712135 11.39677056 10.27520193  7.67006363  4.84404422  2.81456778]</t>
+          <t>[114.12667425 114.12652194 114.12636964 114.12629866 114.126309
+ 114.12631934 114.12632056 114.12631264 114.12630473 114.12630208
+ 114.12630469 114.12630729 114.12631158 114.12631756 114.12632354
+ 114.12641761 114.12659977 114.12678194  39.00298902  39.00298784
+  39.00298665  30.0637601   30.06378128  30.06380246  23.06281618
+  12.49512853   5.77901783   3.598413     3.59840843   3.59840386]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -21613,36 +21615,36 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>[[-3.47802550e+07]
- [-3.26133566e+07]
- [-3.02082194e+07]
- [-2.93259479e+07]
- [-2.84390537e+07]
- [-2.75427596e+07]
- [-2.66319702e+07]
- [-2.57010899e+07]
- [-2.47438041e+07]
- [-2.37528000e+07]
- [-2.27193847e+07]
- [-2.16329320e+07]
- [-2.07126216e+07]
- [-1.99876947e+07]
- [-1.92624046e+07]
- [-1.88996565e+07]
- [-1.85368516e+07]
- [-1.81739951e+07]
- [-1.56085099e+07]
- [-1.40227392e+07]
- [-1.24353886e+07]
- [-1.11380528e+07]
- [-9.83907042e+06]
- [-8.53845441e+06]
- [-8.19518678e+06]
- [-7.86237862e+06]
- [-7.54055479e+06]
- [-7.27265689e+06]
- [-7.04178391e+06]
- [ 4.51109372e-10]]</t>
+          <t>[[-3.48114067e+07]
+ [-3.24194115e+07]
+ [-2.97386258e+07]
+ [-2.87473843e+07]
+ [-2.77505670e+07]
+ [-2.67424130e+07]
+ [-2.57167810e+07]
+ [-2.46669283e+07]
+ [-2.35852457e+07]
+ [-2.24629151e+07]
+ [-2.12894384e+07]
+ [-2.00519538e+07]
+ [-1.90154343e+07]
+ [-1.82152022e+07]
+ [-1.74145611e+07]
+ [-1.70141238e+07]
+ [-1.66136217e+07]
+ [-1.62130607e+07]
+ [-1.42776118e+07]
+ [-1.33217450e+07]
+ [-1.23640662e+07]
+ [-1.13032495e+07]
+ [-1.02405257e+07]
+ [-9.17590401e+06]
+ [-8.58871184e+06]
+ [-8.10784650e+06]
+ [-7.73529351e+06]
+ [-7.43894965e+06]
+ [-7.14389912e+06]
+ [ 9.92440619e-09]]</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -21665,36 +21667,36 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[[-4.46846639e+06]
- [-1.12259395e+07]
- [-1.14747840e+07]
- [ 2.93807972e+06]
- [ 2.93817115e+06]
- [ 2.93826458e+06]
- [ 2.93836159e+06]
- [ 2.93846397e+06]
- [ 2.93857381e+06]
- [ 2.93869366e+06]
- [ 2.93882672e+06]
- [ 2.93897719e+06]
- [ 2.93895215e+06]
- [ 2.93868373e+06]
- [ 2.93874347e+06]
- [ 2.93824998e+06]
- [ 2.93826434e+06]
- [ 2.93827853e+06]
- [ 2.94055359e+06]
- [ 2.94116937e+06]
- [ 2.94172796e+06]
- [ 2.94170149e+06]
- [ 2.94254409e+06]
- [ 2.94321099e+06]
- [ 2.93933593e+06]
- [ 2.93943391e+06]
- [ 2.93948950e+06]
- [ 2.93926019e+06]
- [ 2.93907932e+06]
- [ 1.12062064e+03]]</t>
+          <t>[[-4.54341805e+06]
+ [-1.04665497e+07]
+ [-1.00897417e+07]
+ [ 2.93803475e+06]
+ [ 2.93811122e+06]
+ [ 2.93818968e+06]
+ [ 2.93827156e+06]
+ [ 2.93835845e+06]
+ [ 2.93845225e+06]
+ [ 2.93855525e+06]
+ [ 2.93867037e+06]
+ [ 2.93880143e+06]
+ [ 2.93877225e+06]
+ [ 2.93852142e+06]
+ [ 2.93857043e+06]
+ [ 2.93815953e+06]
+ [ 2.93817131e+06]
+ [ 2.93818295e+06]
+ [ 2.93913686e+06]
+ [ 2.93964444e+06]
+ [ 2.94010625e+06]
+ [ 2.94100452e+06]
+ [ 2.94170314e+06]
+ [ 2.94225726e+06]
+ [ 2.94042477e+06]
+ [ 2.94009395e+06]
+ [ 2.93973363e+06]
+ [ 2.93946484e+06]
+ [ 2.93952091e+06]
+ [ 1.78168103e+03]]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -21717,36 +21719,36 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[[-1.96929988e+04]
- [-4.98870775e+04]
- [-5.26648893e+04]
- [ 8.73975404e+03]
- [ 8.74015990e+03]
- [ 8.74057700e+03]
- [ 8.74101246e+03]
- [ 8.74147438e+03]
- [ 8.74197236e+03]
- [ 8.74251812e+03]
- [ 8.74312654e+03]
- [ 8.74381710e+03]
- [ 8.74372460e+03]
- [ 8.74253497e+03]
- [ 8.74282077e+03]
- [ 8.74059600e+03]
- [ 8.74066569e+03]
- [ 8.74073482e+03]
- [ 8.75121372e+03]
- [ 8.75434481e+03]
- [ 8.75730925e+03]
- [ 8.75776949e+03]
- [ 8.76293323e+03]
- [ 8.76757113e+03]
- [ 8.74728437e+03]
- [ 8.74846894e+03]
- [ 8.74955371e+03]
- [ 8.74891871e+03]
- [ 8.74885594e+03]
- [ 9.55113012e+00]]</t>
+          <t>[[-2.00603709e+04]
+ [-4.66555435e+04]
+ [-4.66484921e+04]
+ [ 8.73955757e+03]
+ [ 8.73989735e+03]
+ [ 8.74024791e+03]
+ [ 8.74061566e+03]
+ [ 8.74100790e+03]
+ [ 8.74143328e+03]
+ [ 8.74190241e+03]
+ [ 8.74242877e+03]
+ [ 8.74303012e+03]
+ [ 8.74291641e+03]
+ [ 8.74180345e+03]
+ [ 8.74203820e+03]
+ [ 8.74018584e+03]
+ [ 8.74024309e+03]
+ [ 8.74029988e+03]
+ [ 8.74472606e+03]
+ [ 8.74731017e+03]
+ [ 8.74976369e+03]
+ [ 8.75461112e+03]
+ [ 8.75889595e+03]
+ [ 8.76275049e+03]
+ [ 8.75340631e+03]
+ [ 8.75222474e+03]
+ [ 8.75131424e+03]
+ [ 8.75139987e+03]
+ [ 8.75430086e+03]
+ [ 1.74485430e+01]]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -21769,36 +21771,36 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>[[-2.20500326e+05]
- [-1.01038930e+06]
- [-1.99551103e+06]
- [-2.28747665e+06]
- [-2.25790879e+06]
- [-2.22827014e+06]
- [-2.19856722e+06]
- [-2.16880666e+06]
- [-2.13899522e+06]
- [-2.10913995e+06]
- [-2.07924823e+06]
- [-2.04932790e+06]
- [-2.01938743e+06]
- [-1.98942675e+06]
- [-1.95944319e+06]
- [-1.94444830e+06]
- [-1.92944957e+06]
- [-1.91444748e+06]
- [-1.80968270e+06]
- [-1.70450309e+06]
- [-1.59909467e+06]
- [-1.44789314e+06]
- [-1.29587459e+06]
- [-1.14352197e+06]
- [-1.05201727e+06]
- [-9.59984566e+05]
- [-8.67464513e+05]
- [-7.80658460e+05]
- [-6.93227370e+05]
- [-2.08995445e-04]]</t>
+          <t>[[-2.69118025e+05]
+ [-1.06440047e+06]
+ [-1.97827589e+06]
+ [-2.28676602e+06]
+ [-2.25730495e+06]
+ [-2.22779446e+06]
+ [-2.19823989e+06]
+ [-2.16864666e+06]
+ [-2.13902037e+06]
+ [-2.10936685e+06]
+ [-2.07969223e+06]
+ [-2.05000311e+06]
+ [-2.02030662e+06]
+ [-1.99060213e+06]
+ [-1.96088666e+06]
+ [-1.94602930e+06]
+ [-1.93117069e+06]
+ [-1.91631122e+06]
+ [-1.81240218e+06]
+ [-1.70774793e+06]
+ [-1.60251943e+06]
+ [-1.45119152e+06]
+ [-1.29890294e+06]
+ [-1.14608444e+06]
+ [-1.05435572e+06]
+ [-9.62380573e+05]
+ [-8.69710369e+05]
+ [-7.82118201e+05]
+ [-6.93375333e+05]
+ [-4.52823762e-04]]</t>
         </is>
       </c>
       <c r="E846" t="inlineStr"/>
@@ -21821,36 +21823,36 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>[[ 5.07879754e+07]
- [ 2.31085435e+08]
- [ 4.51494646e+08]
- [ 5.15078637e+08]
- [ 5.05185241e+08]
- [ 4.95276081e+08]
- [ 4.85352735e+08]
- [ 4.75416790e+08]
- [ 4.65469860e+08]
- [ 4.55513602e+08]
- [ 4.45549736e+08]
- [ 4.35580075e+08]
- [ 4.25606547e+08]
- [ 4.15629177e+08]
- [ 4.05647408e+08]
- [ 4.00656092e+08]
- [ 3.95664103e+08]
- [ 3.90671551e+08]
- [ 3.55839840e+08]
- [ 3.20932892e+08]
- [ 2.85992370e+08]
- [ 2.35986739e+08]
- [ 1.85874111e+08]
- [ 1.35755965e+08]
- [ 1.05708792e+08]
- [ 7.56227143e+07]
- [ 4.55162826e+07]
- [ 1.74142451e+07]
- [-1.06773365e+07]
- [ 2.45219599e-02]]</t>
+          <t>[[ 6.19423844e+07]
+ [ 2.43191070e+08]
+ [ 4.47093687e+08]
+ [ 5.14405372e+08]
+ [ 5.04536408e+08]
+ [ 4.94656466e+08]
+ [ 4.84766825e+08]
+ [ 4.74868775e+08]
+ [ 4.64963634e+08]
+ [ 4.55052761e+08]
+ [ 4.45137574e+08]
+ [ 4.35219577e+08]
+ [ 4.25300381e+08]
+ [ 4.15379864e+08]
+ [ 4.05457379e+08]
+ [ 4.00496395e+08]
+ [ 3.95535255e+08]
+ [ 3.90574044e+08]
+ [ 3.55930360e+08]
+ [ 3.21143426e+08]
+ [ 2.86253407e+08]
+ [ 2.36243170e+08]
+ [ 1.86096796e+08]
+ [ 1.35908328e+08]
+ [ 1.05821340e+08]
+ [ 7.57331436e+07]
+ [ 4.56164264e+07]
+ [ 1.74750636e+07]
+ [-1.06650124e+07]
+ [ 4.62393695e-02]]</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
@@ -21873,35 +21875,35 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>[[1021817.29636113]
- [2233439.34490298]
- [3859943.24988701]
- [6203462.56240326]
- [6203438.19650274]
- [6203413.70313015]
- [6203388.95035488]
- [6203363.79747132]
- [6203338.08995482]
- [6203311.65343544]
- [6203284.28598583]
- [6203255.74757335]
- [6203225.74478086]
- [6203200.33029463]
- [6203180.31149574]
- [6203160.28279713]
- [6203150.26565092]
- [6203140.24696647]
- [6203388.03619043]
- [6203318.00690156]
- [6203247.93860792]
- [6203596.7629968 ]
- [6203495.72371816]
- [6203394.559491  ]
- [6204184.02576691]
- [6204172.16225577]
- [6204161.50516292]
- [6204285.95337743]
- [6204491.78238547]
+          <t>[[1022564.3479814 ]
+ [2234696.87482138]
+ [3861125.13288338]
+ [6203372.3072843 ]
+ [6203347.50879065]
+ [6203322.57090245]
+ [6203297.34969462]
+ [6203271.69152532]
+ [6203245.42752312]
+ [6203218.36751372]
+ [6203190.29087809]
+ [6203160.93502771]
+ [6203129.97827938]
+ [6203104.04903091]
+ [6203084.03080782]
+ [6203064.00244278]
+ [6203053.98519368]
+ [6203043.96636646]
+ [6203752.81476642]
+ [6203682.32120289]
+ [6203611.75167403]
+ [6203813.6368103 ]
+ [6203711.92770957]
+ [6203610.03911789]
+ [6203589.24717216]
+ [6203731.63327049]
+ [6203975.1624126 ]
+ [6204131.44757111]
+ [6204073.85226854]
  [      0.        ]]</t>
         </is>
       </c>
@@ -22047,7 +22049,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>[11.02193253]</t>
+          <t>[12.15889738]</t>
         </is>
       </c>
       <c r="E853" t="inlineStr"/>
@@ -27185,7 +27187,7 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>[2920794.25999043]</t>
+          <t>[2483080.31721022]</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr"/>
@@ -27208,7 +27210,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>[1034286.83382815]</t>
+          <t>[834222.30577811]</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr"/>
@@ -27231,7 +27233,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>[16201828.74943453]</t>
+          <t>[15764114.80665431]</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr"/>
@@ -27254,7 +27256,7 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>[1080.12191663]</t>
+          <t>[1050.94098711]</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr"/>
@@ -27277,7 +27279,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>[1982682.0360818]</t>
+          <t>[1782617.50803176]</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr"/>
@@ -27346,7 +27348,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>[2920794.25999043]</t>
+          <t>[2483080.31721022]</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
@@ -27369,7 +27371,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[2920794.25999043]</t>
+          <t>[2483080.31721022]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27419,7 +27421,7 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>[0.27999646]</t>
+          <t>[0.25699012]</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr"/>
@@ -27567,9 +27569,9 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>[1049.3143179  1209.09984782 1324.13573378 1416.35103859 1524.64894179
- 1615.27225137 1693.97102547 1670.92053784 1643.10187946 1611.31912862
- 1403.93903101 1204.52743689 1007.39469272]</t>
+          <t>[1165.33215078 1348.13552701 1480.54620333 1587.12312104 1712.7354511
+ 1818.18816273 1909.9971849  1570.39069597 1259.22881894  962.19979696
+  978.02723149  993.06343273 1007.39469272]</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
@@ -27807,8 +27809,8 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
+          <t>[12.15890325 12.15890313 12.158903   12.15890288 12.15890573 12.15890858
+ 12.15891143 10.10561015  8.05230887  5.99900759  5.99900506  5.99900253
   5.999     ]</t>
         </is>
       </c>
@@ -27903,9 +27905,9 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>[1049.3143179  1209.09984782 1324.13573378 1416.35103859 1524.64894179
- 1615.27225137 1693.97102547 1670.92053784 1643.10187946 1611.31912862
- 1403.93903101 1204.52743689 1007.39469272]</t>
+          <t>[1165.33215078 1348.13552701 1480.54620333 1587.12312104 1712.7354511
+ 1818.18816273 1909.9971849  1570.39069597 1259.22881894  962.19979696
+  978.02723149  993.06343273 1007.39469272]</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr"/>
@@ -28045,9 +28047,9 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>[-1049.3143179  -1209.09984782 -1324.13573378 -1416.35103859
- -1524.64894179 -1615.27225137 -1693.97102547 -1670.92053784
- -1643.10187946 -1611.31912862 -1403.93903101 -1204.52743689
+          <t>[-1165.33215078 -1348.13552701 -1480.54620333 -1587.12312104
+ -1712.7354511  -1818.18816273 -1909.9971849  -1570.39069597
+ -1259.22881894  -962.19979696  -978.02723149  -993.06343273
  -1007.39469272]</t>
         </is>
       </c>
@@ -28096,7 +28098,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[12.15890325 12.15890288 12.15891143  5.99900759  5.999     ]</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr"/>
@@ -28119,7 +28121,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>[0.04799733 0.02718155 0.01179318 0.01140434]</t>
+          <t>[0.02598522 0.02       0.02       0.02003331]</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr"/>
@@ -28184,7 +28186,7 @@
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[12.15890325 12.15890288 12.15891143  5.99900759  5.999     ]</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr"/>
@@ -28207,7 +28209,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>[0.04799733 0.02718155 0.01179318 0.01140434]</t>
+          <t>[0.02598522 0.02       0.02       0.02003331]</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr"/>
@@ -28443,8 +28445,8 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[0.04799733 0.04799733 0.04799733 0.02718155 0.02718155 0.02718155
- 0.01179318 0.01179318 0.01179318 0.01140434 0.01140434 0.01140434]</t>
+          <t>[0.02598522 0.02598522 0.02598522 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02003331 0.02003331 0.02003331]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28627,8 +28629,8 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>[1.77056998 1.77056998 1.77056998 1.00460023 1.00460023 1.00460023
- 0.42942434 0.41532698 0.40122961 0.35592244 0.30536904 0.25481564]</t>
+          <t>[1.05980354 1.05980353 1.05980352 0.81609954 0.81609973 0.81609993
+ 0.74707821 0.6090346  0.47099098 0.40263631 0.40263614 0.40263597]</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr"/>
@@ -28651,8 +28653,8 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>[1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[0.60197436 0.60197436 0.60197435 0.46344772 0.46344783 0.46344793
+ 0.42428035 0.34594521 0.26761036 0.22882286 0.22882276 0.22882267]</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr"/>
@@ -28675,8 +28677,8 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>[1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[0.60197436 0.60197436 0.60197435 0.46344772 0.46344783 0.46344793
+ 0.42428035 0.34594521 0.26761036 0.22882286 0.22882276 0.22882267]</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr"/>
@@ -28699,8 +28701,8 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>[26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[19.50149451 19.50149392 19.50149333 15.03188005 15.03189064 15.03190123
+ 11.53140809  6.24756426  2.88950891  1.7992065   1.79920422  1.79920193]</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr"/>
@@ -28723,8 +28725,8 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>[26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[19.50149451 19.50149392 19.50149333 15.03188005 15.03189064 15.03190123
+ 11.53140809  6.24756426  2.88950891  1.7992065   1.79920422  1.79920193]</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr"/>
@@ -28747,8 +28749,8 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>[53.30723966 53.30723966 53.30723966 30.36034687 30.36034687 30.36034687
- 12.59712135 11.39677056 10.27520193  7.67006363  4.84404422  2.81456778]</t>
+          <t>[39.00298902 39.00298784 39.00298665 30.0637601  30.06378128 30.06380246
+ 23.06281618 12.49512853  5.77901783  3.598413    3.59840843  3.59840386]</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr"/>
@@ -28842,18 +28844,18 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>[[-15610887.44818368]
- [-14023536.89268298]
- [-12434994.93518549]
- [-11136012.51178243]
- [ -9835396.49448067]
- [ -8533389.95921976]
- [ -8189848.13209433]
- [ -7857290.62886233]
- [ -7535760.47732304]
- [ -7268962.45179177]
- [ -7039960.2560007 ]
- [ -6848706.78611806]]</t>
+          <t>[[-14277781.45600925]
+ [-13320102.65992886]
+ [-12361050.02135536]
+ [-11298326.49312473]
+ [-10233705.07972168]
+ [ -9167463.46173711]
+ [ -8581492.27985907]
+ [ -8103833.51188786]
+ [ -7734277.29332669]
+ [ -7439226.64973219]
+ [ -7144034.1799882 ]
+ [ -6848706.78611807]]</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr"/>
@@ -28876,18 +28878,18 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>[[2938090.33464534]
- [2938748.75457626]
- [2939348.63310421]
- [2939822.2285196 ]
- [2940757.27242059]
- [2941517.43280888]
- [2938920.52539089]
- [2939066.51011289]
- [2939174.87525217]
- [2939035.8061459 ]
- [2938929.77103   ]
- [2938770.86681194]]</t>
+          <t>[[2938030.14263115]
+ [2938575.35543545]
+ [2939072.87307982]
+ [2939921.57996426]
+ [2940699.36346993]
+ [2941332.4142118 ]
+ [2939949.49891165]
+ [2939733.22144838]
+ [2939515.85315876]
+ [2939383.13533518]
+ [2939557.84579286]
+ [2939625.27363868]]</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr"/>
@@ -28910,18 +28912,18 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>[[8739.93069962]
- [8743.18582158]
- [8746.26786455]
- [8748.94312893]
- [8754.38491586]
- [8759.30415066]
- [8745.20075187]
- [8746.55032421]
- [8747.82284247]
- [8747.58175841]
- [8747.80608838]
- [8748.16613164]]</t>
+          <t>[[8739.64131112]
+ [8742.34019338]
+ [8744.89932843]
+ [8749.41506455]
+ [8753.94489378]
+ [8758.04261571]
+ [8750.90583534]
+ [8750.23012041]
+ [8749.94311971]
+ [8750.59492682]
+ [8753.92263062]
+ [8756.91526683]]</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr"/>
@@ -28944,18 +28946,18 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>[[-1881291.26041579]
- [-1778664.10277271]
- [-1675522.52911538]
- [-1527132.91254807]
- [-1377553.38889041]
- [-1227283.69039806]
- [-1136816.93910518]
- [-1045723.88728681]
- [ -954043.96128528]
- [ -867924.20976593]
- [ -781062.62992797]
- [ -693050.82246311]]</t>
+          <t>[[-1890542.4344609 ]
+ [-1787615.70087783]
+ [-1683962.51426491]
+ [-1534653.10622968]
+ [-1384124.68114047]
+ [-1232822.94065532]
+ [-1141871.88336121]
+ [-1050579.15478807]
+ [ -958462.62338851]
+ [ -871224.63572324]
+ [ -782662.2786495 ]
+ [ -693051.19370616]]</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr"/>
@@ -28978,18 +28980,18 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>[[ 3.80520688e+08]
- [ 3.46167408e+08]
- [ 3.11715356e+08]
- [ 2.62308376e+08]
- [ 2.12705421e+08]
- [ 1.63013781e+08]
- [ 1.33173318e+08]
- [ 1.03267188e+08]
- [ 7.33135037e+07]
- [ 4.53269885e+07]
- [ 1.73172550e+07]
- [-1.06981120e+07]]</t>
+          <t>[[ 3.81891036e+08]
+ [ 3.47475681e+08]
+ [ 3.12920282e+08]
+ [ 2.63330653e+08]
+ [ 2.13540960e+08]
+ [ 1.63650250e+08]
+ [ 1.33711037e+08]
+ [ 1.03746612e+08]
+ [ 7.37180779e+07]
+ [ 4.56115029e+07]
+ [ 1.74545186e+07]
+ [-1.06981108e+07]]</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr"/>
@@ -29012,18 +29014,18 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>[[6203388.1818362 ]
- [6203318.11195728]
- [6203247.97385601]
- [6203596.73233675]
- [6203495.56481517]
- [6203394.27337163]
- [6204183.1028436 ]
- [6204171.15634456]
- [6204160.51279913]
- [6204284.89921882]
- [6204490.83552296]
- [6204790.11673654]]</t>
+          <t>[[6203752.90487816]
+ [6203682.33372878]
+ [6203611.63042264]
+ [6203813.3476173 ]
+ [6203711.4557093 ]
+ [6203609.38520768]
+ [6203588.36319371]
+ [6203730.70574494]
+ [6203974.49568759]
+ [6204131.25006286]
+ [6204073.90610345]
+ [6204016.53558876]]</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr"/>
@@ -29317,18 +29319,18 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>[[-1049.3143179 ]
- [-1209.09984782]
- [-1324.13573378]
- [-1416.35103859]
- [-1524.64894179]
- [-1615.27225137]
- [-1693.97102547]
- [-1670.92053784]
- [-1643.10187946]
- [-1611.31912862]
- [-1403.93903101]
- [-1204.52743689]
+          <t>[[-1165.33215078]
+ [-1348.13552701]
+ [-1480.54620333]
+ [-1587.12312104]
+ [-1712.7354511 ]
+ [-1818.18816273]
+ [-1909.9971849 ]
+ [-1570.39069597]
+ [-1259.22881894]
+ [ -962.19979696]
+ [ -978.02723149]
+ [ -993.06343273]
  [-1007.39469272]]</t>
         </is>
       </c>
@@ -29352,7 +29354,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>[1034286.83382815]</t>
+          <t>[834222.30577811]</t>
         </is>
       </c>
       <c r="E1088" t="inlineStr"/>
@@ -29375,7 +29377,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>[48.08000277]</t>
+          <t>[58.81040021]</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr"/>
@@ -29398,7 +29400,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>[3.72161484e+09 3.72161484e+09 3.00522720e+07 0.00000000e+00
+          <t>[4.14268795e+09 4.14268795e+09 2.62995869e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -30533,7 +30535,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>[0.08604207]</t>
+          <t>[0.08604481]</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -30610,7 +30612,7 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>[-204.97497085]</t>
+          <t>[-204.9871422]</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
@@ -30637,7 +30639,7 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>[-0.04604207]</t>
+          <t>[-0.04604481]</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
@@ -30664,7 +30666,7 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>[0.11704207]</t>
+          <t>[0.11704481]</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
@@ -30687,7 +30689,7 @@
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>[0.46488885]</t>
+          <t>[0.46487408]</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
@@ -30710,7 +30712,7 @@
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>[2.15105182]</t>
+          <t>[2.15112017]</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
@@ -30733,7 +30735,7 @@
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[-0.53511115]</t>
+          <t>[-0.53512592]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30756,7 +30758,7 @@
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>[-1.15105182]</t>
+          <t>[-1.15112017]</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
@@ -30783,7 +30785,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>[0.15272468]</t>
+          <t>[0.15272953]</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
@@ -30810,7 +30812,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[6.69939733e+08]</t>
+          <t>[6.87578698e+08]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30837,7 +30839,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[1.98818973e+09]</t>
+          <t>[2.0058287e+09]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30864,7 +30866,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[3313.64955573]</t>
+          <t>[3343.04783069]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -34421,11 +34423,11 @@
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          48129.07265843
-  48823.69299811  50930.68327043  54520.64739801  59715.6422191
-  66696.98950538  75719.0074046   87132.29856126 101422.72217212
- 119276.22248537    730.45653917    861.94111345    950.56135486
-    986.83834303   1019.50308153   1049.3143179 ]</t>
+          <t>[     0.              0.              0.          58341.71359646
+  59179.6323348   61721.01244711  66050.29282546  72313.76611886
+  80729.4964548   91604.63173404 105364.67716482 122602.19305405
+ 144157.39678584    805.19232802    952.87004532   1053.07881241
+   1094.24599601   1131.38327615   1165.33198849]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -34675,10 +34677,10 @@
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          48129.07265843
-  48823.69299811  50930.68327043  54520.64739801  59715.6422191
-  66696.98950538  75719.0074046   87132.29856126 101422.72217212
- 119276.22248537      0.              0.              0.
+          <t>[     0.              0.              0.          58341.71359646
+  59179.6323348   61721.01244711  66050.29282546  72313.76611886
+  80729.4964548   91604.63173404 105364.67716482 122602.19305405
+ 144157.39678584      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -34878,8 +34880,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          730.45653917  861.94111345
-  950.56135486  986.83834303 1019.50308153 1049.3143179 ]</t>
+    0.            0.            0.          805.19232802  952.87004532
+ 1053.07881241 1094.24599601 1131.38327615 1165.33198849]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
@@ -35069,11 +35071,11 @@
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -48129.07265843
-  -48823.69299811  -50930.68327043  -54520.64739801  -59715.6422191
-  -66696.98950538  -75719.0074046   -87132.29856126 -101422.72217212
- -119276.22248537    -730.45653917    -861.94111345    -950.56135486
-    -986.83834303   -1019.50308153   -1049.3143179 ]</t>
+          <t>[      0.               0.               0.          -58341.71359646
+  -59179.6323348   -61721.01244711  -66050.29282546  -72313.76611886
+  -80729.4964548   -91604.63173404 -105364.67716482 -122602.19305405
+ -144157.39678584    -805.19232802    -952.87004532   -1053.07881241
+   -1094.24599601   -1131.38327615   -1165.33198849]</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr"/>
@@ -35119,8 +35121,8 @@
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[143.14198086 143.14198086 143.14198086 143.14198086 143.14198086
- 143.14198086]</t>
+          <t>[157.90765346 157.90755587 157.90755754 157.90755389 157.90755979
+ 157.90768913]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -35139,7 +35141,7 @@
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1.]</t>
+          <t>[0.99999867 0.99999991 0.99999993 0.99999998 0.99999995 0.99999841]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -35158,7 +35160,7 @@
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1.]</t>
+          <t>[0.99999867 1.00000009 0.99999993 1.00000002 1.00000005 1.00000159]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -35221,10 +35223,10 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[5.51096626 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626
- 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626
- 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626
- 5.51096626]</t>
+          <t>[6.07944869 6.079446   6.07944331 6.07944063 6.07944081 6.07944099
+ 6.07944117 6.07944104 6.0794409  6.07944076 6.0794408  6.07944085
+ 6.07944089 6.079441   6.0794411  6.07944121 6.07944442 6.07944764
+ 6.07945085]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -35247,7 +35249,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[  0.   0. -30.]</t>
+          <t>[  0.           0.         -30.00001262]</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr"/>
@@ -35270,7 +35272,7 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[5724.75134526]</t>
+          <t>[6966.72508606]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -35293,7 +35295,7 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[57542270.88102747]</t>
+          <t>[70025955.34346913]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -35335,7 +35337,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[95.41252242]</t>
+          <t>[116.11201281]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -35358,7 +35360,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[724.43744611]</t>
+          <t>[1072.86343308]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -35381,7 +35383,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[724.43744611]</t>
+          <t>[1072.86343308]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -35404,8 +35406,8 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[5.86787013e+06 5.86787013e+06 2.28741971e+05 1.76044994e+09
- 1.76044994e+09 0.00000000e+00]</t>
+          <t>[7.14089321e+06 7.14089321e+06 3.07082589e+05 2.14237686e+09
+ 2.14237686e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr"/>
@@ -35477,10 +35479,10 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[12.15889738 12.158892   12.15888663 12.15888125 12.15888162 12.15888198
+ 12.15888235 12.15888207 12.15888179 12.15888151 12.1588816  12.1588817
+ 12.15888179 12.158882   12.15888221 12.15888242 12.15888885 12.15889528
+ 12.15890171]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -35734,8 +35736,8 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>[22096.93645632 22096.93645632 22096.93645632 22096.93645632
- 22096.93645632 22096.93645632]</t>
+          <t>[24392.36056173 24392.34539038 24392.3456502  24392.34508323
+ 24392.34600052 24392.3661069 ]</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -35762,8 +35764,8 @@
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>[330894.65461276 330894.65461276 330894.65461276 330894.65461276
- 330894.65461276 330894.65461276]</t>
+          <t>[445093.43557447 445092.60509145 445092.61931388 445092.58827806
+ 445092.63849059 445093.73911902]</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
@@ -35790,8 +35792,8 @@
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>[330894.65461276 330894.65461276 330894.65461276 330894.65461276
- 330894.65461276 330894.65461276]</t>
+          <t>[445093.43557447 445092.60509145 445092.61931388 445092.58827806
+ 445092.63849059 445093.73911902]</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
@@ -35818,8 +35820,8 @@
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>[7.92941899e+12 7.92941899e+12 7.92941899e+12 7.92941899e+12
- 7.92941899e+12 7.92941899e+12]</t>
+          <t>[1.06660301e+13 1.06660102e+13 1.06660105e+13 1.06660098e+13
+ 1.06660110e+13 1.06660374e+13]</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
@@ -35846,8 +35848,8 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>[7.92941899e+12 7.92941899e+12 7.92941899e+12 7.92941899e+12
- 7.92941899e+12 7.92941899e+12]</t>
+          <t>[1.06660301e+13 1.06660102e+13 1.06660105e+13 1.06660098e+13
+ 1.06660110e+13 1.06660374e+13]</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
@@ -35874,8 +35876,8 @@
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>[6.28802926e+12 6.28802926e+12 6.28802926e+12 6.28802926e+12
- 6.28802926e+12 6.28802926e+12]</t>
+          <t>[8.45816186e+12 8.45814608e+12 8.45814635e+12 8.45814576e+12
+ 8.45814671e+12 8.45816763e+12]</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
@@ -35902,8 +35904,8 @@
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>[5.29521602e+11 5.29521602e+11 5.29521602e+11 5.29521602e+11
- 5.29521602e+11 5.29521602e+11]</t>
+          <t>[5.84528171e+11 5.84527807e+11 5.84527813e+11 5.84527800e+11
+ 5.84527822e+11 5.84528304e+11]</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
@@ -36011,12 +36013,12 @@
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]]</t>
+          <t>[[0.         0.         0.34215631 0.11399639 0.11399639 0.        ]
+ [0.         0.         0.34215652 0.11399653 0.11399653 0.        ]
+ [0.         0.         0.34215652 0.11399653 0.11399653 0.        ]
+ [0.         0.         0.34215652 0.11399654 0.11399654 0.        ]
+ [0.         0.         0.34215651 0.11399653 0.11399653 0.        ]
+ [0.         0.         0.34215623 0.11399634 0.11399634 0.        ]]</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr"/>
@@ -36039,12 +36041,12 @@
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>[[0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]]</t>
+          <t>[[0.56190282 0.56190282 0.         0.         0.         0.0569982 ]
+ [0.56190317 0.56190317 0.         0.         0.         0.05699827]
+ [0.56190317 0.56190317 0.         0.         0.         0.05699827]
+ [0.56190318 0.56190318 0.         0.         0.         0.05699827]
+ [0.56190316 0.56190316 0.         0.         0.         0.05699826]
+ [0.5619027  0.5619027  0.         0.         0.         0.05699817]]</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr"/>
@@ -36067,7 +36069,7 @@
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>[1144.26784437]</t>
+          <t>[1203.01571532]</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr"/>
@@ -36090,7 +36092,7 @@
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>[4044675.00943214]</t>
+          <t>[4460569.13398183]</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr"/>
@@ -36113,7 +36115,7 @@
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>[1657270.23422367]</t>
+          <t>[1829426.46862955]</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr"/>
@@ -36136,7 +36138,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>[37.5]</t>
+          <t>[37.49999518]</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr"/>
@@ -36159,7 +36161,7 @@
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>[3.13219879e+09 3.13219879e+09 4.96341982e+07 0.00000000e+00
+          <t>[3.46355619e+09 3.46355619e+09 6.67639525e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36183,9 +36185,9 @@
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253]</t>
+          <t>[12.15889469 12.15888932 12.15888394 12.15888144 12.1588818  12.15888217
+ 12.15888221 12.15888193 12.15888165 12.15888156 12.15888165 12.15888174
+ 12.15888189 12.1588821  12.15888232 12.15888563 12.15889206 12.15889849]</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr"/>
@@ -36257,7 +36259,7 @@
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>[1757270.23422367]</t>
+          <t>[1929426.46862955]</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr"/>
@@ -36280,7 +36282,7 @@
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>[4544675.00943214]</t>
+          <t>[4960569.13398183]</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr"/>
@@ -36303,7 +36305,7 @@
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>[39.63399165]</t>
+          <t>[39.44357818]</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr"/>
@@ -36326,7 +36328,7 @@
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>[3.69621733e+09 3.69621733e+09 5.26712731e+07 0.00000000e+00
+          <t>[4.02790418e+09 4.02790418e+09 7.04599248e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36350,7 +36352,7 @@
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>[2791557.06805182]</t>
+          <t>[2763648.77440766]</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr"/>
@@ -36373,7 +36375,7 @@
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>[7465469.26942257]</t>
+          <t>[7443649.45119205]</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr"/>
@@ -36423,7 +36425,7 @@
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>[0.23256499]</t>
+          <t>[0.23324124]</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr"/>
@@ -36446,7 +36448,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>[0.23405997]</t>
+          <t>[0.2350352]</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr"/>
@@ -36469,7 +36471,7 @@
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>[0.23256499 0.23405997 0.91995169 1.0173947  1.13717461 1.98359678]</t>
+          <t>[0.23324124 0.2350352  0.81675403 0.92231499 1.06545626 2.12709837]</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr"/>
@@ -36492,7 +36494,7 @@
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>[0.23405997 1.13717461 2.10882835]</t>
+          <t>[0.2350352  1.06545626 2.18727061]</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr"/>
@@ -36515,7 +36517,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>[0.23256499 1.0173947  1.98359678]</t>
+          <t>[0.23324124 0.92231499 2.12709837]</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr"/>
@@ -36538,7 +36540,7 @@
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>[4.27899959 0.         0.        ]</t>
+          <t>[4.27191991 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr"/>
@@ -36557,9 +36559,9 @@
       <c r="C1379" t="inlineStr"/>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>[[  0.84600893   0.61235414  -1.78363871   2.41788739  -1.09261175]
- [ -3.15141555   0.30468895   8.11501423  -8.17897733   3.91068969]
- [ -5.56409386   4.34860121  17.79063937 -12.26973625  -3.30541047]]</t>
+          <t>[[  0.53626605   0.37254468   1.59971912  -2.75128872   1.24275886]
+ [ -2.52411525  -0.78940831  10.13459639 -17.18915627  11.36808345]
+ [ -4.9964784    2.94343196  11.57105476  -1.21481374  -7.30319458]]</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr"/>
@@ -36578,9 +36580,9 @@
       <c r="C1380" t="inlineStr"/>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>[[ 0.83839535  0.60952017 -1.7612306   2.38243886 -1.06912377]
- [-3.22202592  0.05247193  8.53549592 -9.6909988   5.32505687]
- [-4.97887151  3.4567952  14.67953123 -8.95358389 -3.20387102]]</t>
+          <t>[[  0.52903654   0.36749968   1.62969957  -2.81434876   1.28811296]
+ [ -2.68703432  -1.11516122  11.58545442 -21.01403444  14.23077555]
+ [ -4.69024073   2.5624354   10.57192694  -1.05852187  -6.38559974]]</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr"/>
@@ -36599,9 +36601,9 @@
       <c r="C1381" t="inlineStr"/>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>[[ -0.05864317   2.84754249 -13.09217149  23.24705817 -11.94378599]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[-0.37591548  4.27254262 -4.09492061  1.36484334 -0.16654987]
+ [ 0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr"/>
@@ -36620,9 +36622,9 @@
       <c r="C1382" t="inlineStr"/>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>[[ 0.75969374  1.53253823 -3.93023464  4.43649437 -1.7984917 ]
- [-0.56313934  3.68219556 -7.80466436  9.03588152 -3.35027338]
- [ 1.16689029 -0.06631009  4.36361529 -4.49947892  0.03528343]]</t>
+          <t>[[  0.81186656   2.60324291  -7.23955403   7.50610781  -2.68166325]
+ [ -1.90440658  10.13946198 -22.45465731  21.85791482  -6.63831291]
+ [  0.53914808   2.02339961  -2.16462763   3.50384935  -2.90176942]]</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr"/>
@@ -36641,9 +36643,9 @@
       <c r="C1383" t="inlineStr"/>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>[[ 0.74739723  1.55516744 -3.98112257  4.48998064 -1.81142274]
- [-0.6906275   3.97250761 -8.66770307  9.86947159 -3.48364863]
- [ 0.81958799  0.63026822  2.03728525 -1.66715372 -0.81998775]]</t>
+          <t>[[  0.79026978   2.66463341  -7.36697174   7.61903775  -2.70696919]
+ [ -2.13895767  10.85869438 -24.07509865  23.12400655  -6.76864461]
+ [  0.3218695    2.74911052  -4.03050309   5.38526599  -3.42574291]]</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr"/>
@@ -36662,9 +36664,9 @@
       <c r="C1384" t="inlineStr"/>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>[[ -3.58698836  29.42123964 -80.0345339   94.67155666 -39.47127404]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[ -15.05778337  118.37002522 -312.09719135  344.41988889 -134.6349394 ]
+ [   0.            0.            0.            0.            0.        ]
+ [   0.            0.            0.            0.            0.        ]]</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr"/>
@@ -36687,37 +36689,37 @@
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>[[1.97958796e-04]
- [4.13360612e-04]
- [2.46219704e-05]
- [3.69728381e-03]
- [6.46739297e-03]
- [9.91217996e-03]
- [1.40186764e-02]
- [1.87738934e-02]
- [2.41648232e-02]
- [3.01784416e-02]
- [3.68017094e-02]
- [4.40215750e-02]
- [5.18249759e-02]
- [6.01988411e-02]
- [6.91301094e-02]
- [7.86057185e-02]
- [8.35435566e-02]
- [8.86125744e-02]
- [9.38111368e-02]
- [1.35441876e-01]
- [1.86076505e-01]
- [2.44831468e-01]
- [3.46835433e-01]
- [4.70236561e-01]
- [6.10490453e-01]
- [7.04625161e-01]
- [8.07526275e-01]
- [9.17371622e-01]
- [1.02462678e+00]
- [1.13439629e+00]
- [1.24201019e+00]]</t>
+          <t>[[1.97756521e-04]
+ [3.53625263e-04]
+ [3.57679924e-05]
+ [3.02946923e-03]
+ [5.19278757e-03]
+ [7.85701177e-03]
+ [1.10125246e-02]
+ [1.46496982e-02]
+ [1.87588952e-02]
+ [2.33304699e-02]
+ [2.83547693e-02]
+ [3.38221345e-02]
+ [3.97229018e-02]
+ [4.60474039e-02]
+ [5.27859844e-02]
+ [5.99289894e-02]
+ [6.36491250e-02]
+ [6.74667416e-02]
+ [7.13806309e-02]
+ [1.06019509e-01]
+ [1.52968983e-01]
+ [2.11025466e-01]
+ [3.13979778e-01]
+ [4.38566732e-01]
+ [5.80193611e-01]
+ [6.72141670e-01]
+ [7.70579705e-01]
+ [8.78373948e-01]
+ [9.88009453e-01]
+ [1.10183843e+00]
+ [1.21396767e+00]]</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr"/>
@@ -36740,7 +36742,7 @@
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>[1.24201019]</t>
+          <t>[1.21396767]</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr"/>
@@ -36763,24 +36765,24 @@
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>[[-34780255.00368635]
- [-32613356.64435896]
- [-30208219.37682861]
- [-29325947.8627499 ]
- [-28439053.69326902]
- [-27542759.55126799]
- [-26631970.22392911]
- [-25701089.92969346]
- [-24743804.07997975]
- [-23752799.96512831]
- [-22719384.74073331]
- [-21632932.046011  ]
- [-20712621.58716938]
- [-19987694.67788485]
- [-19262404.59579078]
- [-18899656.51454088]
- [-18536851.55643091]
- [-18173995.0555603 ]]</t>
+          <t>[[-34811406.71440998]
+ [-32419411.52586045]
+ [-29738625.81761167]
+ [-28747384.32061258]
+ [-27750566.98385061]
+ [-26742413.00059635]
+ [-25716780.95431354]
+ [-24666928.28706744]
+ [-23585245.70231289]
+ [-22462915.05877052]
+ [-21289438.43784246]
+ [-20051953.83190156]
+ [-19015434.29883802]
+ [-18215202.213343  ]
+ [-17414561.05112594]
+ [-17014123.77119652]
+ [-16613621.66645006]
+ [-16213060.69235374]]</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr"/>
@@ -36803,24 +36805,24 @@
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>[[ -4468466.39089279]
- [-11225939.47700839]
- [-11474784.03195867]
- [  2938079.72142881]
- [  2938171.14662342]
- [  2938264.57579226]
- [  2938361.5897738 ]
- [  2938463.9710914 ]
- [  2938573.81184287]
- [  2938693.65778748]
- [  2938826.71843568]
- [  2938977.19405941]
- [  2938952.15482558]
- [  2938683.72594222]
- [  2938743.46720102]
- [  2938249.97959883]
- [  2938264.34409583]
- [  2938278.52644299]]</t>
+          <t>[[ -4543418.05423865]
+ [-10466549.74067794]
+ [-10089741.7266597 ]
+ [  2938034.75273627]
+ [  2938111.22110245]
+ [  2938189.68292118]
+ [  2938271.55873316]
+ [  2938358.45241817]
+ [  2938452.24993978]
+ [  2938555.25223254]
+ [  2938670.37070417]
+ [  2938801.43188554]
+ [  2938772.24702778]
+ [  2938521.4229866 ]
+ [  2938570.43470349]
+ [  2938159.52565694]
+ [  2938171.31245785]
+ [  2938182.95061114]]</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr"/>
@@ -36843,24 +36845,24 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>[[-19692.99876817]
- [-49887.07752378]
- [-52664.8893375 ]
- [  8739.75404055]
- [  8740.15990336]
- [  8740.57700063]
- [  8741.01245737]
- [  8741.47438087]
- [  8741.97235793]
- [  8742.51812311]
- [  8743.12653575]
- [  8743.81710118]
- [  8743.72459888]
- [  8742.53496604]
- [  8742.82077469]
- [  8740.59600368]
- [  8740.66568973]
- [  8740.73482336]]</t>
+          <t>[[-20060.37093002]
+ [-46655.5435187 ]
+ [-46648.4920919 ]
+ [  8739.55757137]
+ [  8739.89734627]
+ [  8740.24790573]
+ [  8740.61565732]
+ [  8741.00790057]
+ [  8741.43328195]
+ [  8741.9024109 ]
+ [  8742.42876836]
+ [  8743.03012324]
+ [  8742.91641447]
+ [  8741.80345087]
+ [  8742.03820088]
+ [  8740.18583631]
+ [  8740.24308513]
+ [  8740.29988443]]</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
@@ -36883,24 +36885,24 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>[[ -220500.3256792 ]
- [-1010389.29808811]
- [-1995511.02999457]
- [-2287476.6543693 ]
- [-2257908.78622725]
- [-2228270.13821105]
- [-2198567.22351875]
- [-2168806.65660904]
- [-2138995.2217123 ]
- [-2109139.95281189]
- [-2079248.23038005]
- [-2049327.902593  ]
- [-2019387.4254771 ]
- [-1989426.7493924 ]
- [-1959443.19461986]
- [-1944448.30315836]
- [-1929449.56870645]
- [-1914447.47718543]]</t>
+          <t>[[ -269118.02513553]
+ [-1064400.47442276]
+ [-1978275.89007289]
+ [-2286766.02189921]
+ [-2257304.95136506]
+ [-2227794.46218465]
+ [-2198239.8872334 ]
+ [-2168646.65858278]
+ [-2139020.36928405]
+ [-2109366.84558688]
+ [-2079692.23446286]
+ [-2050003.11361697]
+ [-2020306.61937913]
+ [-1990602.13297915]
+ [-1960886.66308017]
+ [-1946029.30231485]
+ [-1931170.69234217]
+ [-1916311.21763347]]</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr"/>
@@ -36923,24 +36925,24 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>[[5.07879754e+07]
- [2.31085435e+08]
- [4.51494646e+08]
- [5.15078637e+08]
- [5.05185241e+08]
- [4.95276081e+08]
- [4.85352735e+08]
- [4.75416790e+08]
- [4.65469860e+08]
- [4.55513602e+08]
- [4.45549736e+08]
- [4.35580075e+08]
- [4.25606547e+08]
- [4.15629177e+08]
- [4.05647408e+08]
- [4.00656092e+08]
- [3.95664103e+08]
- [3.90671551e+08]]</t>
+          <t>[[6.19423844e+07]
+ [2.43191070e+08]
+ [4.47093687e+08]
+ [5.14405372e+08]
+ [5.04536408e+08]
+ [4.94656466e+08]
+ [4.84766825e+08]
+ [4.74868775e+08]
+ [4.64963634e+08]
+ [4.55052761e+08]
+ [4.45137574e+08]
+ [4.35219577e+08]
+ [4.25300381e+08]
+ [4.15379864e+08]
+ [4.05457379e+08]
+ [4.00496395e+08]
+ [3.95535255e+08]
+ [3.90574044e+08]]</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
@@ -36963,24 +36965,24 @@
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>[[1021817.29636113]
- [2233439.34490298]
- [3859943.24988701]
- [6203462.56240326]
- [6203438.19650274]
- [6203413.70313015]
- [6203388.95035488]
- [6203363.79747132]
- [6203338.08995482]
- [6203311.65343544]
- [6203284.28598583]
- [6203255.74757335]
- [6203225.74478086]
- [6203200.33029463]
- [6203180.31149574]
- [6203160.28279713]
- [6203150.26565092]
- [6203140.24696647]]</t>
+          <t>[[1022564.3479814 ]
+ [2234696.87482138]
+ [3861125.13288338]
+ [6203372.3072843 ]
+ [6203347.50879065]
+ [6203322.57090245]
+ [6203297.34969462]
+ [6203271.69152532]
+ [6203245.42752312]
+ [6203218.36751372]
+ [6203190.29087809]
+ [6203160.93502771]
+ [6203129.97827938]
+ [6203104.04903091]
+ [6203084.03080782]
+ [6203064.00244278]
+ [6203053.98519368]
+ [6203043.96636646]]</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr"/>
@@ -37003,9 +37005,9 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>[[ 2.93807972e+06]
- [ 8.73975404e+03]
- [-3.02082194e+07]]</t>
+          <t>[[ 2.93803475e+06]
+ [ 8.73955757e+03]
+ [-2.97386258e+07]]</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr"/>
@@ -37028,9 +37030,9 @@
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>[[-2.31696727e+06]
- [ 5.24954692e+08]
- [ 6.20346256e+06]]</t>
+          <t>[[-2.31617238e+06]
+ [ 5.24262081e+08]
+ [ 6.20337231e+06]]</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
@@ -37082,11 +37084,11 @@
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
+          <t>[12.15889738 12.158892   12.15888663 12.15888125 12.15888162 12.15888198
+ 12.15888235 12.15888207 12.15888179 12.15888151 12.1588816  12.1588817
+ 12.15888179 12.158882   12.15888221 12.15888242 12.15888885 12.15889528
+ 12.15890325 12.15890313 12.158903   12.15890288 12.15890573 12.15890858
+ 12.15891143 10.10561015  8.05230887  5.99900759  5.99900506  5.99900253
   5.999     ]</t>
         </is>
       </c>
@@ -37113,8 +37115,8 @@
           <t>[0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
- 0.04799733 0.04799733 0.04799733 0.02718155 0.02718155 0.02718155
- 0.01179318 0.01179318 0.01179318 0.01140434 0.01140434 0.01140434]</t>
+ 0.02598522 0.02598522 0.02598522 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02003331 0.02003331 0.02003331]</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -37213,11 +37215,11 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>[2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 1.77056998 1.77056998 1.77056998 1.00460023 1.00460023 1.00460023
- 0.42942434 0.41532698 0.40122961 0.35592244 0.30536904 0.25481564]</t>
+          <t>[3.1272271  3.12722571 3.12722432 3.12722367 3.12722377 3.12722386
+ 3.12722387 3.1272238  3.12722373 3.1272237  3.12722373 3.12722375
+ 3.12722379 3.12722385 3.1272239  3.12722476 3.12722642 3.12722809
+ 1.05980354 1.05980353 1.05980352 0.81609954 0.81609973 0.81609993
+ 0.74707821 0.6090346  0.47099098 0.40263631 0.40263614 0.40263597]</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr"/>
@@ -37240,11 +37242,11 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[1.77966795 1.77966716 1.77966637 1.779666   1.77966605 1.77966611
+ 1.77966611 1.77966607 1.77966603 1.77966602 1.77966603 1.77966604
+ 1.77966607 1.7796661  1.77966613 1.77966662 1.77966756 1.7796685
+ 0.60197436 0.60197436 0.60197435 0.46344772 0.46344783 0.46344793
+ 0.42428035 0.34594521 0.26761036 0.22882286 0.22882276 0.22882267]</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr"/>
@@ -37267,11 +37269,11 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[1.77966795 1.77966716 1.77966637 1.779666   1.77966605 1.77966611
+ 1.77966611 1.77966607 1.77966603 1.77966602 1.77966603 1.77966604
+ 1.77966607 1.7796661  1.77966613 1.77966662 1.77966756 1.7796685
+ 0.60197436 0.60197436 0.60197435 0.46344772 0.46344783 0.46344793
+ 0.42428035 0.34594521 0.26761036 0.22882286 0.22882276 0.22882267]</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr"/>
@@ -37294,11 +37296,12 @@
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>[84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 53.30723966 53.30723966 53.30723966 30.36034687 30.36034687 30.36034687
- 12.59712135 11.39677056 10.27520193  7.67006363  4.84404422  2.81456778]</t>
+          <t>[114.12667425 114.12652194 114.12636964 114.12629866 114.126309
+ 114.12631934 114.12632056 114.12631264 114.12630473 114.12630208
+ 114.12630469 114.12630729 114.12631158 114.12631756 114.12632354
+ 114.12641761 114.12659977 114.12678194  39.00298902  39.00298784
+  39.00298665  30.0637601   30.06378128  30.06380246  23.06281618
+  12.49512853   5.77901783   3.598413     3.59840843   3.59840386]</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr"/>
@@ -37321,11 +37324,11 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[57.06333712 57.06326097 57.06318482 57.06314933 57.0631545  57.06315967
+ 57.06316028 57.06315632 57.06315237 57.06315104 57.06315234 57.06315365
+ 57.06315579 57.06315878 57.06316177 57.06320881 57.06329989 57.06339097
+ 19.50149451 19.50149392 19.50149333 15.03188005 15.03189064 15.03190123
+ 11.53140809  6.24756426  2.88950891  1.7992065   1.79920422  1.79920193]</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr"/>
@@ -37348,11 +37351,11 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[57.06333712 57.06326097 57.06318482 57.06314933 57.0631545  57.06315967
+ 57.06316028 57.06315632 57.06315237 57.06315104 57.06315234 57.06315365
+ 57.06315579 57.06315878 57.06316177 57.06320881 57.06329989 57.06339097
+ 19.50149451 19.50149392 19.50149333 15.03188005 15.03189064 15.03190123
+ 11.53140809  6.24756426  2.88950891  1.7992065   1.79920422  1.79920193]</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
@@ -37477,36 +37480,36 @@
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[[-3.47802550e+07]
- [-3.26133566e+07]
- [-3.02082194e+07]
- [-2.93259479e+07]
- [-2.84390537e+07]
- [-2.75427596e+07]
- [-2.66319702e+07]
- [-2.57010899e+07]
- [-2.47438041e+07]
- [-2.37528000e+07]
- [-2.27193847e+07]
- [-2.16329320e+07]
- [-2.07126216e+07]
- [-1.99876947e+07]
- [-1.92624046e+07]
- [-1.88996565e+07]
- [-1.85368516e+07]
- [-1.81739951e+07]
- [-1.56085099e+07]
- [-1.40227392e+07]
- [-1.24353886e+07]
- [-1.11380528e+07]
- [-9.83907042e+06]
- [-8.53845441e+06]
- [-8.19518678e+06]
- [-7.86237862e+06]
- [-7.54055479e+06]
- [-7.27265689e+06]
- [-7.04178391e+06]
- [ 4.51109372e-10]]</t>
+          <t>[[-3.48114067e+07]
+ [-3.24194115e+07]
+ [-2.97386258e+07]
+ [-2.87473843e+07]
+ [-2.77505670e+07]
+ [-2.67424130e+07]
+ [-2.57167810e+07]
+ [-2.46669283e+07]
+ [-2.35852457e+07]
+ [-2.24629151e+07]
+ [-2.12894384e+07]
+ [-2.00519538e+07]
+ [-1.90154343e+07]
+ [-1.82152022e+07]
+ [-1.74145611e+07]
+ [-1.70141238e+07]
+ [-1.66136217e+07]
+ [-1.62130607e+07]
+ [-1.42776118e+07]
+ [-1.33217450e+07]
+ [-1.23640662e+07]
+ [-1.13032495e+07]
+ [-1.02405257e+07]
+ [-9.17590401e+06]
+ [-8.58871184e+06]
+ [-8.10784650e+06]
+ [-7.73529351e+06]
+ [-7.43894965e+06]
+ [-7.14389912e+06]
+ [ 9.92440619e-09]]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -37529,36 +37532,36 @@
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[[-4.46846639e+06]
- [-1.12259395e+07]
- [-1.14747840e+07]
- [ 2.93807972e+06]
- [ 2.93817115e+06]
- [ 2.93826458e+06]
- [ 2.93836159e+06]
- [ 2.93846397e+06]
- [ 2.93857381e+06]
- [ 2.93869366e+06]
- [ 2.93882672e+06]
- [ 2.93897719e+06]
- [ 2.93895215e+06]
- [ 2.93868373e+06]
- [ 2.93874347e+06]
- [ 2.93824998e+06]
- [ 2.93826434e+06]
- [ 2.93827853e+06]
- [ 2.94055359e+06]
- [ 2.94116937e+06]
- [ 2.94172796e+06]
- [ 2.94170149e+06]
- [ 2.94254409e+06]
- [ 2.94321099e+06]
- [ 2.93933593e+06]
- [ 2.93943391e+06]
- [ 2.93948950e+06]
- [ 2.93926019e+06]
- [ 2.93907932e+06]
- [ 1.12062064e+03]]</t>
+          <t>[[-4.54341805e+06]
+ [-1.04665497e+07]
+ [-1.00897417e+07]
+ [ 2.93803475e+06]
+ [ 2.93811122e+06]
+ [ 2.93818968e+06]
+ [ 2.93827156e+06]
+ [ 2.93835845e+06]
+ [ 2.93845225e+06]
+ [ 2.93855525e+06]
+ [ 2.93867037e+06]
+ [ 2.93880143e+06]
+ [ 2.93877225e+06]
+ [ 2.93852142e+06]
+ [ 2.93857043e+06]
+ [ 2.93815953e+06]
+ [ 2.93817131e+06]
+ [ 2.93818295e+06]
+ [ 2.93913686e+06]
+ [ 2.93964444e+06]
+ [ 2.94010625e+06]
+ [ 2.94100452e+06]
+ [ 2.94170314e+06]
+ [ 2.94225726e+06]
+ [ 2.94042477e+06]
+ [ 2.94009395e+06]
+ [ 2.93973363e+06]
+ [ 2.93946484e+06]
+ [ 2.93952091e+06]
+ [ 1.78168103e+03]]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -37581,36 +37584,36 @@
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>[[-1.96929988e+04]
- [-4.98870775e+04]
- [-5.26648893e+04]
- [ 8.73975404e+03]
- [ 8.74015990e+03]
- [ 8.74057700e+03]
- [ 8.74101246e+03]
- [ 8.74147438e+03]
- [ 8.74197236e+03]
- [ 8.74251812e+03]
- [ 8.74312654e+03]
- [ 8.74381710e+03]
- [ 8.74372460e+03]
- [ 8.74253497e+03]
- [ 8.74282077e+03]
- [ 8.74059600e+03]
- [ 8.74066569e+03]
- [ 8.74073482e+03]
- [ 8.75121372e+03]
- [ 8.75434481e+03]
- [ 8.75730925e+03]
- [ 8.75776949e+03]
- [ 8.76293323e+03]
- [ 8.76757113e+03]
- [ 8.74728437e+03]
- [ 8.74846894e+03]
- [ 8.74955371e+03]
- [ 8.74891871e+03]
- [ 8.74885594e+03]
- [ 9.55113012e+00]]</t>
+          <t>[[-2.00603709e+04]
+ [-4.66555435e+04]
+ [-4.66484921e+04]
+ [ 8.73955757e+03]
+ [ 8.73989735e+03]
+ [ 8.74024791e+03]
+ [ 8.74061566e+03]
+ [ 8.74100790e+03]
+ [ 8.74143328e+03]
+ [ 8.74190241e+03]
+ [ 8.74242877e+03]
+ [ 8.74303012e+03]
+ [ 8.74291641e+03]
+ [ 8.74180345e+03]
+ [ 8.74203820e+03]
+ [ 8.74018584e+03]
+ [ 8.74024309e+03]
+ [ 8.74029988e+03]
+ [ 8.74472606e+03]
+ [ 8.74731017e+03]
+ [ 8.74976369e+03]
+ [ 8.75461112e+03]
+ [ 8.75889595e+03]
+ [ 8.76275049e+03]
+ [ 8.75340631e+03]
+ [ 8.75222474e+03]
+ [ 8.75131424e+03]
+ [ 8.75139987e+03]
+ [ 8.75430086e+03]
+ [ 1.74485430e+01]]</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr"/>
@@ -37633,36 +37636,36 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>[[-2.20500326e+05]
- [-1.01038930e+06]
- [-1.99551103e+06]
- [-2.28747665e+06]
- [-2.25790879e+06]
- [-2.22827014e+06]
- [-2.19856722e+06]
- [-2.16880666e+06]
- [-2.13899522e+06]
- [-2.10913995e+06]
- [-2.07924823e+06]
- [-2.04932790e+06]
- [-2.01938743e+06]
- [-1.98942675e+06]
- [-1.95944319e+06]
- [-1.94444830e+06]
- [-1.92944957e+06]
- [-1.91444748e+06]
- [-1.80968270e+06]
- [-1.70450309e+06]
- [-1.59909467e+06]
- [-1.44789314e+06]
- [-1.29587459e+06]
- [-1.14352197e+06]
- [-1.05201727e+06]
- [-9.59984566e+05]
- [-8.67464513e+05]
- [-7.80658460e+05]
- [-6.93227370e+05]
- [-2.08995445e-04]]</t>
+          <t>[[-2.69118025e+05]
+ [-1.06440047e+06]
+ [-1.97827589e+06]
+ [-2.28676602e+06]
+ [-2.25730495e+06]
+ [-2.22779446e+06]
+ [-2.19823989e+06]
+ [-2.16864666e+06]
+ [-2.13902037e+06]
+ [-2.10936685e+06]
+ [-2.07969223e+06]
+ [-2.05000311e+06]
+ [-2.02030662e+06]
+ [-1.99060213e+06]
+ [-1.96088666e+06]
+ [-1.94602930e+06]
+ [-1.93117069e+06]
+ [-1.91631122e+06]
+ [-1.81240218e+06]
+ [-1.70774793e+06]
+ [-1.60251943e+06]
+ [-1.45119152e+06]
+ [-1.29890294e+06]
+ [-1.14608444e+06]
+ [-1.05435572e+06]
+ [-9.62380573e+05]
+ [-8.69710369e+05]
+ [-7.82118201e+05]
+ [-6.93375333e+05]
+ [-4.52823762e-04]]</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr"/>
@@ -37685,36 +37688,36 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>[[ 5.07879754e+07]
- [ 2.31085435e+08]
- [ 4.51494646e+08]
- [ 5.15078637e+08]
- [ 5.05185241e+08]
- [ 4.95276081e+08]
- [ 4.85352735e+08]
- [ 4.75416790e+08]
- [ 4.65469860e+08]
- [ 4.55513602e+08]
- [ 4.45549736e+08]
- [ 4.35580075e+08]
- [ 4.25606547e+08]
- [ 4.15629177e+08]
- [ 4.05647408e+08]
- [ 4.00656092e+08]
- [ 3.95664103e+08]
- [ 3.90671551e+08]
- [ 3.55839840e+08]
- [ 3.20932892e+08]
- [ 2.85992370e+08]
- [ 2.35986739e+08]
- [ 1.85874111e+08]
- [ 1.35755965e+08]
- [ 1.05708792e+08]
- [ 7.56227143e+07]
- [ 4.55162826e+07]
- [ 1.74142451e+07]
- [-1.06773365e+07]
- [ 2.45219599e-02]]</t>
+          <t>[[ 6.19423844e+07]
+ [ 2.43191070e+08]
+ [ 4.47093687e+08]
+ [ 5.14405372e+08]
+ [ 5.04536408e+08]
+ [ 4.94656466e+08]
+ [ 4.84766825e+08]
+ [ 4.74868775e+08]
+ [ 4.64963634e+08]
+ [ 4.55052761e+08]
+ [ 4.45137574e+08]
+ [ 4.35219577e+08]
+ [ 4.25300381e+08]
+ [ 4.15379864e+08]
+ [ 4.05457379e+08]
+ [ 4.00496395e+08]
+ [ 3.95535255e+08]
+ [ 3.90574044e+08]
+ [ 3.55930360e+08]
+ [ 3.21143426e+08]
+ [ 2.86253407e+08]
+ [ 2.36243170e+08]
+ [ 1.86096796e+08]
+ [ 1.35908328e+08]
+ [ 1.05821340e+08]
+ [ 7.57331436e+07]
+ [ 4.56164264e+07]
+ [ 1.74750636e+07]
+ [-1.06650124e+07]
+ [ 4.62393695e-02]]</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
@@ -37737,35 +37740,35 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[[1021817.29636113]
- [2233439.34490298]
- [3859943.24988701]
- [6203462.56240326]
- [6203438.19650274]
- [6203413.70313015]
- [6203388.95035488]
- [6203363.79747132]
- [6203338.08995482]
- [6203311.65343544]
- [6203284.28598583]
- [6203255.74757335]
- [6203225.74478086]
- [6203200.33029463]
- [6203180.31149574]
- [6203160.28279713]
- [6203150.26565092]
- [6203140.24696647]
- [6203388.03619043]
- [6203318.00690156]
- [6203247.93860792]
- [6203596.7629968 ]
- [6203495.72371816]
- [6203394.559491  ]
- [6204184.02576691]
- [6204172.16225577]
- [6204161.50516292]
- [6204285.95337743]
- [6204491.78238547]
+          <t>[[1022564.3479814 ]
+ [2234696.87482138]
+ [3861125.13288338]
+ [6203372.3072843 ]
+ [6203347.50879065]
+ [6203322.57090245]
+ [6203297.34969462]
+ [6203271.69152532]
+ [6203245.42752312]
+ [6203218.36751372]
+ [6203190.29087809]
+ [6203160.93502771]
+ [6203129.97827938]
+ [6203104.04903091]
+ [6203084.03080782]
+ [6203064.00244278]
+ [6203053.98519368]
+ [6203043.96636646]
+ [6203752.81476642]
+ [6203682.32120289]
+ [6203611.75167403]
+ [6203813.6368103 ]
+ [6203711.92770957]
+ [6203610.03911789]
+ [6203589.24717216]
+ [6203731.63327049]
+ [6203975.1624126 ]
+ [6204131.44757111]
+ [6204073.85226854]
  [      0.        ]]</t>
         </is>
       </c>
@@ -37789,24 +37792,24 @@
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>[[-5679309.53126856]
- [18507713.65985198]
- [47989691.95416683]
- [56561218.54283858]
- [55589057.45400614]
- [54618166.77986741]
- [53650549.85672688]
- [52688388.18976529]
- [51734120.41814978]
- [50790543.13994385]
- [49860948.43552355]
- [48949322.54155664]
- [47978547.9135519 ]
- [46938305.75165545]
- [45897620.36685287]
- [45377258.10847021]
- [44856828.41920118]
- [44336343.90819678]]</t>
+          <t>[[-4532400.43531962]
+ [15542676.31925277]
+ [38123689.83187409]
+ [45612062.26177143]
+ [44879382.61197264]
+ [44149158.71399432]
+ [43423493.15381866]
+ [42704679.418694  ]
+ [41995288.49217141]
+ [41298283.55508623]
+ [40617172.81921016]
+ [39956230.69877616]
+ [39230897.56139667]
+ [38429865.10007579]
+ [37628753.85305574]
+ [37228241.93210081]
+ [36827714.14106137]
+ [36427198.68240805]]</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37829,24 +37832,24 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>[[2837228.21389425]
- [7106179.42063835]
- [7366137.63148096]
- [2224804.99834311]
- [2224860.10761693]
- [2224916.45126135]
- [2224975.00097063]
- [2225036.85293221]
- [2225103.29440038]
- [2225175.89265198]
- [2225256.62476023]
- [2225348.07968586]
- [2225330.60433444]
- [2225162.50328979]
- [2225198.24804317]
- [2224890.93991077]
- [2224899.19656573]
- [2224907.3401718 ]]</t>
+          <t>[[2607454.46411924]
+ [6000283.10842606]
+ [5875197.24575002]
+ [1981348.38910284]
+ [1981389.96654887]
+ [1981432.65670737]
+ [1981477.311678  ]
+ [1981524.82451315]
+ [1981576.18440401]
+ [1981632.63866954]
+ [1981695.81149961]
+ [1981767.87453067]
+ [1981749.79735188]
+ [1981607.43573364]
+ [1981633.86916084]
+ [1981401.27464401]
+ [1981406.13554095]
+ [1981410.91282358]]</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
@@ -37871,22 +37874,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.10692552e+07]
- [-2.09529180e+07]
- [-1.85919397e+07]
- [-1.62518622e+07]
- [-1.39340101e+07]
- [-1.16404416e+07]
- [-9.37403906e+06]
- [-7.13864009e+06]
- [-4.93921695e+06]
- [-2.78211866e+06]
- [-8.60881033e+05]
- [-7.33140451e+03]
- [-8.34555056e+03]
- [-8.91620383e+03]
- [-9.22898819e+03]
- [-9.51128186e+03]]</t>
+ [-1.22191211e+07]
+ [-2.31294867e+07]
+ [-2.05232528e+07]
+ [-1.79400908e+07]
+ [-1.53814625e+07]
+ [-1.28496398e+07]
+ [-1.03478053e+07]
+ [-7.88019514e+06]
+ [-5.45229808e+06]
+ [-3.07112251e+06]
+ [-9.50308551e+05]
+ [-8.09298410e+03]
+ [-9.21247888e+03]
+ [-9.84241381e+03]
+ [-1.01876954e+04]
+ [-1.04993194e+04]]</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37945,24 +37948,24 @@
       <c r="C1420" t="inlineStr"/>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>[[0.03820441]
- [0.11306656]
- [0.28412048]
- [0.35383314]
- [0.34064237]
- [0.32769497]
- [0.31502011]
- [0.30265188]
- [0.29062966]
- [0.27899854]
- [0.26780975]
- [0.25712116]
- [0.24706287]
- [0.23959526]
- [0.23432209]
- [0.23168564]
- [0.22904864]
- [0.2264115 ]]</t>
+          <t>[[0.03254822]
+ [0.0951118 ]
+ [0.23708244]
+ [0.30868205]
+ [0.29522811]
+ [0.28207682]
+ [0.26926702]
+ [0.25684456]
+ [0.24486288]
+ [0.23338349]
+ [0.22247632]
+ [0.21221968]
+ [0.2027795 ]
+ [0.19628969]
+ [0.19223382]
+ [0.19020636]
+ [0.18817846]
+ [0.18615073]]</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr"/>
@@ -37981,24 +37984,24 @@
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>[[0.06614714]
- [0.08902171]
- [0.21919457]
- [0.11968317]
- [0.10841057]
- [0.09743771]
- [0.08683496]
- [0.07670574]
- [0.06720289]
- [0.05855272]
- [0.05108417]
- [0.04399916]
- [0.03873831]
- [0.0365145 ]
- [0.03547508]
- [0.03166617]
- [0.03117346]
- [0.03068219]]</t>
+          <t>[[0.06351354]
+ [0.08193655]
+ [0.23393892]
+ [0.13035969]
+ [0.11741373]
+ [0.10472791]
+ [0.09236007]
+ [0.08039938]
+ [0.06898598]
+ [0.0583467 ]
+ [0.04885761]
+ [0.04113403]
+ [0.03463191]
+ [0.03198407]
+ [0.03090259]
+ [0.02696577]
+ [0.02646356]
+ [0.02596336]]</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr"/>
@@ -38017,24 +38020,24 @@
       <c r="C1422" t="inlineStr"/>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>[[0.09779755]
- [0.20694826]
- [0.34067209]
- [0.37883897]
- [0.37086861]
- [0.36287293]
- [0.35484289]
- [0.34676847]
- [0.33863832]
- [0.33043918]
- [0.32215515]
- [0.31376665]
- [0.30570704]
- [0.298033  ]
- [0.2903581 ]
- [0.28652117]
- [0.28268436]
- [0.27884775]]</t>
+          <t>[[0.09503328]
+ [0.18813406]
+ [0.29277116]
+ [0.32709146]
+ [0.3199687 ]
+ [0.31282158]
+ [0.30563961]
+ [0.29841122]
+ [0.29112329]
+ [0.28376054]
+ [0.27630473]
+ [0.26873339]
+ [0.26153045]
+ [0.25475947]
+ [0.24798851]
+ [0.24460352]
+ [0.24121867]
+ [0.23783414]]</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr"/>
@@ -38057,36 +38060,36 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>[[-5.67930953e+06]
- [ 1.85077137e+07]
- [ 4.79896920e+07]
- [ 5.65612185e+07]
- [ 5.55890575e+07]
- [ 5.46181668e+07]
- [ 5.36505499e+07]
- [ 5.26883882e+07]
- [ 5.17341204e+07]
- [ 5.07905431e+07]
- [ 4.98609484e+07]
- [ 4.89493225e+07]
- [ 4.79785479e+07]
- [ 4.69383058e+07]
- [ 4.58976204e+07]
- [ 4.53772581e+07]
- [ 4.48568284e+07]
- [ 4.43363439e+07]
- [ 6.47597205e+07]
- [ 5.84378880e+07]
- [ 5.21100101e+07]
- [ 7.45865059e+07]
- [ 5.76868240e+07]
- [ 4.07868458e+07]
- [ 7.19189235e+07]
- [ 5.06710834e+07]
- [ 2.61005007e+07]
- [ 6.93172361e+05]
- [-5.43972110e+06]
- [ 5.80130794e-02]]</t>
+          <t>[[-4.53240044e+06]
+ [ 1.55426763e+07]
+ [ 3.81236898e+07]
+ [ 4.56120623e+07]
+ [ 4.48793826e+07]
+ [ 4.41491587e+07]
+ [ 4.34234932e+07]
+ [ 4.27046794e+07]
+ [ 4.19952885e+07]
+ [ 4.12982836e+07]
+ [ 4.06171728e+07]
+ [ 3.99562307e+07]
+ [ 3.92308976e+07]
+ [ 3.84298651e+07]
+ [ 3.76287539e+07]
+ [ 3.72282419e+07]
+ [ 3.68277141e+07]
+ [ 3.64272013e+07]
+ [ 9.74882434e+07]
+ [ 8.75455725e+07]
+ [ 7.75724807e+07]
+ [ 8.16970074e+07]
+ [ 6.27181434e+07]
+ [ 4.37246889e+07]
+ [ 3.95853569e+07]
+ [ 4.17195191e+07]
+ [ 3.90433639e+07]
+ [ 1.06866837e+07]
+ [ 7.46501300e+04]
+ [ 7.70906870e-02]]</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr"/>
@@ -38109,36 +38112,36 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>[[2.83722821e+06]
- [7.10617942e+06]
- [7.36613763e+06]
- [2.22480500e+06]
- [2.22486011e+06]
- [2.22491645e+06]
- [2.22497500e+06]
- [2.22503685e+06]
- [2.22510329e+06]
- [2.22517589e+06]
- [2.22525662e+06]
- [2.22534808e+06]
- [2.22533060e+06]
- [2.22516250e+06]
- [2.22519825e+06]
- [2.22489094e+06]
- [2.22489920e+06]
- [2.22490734e+06]
- [3.56231689e+06]
- [3.56292133e+06]
- [3.56346897e+06]
- [6.28061946e+06]
- [6.28207757e+06]
- [6.28322778e+06]
- [1.47267076e+07]
- [1.53206036e+07]
- [1.59628649e+07]
- [1.83044362e+07]
- [2.20587926e+07]
- [7.74421893e+03]]</t>
+          <t>[[2.60745446e+06]
+ [6.00028311e+06]
+ [5.87519725e+06]
+ [1.98134839e+06]
+ [1.98138997e+06]
+ [1.98143266e+06]
+ [1.98147731e+06]
+ [1.98152482e+06]
+ [1.98157618e+06]
+ [1.98163264e+06]
+ [1.98169581e+06]
+ [1.98176787e+06]
+ [1.98174980e+06]
+ [1.98160744e+06]
+ [1.98163387e+06]
+ [1.98140127e+06]
+ [1.98140614e+06]
+ [1.98141093e+06]
+ [5.84950450e+06]
+ [5.85033678e+06]
+ [5.85109302e+06]
+ [7.60047990e+06]
+ [7.60196471e+06]
+ [7.60313770e+06]
+ [8.42762703e+06]
+ [1.07525804e+07]
+ [1.47563183e+07]
+ [1.80176180e+07]
+ [1.80178249e+07]
+ [7.78666949e+03]]</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr"/>
@@ -38163,34 +38166,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.10692552e+07]
- [-2.09529180e+07]
- [-1.85919397e+07]
- [-1.62518622e+07]
- [-1.39340101e+07]
- [-1.16404416e+07]
- [-9.37403906e+06]
- [-7.13864009e+06]
- [-4.93921695e+06]
- [-2.78211866e+06]
- [-8.60881033e+05]
- [-7.33140451e+03]
- [-8.34555056e+03]
- [-8.91620383e+03]
- [-9.22898819e+03]
- [-9.51128186e+03]
- [-1.66596169e+04]
- [-1.86123295e+04]
- [-2.00589534e+04]
- [-3.79238391e+04]
- [-4.03090645e+04]
- [-4.23120545e+04]
- [-9.93178004e+04]
- [-9.81796825e+04]
- [-9.67657996e+04]
- [-9.34504413e+04]
- [-8.14775700e+04]
- [-6.90218818e+04]]</t>
+ [-1.22191211e+07]
+ [-2.31294867e+07]
+ [-2.05232528e+07]
+ [-1.79400908e+07]
+ [-1.53814625e+07]
+ [-1.28496398e+07]
+ [-1.03478053e+07]
+ [-7.88019514e+06]
+ [-5.45229808e+06]
+ [-3.07112251e+06]
+ [-9.50308551e+05]
+ [-8.09298410e+03]
+ [-9.21247888e+03]
+ [-9.84241381e+03]
+ [-1.01876954e+04]
+ [-1.04993200e+04]
+ [-3.40218933e+04]
+ [-3.80096784e+04]
+ [-4.09639407e+04]
+ [-5.69050244e+04]
+ [-6.04840885e+04]
+ [-6.34896065e+04]
+ [-6.00770211e+04]
+ [-5.00582115e+04]
+ [-3.94951150e+04]
+ [-3.42589495e+04]
+ [-3.48145621e+04]
+ [-3.53434065e+04]]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -38261,36 +38264,36 @@
       <c r="C1427" t="inlineStr"/>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[[3.82044146e-02]
- [1.13066557e-01]
- [2.84120482e-01]
- [3.53833135e-01]
- [3.40642373e-01]
- [3.27694966e-01]
- [3.15020107e-01]
- [3.02651880e-01]
- [2.90629661e-01]
- [2.78998539e-01]
- [2.67809752e-01]
- [2.57121158e-01]
- [2.47062868e-01]
- [2.39595262e-01]
- [2.34322092e-01]
- [2.31685637e-01]
- [2.29048636e-01]
- [2.26411504e-01]
- [3.30963930e-01]
- [2.98971042e-01]
- [2.66984965e-01]
- [3.83528032e-01]
- [2.98725651e-01]
- [2.14843754e-01]
- [3.88415430e-01]
- [2.91190201e-01]
- [1.93585954e-01]
- [1.61322394e-01]
- [1.96288309e-01]
- [3.57680078e-04]]</t>
+          <t>[[3.25482186e-02]
+ [9.51118015e-02]
+ [2.37082435e-01]
+ [3.08682046e-01]
+ [2.95228109e-01]
+ [2.82076818e-01]
+ [2.69267016e-01]
+ [2.56844558e-01]
+ [2.44862877e-01]
+ [2.33383491e-01]
+ [2.22476319e-01]
+ [2.12219684e-01]
+ [2.02779504e-01]
+ [1.96289689e-01]
+ [1.92233824e-01]
+ [1.90206356e-01]
+ [1.88178461e-01]
+ [1.86150745e-01]
+ [4.98675507e-01]
+ [4.48409825e-01]
+ [3.98064505e-01]
+ [4.21092936e-01]
+ [3.26150178e-01]
+ [2.32449514e-01]
+ [2.14767000e-01]
+ [2.32528068e-01]
+ [2.37467425e-01]
+ [1.67829186e-01]
+ [1.58753426e-01]
+ [1.92435993e-04]]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -38309,36 +38312,36 @@
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>[[0.06614714]
- [0.08902171]
- [0.21919457]
- [0.11968317]
- [0.10841057]
- [0.09743771]
- [0.08683496]
- [0.07670574]
- [0.06720289]
- [0.05855272]
- [0.05108417]
- [0.04399916]
- [0.03873831]
- [0.0365145 ]
- [0.03547508]
- [0.03166617]
- [0.03117346]
- [0.03068219]
- [0.08199809]
- [0.07727615]
- [0.07261507]
- [0.24006349]
- [0.22921286]
- [0.21838124]
- [1.18709266]
- [1.17304015]
- [1.16060651]
- [1.22459307]
- [1.24808686]
- [0.01301269]]</t>
+          <t>[[0.06351354]
+ [0.08193655]
+ [0.23393892]
+ [0.13035969]
+ [0.11741373]
+ [0.10472791]
+ [0.09236007]
+ [0.08039938]
+ [0.06898598]
+ [0.0583467 ]
+ [0.04885761]
+ [0.04113403]
+ [0.03463191]
+ [0.03198407]
+ [0.03090259]
+ [0.02696577]
+ [0.02646356]
+ [0.02596336]
+ [0.26527549]
+ [0.25633151]
+ [0.2473059 ]
+ [0.46959444]
+ [0.45201551]
+ [0.43432509]
+ [0.36534733]
+ [0.37216599]
+ [0.39595549]
+ [0.40683636]
+ [0.40251258]
+ [0.00277055]]</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr"/>
@@ -38357,36 +38360,36 @@
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>[[2.18019903e-01]
- [4.19813126e-01]
- [6.64721739e-01]
- [7.33635483e-01]
- [7.16730480e-01]
- [6.99809259e-01]
- [6.82843916e-01]
- [6.65804292e-01]
- [6.48656783e-01]
- [6.31362836e-01]
- [6.13876915e-01]
- [5.96143557e-01]
- [5.79433894e-01]
- [5.63898008e-01]
- [5.48399673e-01]
- [5.40666104e-01]
- [5.32942527e-01]
- [5.25229074e-01]
- [7.66246859e-01]
- [6.86908999e-01]
- [6.08359585e-01]
- [9.15381897e-01]
- [7.28965299e-01]
- [5.45655404e-01]
- [1.12515488e+00]
- [9.31663809e-01]
- [7.04100505e-01]
- [5.39602440e-01]
- [6.88308960e-01]
- [4.83972791e-10]]</t>
+          <t>[[1.75309794e-01]
+ [3.18595572e-01]
+ [4.78199524e-01]
+ [5.30051883e-01]
+ [5.17521786e-01]
+ [5.04967393e-01]
+ [4.92363940e-01]
+ [4.79684511e-01]
+ [4.66898972e-01]
+ [4.53972650e-01]
+ [4.40864470e-01]
+ [4.27524246e-01]
+ [4.15063822e-01]
+ [4.03619380e-01]
+ [3.92197017e-01]
+ [3.86494841e-01]
+ [3.80798385e-01]
+ [3.75107954e-01]
+ [1.03852266e+00]
+ [9.37293214e-01]
+ [8.36760460e-01]
+ [9.20901421e-01]
+ [7.38863098e-01]
+ [5.59244312e-01]
+ [5.47888697e-01]
+ [6.84181687e-01]
+ [1.00660815e+00]
+ [1.05421022e+00]
+ [8.75234045e-01]
+ [5.71665233e-10]]</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr"/>
@@ -38428,7 +38431,7 @@
       <c r="C1431" t="inlineStr"/>
       <c r="D1431" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[1.00000013]</t>
         </is>
       </c>
       <c r="E1431" t="inlineStr"/>
@@ -38475,26 +38478,26 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[[2.25728098e+10 5.88832555e+12 2.25728098e+10 5.88832555e+12
-  1.52235685e+10 1.24971223e+11]
- [2.04978625e+10 4.24270853e+12 2.04978625e+10 4.24270853e+12
-  1.41035685e+10 1.24971223e+11]
- [1.84229151e+10 2.95106681e+12 1.84229151e+10 2.95106681e+12
-  1.29835685e+10 1.24971223e+11]
- [1.63479677e+10 1.96915349e+12 1.63479677e+10 1.96915349e+12
-  1.18635685e+10 1.24971223e+11]
- [1.42730203e+10 1.25272165e+12 1.42730203e+10 1.25272165e+12
-  1.07435685e+10 1.24971223e+11]
- [1.21980730e+10 7.57524372e+11 1.21980730e+10 7.57524372e+11
-  9.62356851e+09 1.24971223e+11]
- [1.01231256e+10 4.39314753e+11 1.01231256e+10 4.39314753e+11
-  8.50356851e+09 1.24971223e+11]
- [8.04817824e+09 2.53845875e+11 8.04817824e+09 2.53845875e+11
-  7.38356851e+09 1.24971223e+11]
- [5.97323087e+09 1.56870824e+11 5.97323087e+09 1.56870824e+11
-  6.26356851e+09 1.24971223e+11]
- [3.89828350e+09 1.04142686e+11 3.89828350e+09 1.04142686e+11
-  5.14356851e+09 1.24971223e+11]]</t>
+          <t>[[2.29749363e+10 6.01254828e+12 2.29749363e+10 6.01254828e+12
+  1.57541521e+10 1.67771951e+11]
+ [2.08999890e+10 4.35709176e+12 2.08999890e+10 4.35709176e+12
+  1.46341521e+10 1.67771951e+11]
+ [1.88250416e+10 3.05561055e+12 1.88250416e+10 3.05561055e+12
+  1.35141521e+10 1.67771951e+11]
+ [1.67500942e+10 2.06385773e+12 1.67500942e+10 2.06385773e+12
+  1.23941521e+10 1.67771951e+11]
+ [1.46751469e+10 1.33758639e+12 1.46751469e+10 1.33758639e+12
+  1.12741521e+10 1.67771951e+11]
+ [1.26001995e+10 8.32549624e+11 1.26001995e+10 8.32549624e+11
+  1.01541521e+10 1.67771951e+11]
+ [1.05252521e+10 5.04500510e+11 1.05252521e+10 5.04500510e+11
+  9.03415211e+09 1.67771951e+11]
+ [8.45030476e+09 3.09192137e+11 8.45030476e+09 3.09192137e+11
+  7.91415211e+09 1.67771951e+11]
+ [6.37535739e+09 2.02377592e+11 6.37535739e+09 2.02377592e+11
+  6.79415211e+09 1.67771951e+11]
+ [4.30041002e+09 1.39809959e+11 4.30041002e+09 1.39809959e+11
+  5.67415211e+09 1.67771951e+11]]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -43306,7 +43309,7 @@
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>[-0.05487716]</t>
+          <t>[-0.08018413]</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
@@ -43329,7 +43332,7 @@
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>[-0.13103906]</t>
+          <t>[-0.11033335]</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
@@ -43352,7 +43355,7 @@
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>[1.05436122]</t>
+          <t>[1.07603276]</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr"/>
@@ -43375,7 +43378,7 @@
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>[28.22635595]</t>
+          <t>[27.65787069]</t>
         </is>
       </c>
       <c r="E1596" t="inlineStr"/>
@@ -43398,9 +43401,9 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>[1049.3143179  1209.09984782 1324.13573378 1416.35103859 1524.64894179
- 1615.27225137 1693.97102547 1670.92053784 1643.10187946 1611.31912862
- 1403.93903101 1204.52743689 1007.39469272]</t>
+          <t>[1165.33215078 1348.13552701 1480.54620333 1587.12312104 1712.7354511
+ 1818.18816273 1909.9971849  1570.39069597 1259.22881894  962.19979696
+  978.02723149  993.06343273 1007.39469272]</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr"/>
@@ -43519,9 +43522,9 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>[1049.3143179  1209.09984782 1324.13573378 1416.35103859 1524.64894179
- 1615.27225137 1693.97102547 1670.92053784 1643.10187946 1611.31912862
- 1403.93903101 1204.52743689 1007.39469272]</t>
+          <t>[1165.33215078 1348.13552701 1480.54620333 1587.12312104 1712.7354511
+ 1818.18816273 1909.9971849  1570.39069597 1259.22881894  962.19979696
+  978.02723149  993.06343273 1007.39469272]</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr"/>
@@ -43709,9 +43712,9 @@
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>[-1049.3143179  -1209.09984782 -1324.13573378 -1416.35103859
- -1524.64894179 -1615.27225137 -1693.97102547 -1670.92053784
- -1643.10187946 -1611.31912862 -1403.93903101 -1204.52743689
+          <t>[-1165.33215078 -1348.13552701 -1480.54620333 -1587.12312104
+ -1712.7354511  -1818.18816273 -1909.9971849  -1570.39069597
+ -1259.22881894  -962.19979696  -978.02723149  -993.06343273
  -1007.39469272]</t>
         </is>
       </c>
@@ -43756,7 +43759,7 @@
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>[229.63638128 405.49315201 889.3715009  699.47497258]</t>
+          <t>[467.9160478  607.94535769 453.94797567 299.45146708]</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
@@ -43775,7 +43778,7 @@
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>[1.         1.         0.9032086  0.60260544]</t>
+          <t>[0.99999997 0.9999993  0.49338361 0.99999873]</t>
         </is>
       </c>
       <c r="E1613" t="inlineStr"/>
@@ -43794,7 +43797,7 @@
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>[1.         1.         0.9032086  0.60260544]</t>
+          <t>[0.99999997 1.0000007  0.49338361 0.99999873]</t>
         </is>
       </c>
       <c r="E1614" t="inlineStr"/>
@@ -43813,7 +43816,7 @@
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>[0.56631383 0.43386709 0.96702859]</t>
+          <t>[0.76966819 1.         1.00166545]</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
@@ -43856,8 +43859,8 @@
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>[5.51096626 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626
- 5.51096626 5.33316155 5.15535684 4.97755213 4.31820142 3.65885071
+          <t>[6.07945163 6.07945156 6.0794515  6.07945144 6.07945287 6.07945429
+ 6.07945572 5.05280508 4.02615444 2.9995038  2.99950253 2.99950127
  2.9995    ]</t>
         </is>
       </c>
@@ -44109,8 +44112,8 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
+          <t>[12.15890325 12.15890313 12.158903   12.15890288 12.15890573 12.15890858
+ 12.15891143 10.10561015  8.05230887  5.99900759  5.99900506  5.99900253
   5.999     ]</t>
         </is>
       </c>
@@ -44364,7 +44367,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>[13810.44580765  7835.88176253  3239.55040805  2381.87849492]</t>
+          <t>[8266.46756223 6365.57792056 4750.4698648  3140.56187654]</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
@@ -44391,7 +44394,7 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>[207898.23467424 118405.35280764  44447.40518573  18891.77246061]</t>
+          <t>[152111.65256699 117248.746992    48731.00124862  14033.79287888]</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
@@ -44418,7 +44421,7 @@
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>[207898.23467424 118405.35280764  44447.40518573  18891.77246061]</t>
+          <t>[152111.65256699 117248.746992    48731.00124862  14033.79287888]</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
@@ -44445,7 +44448,7 @@
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>[4.98198501e+12 2.83741560e+12 1.06511874e+12 4.52714413e+11]</t>
+          <t>[3.64513905e+12 2.80969919e+12 1.16776902e+12 3.36299853e+11]</t>
         </is>
       </c>
       <c r="E1642" t="inlineStr">
@@ -44472,7 +44475,7 @@
       </c>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>[4.98198501e+12 2.83741560e+12 1.06511874e+12 4.52714413e+11]</t>
+          <t>[3.64513905e+12 2.80969919e+12 1.16776902e+12 3.36299853e+11]</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr">
@@ -44499,7 +44502,7 @@
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>[3.95071412e+12 2.25007057e+12 8.44639164e+11 3.59002530e+11]</t>
+          <t>[2.89059527e+12 2.22809145e+12 9.26040834e+11 2.66685784e+11]</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
@@ -44526,7 +44529,7 @@
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>[3.30947659e+11 1.87775743e+11 7.76312104e+10 5.70783248e+10]</t>
+          <t>[1.98094118e+11 1.52542006e+11 1.13838243e+11 7.52590912e+10]</t>
         </is>
       </c>
       <c r="E1645" t="inlineStr">
@@ -44634,10 +44637,10 @@
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.60432517 0.22123576 0.22123576 0.        ]
- [0.         0.         1.0651003  0.38844971 0.38844971 0.        ]
- [0.         0.         2.57628342 0.98472761 0.98472761 0.        ]
- [0.         0.         3.50395707 1.76204952 1.76204952 0.        ]]</t>
+          <t>[[0.         0.         1.00962109 0.33356486 0.33356486 0.        ]
+ [0.         0.         1.31111426 0.43274765 0.43274765 0.        ]
+ [0.         0.         1.75687884 0.77746193 0.77746193 0.        ]
+ [0.         0.         2.65748625 1.78382587 1.78382587 0.        ]]</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr"/>
@@ -44660,10 +44663,10 @@
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>[[0.99334706 0.99334706 0.         0.         0.         0.11061788]
- [1.75222698 1.75222698 0.         0.         0.         0.19422485]
- [4.24084357 4.24084357 0.         0.         0.         0.49236381]
- [5.76711748 5.76711748 0.         0.         0.         0.88102476]]</t>
+          <t>[[1.66120033 1.66120033 0.         0.         0.         0.16678243]
+ [2.15774019 2.15774019 0.         0.         0.         0.21637382]
+ [2.89063118 2.89063118 0.         0.         0.         0.38873096]
+ [4.37019461 4.37019461 0.         0.         0.         0.89191294]]</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr"/>
@@ -44686,7 +44689,7 @@
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>[557.23915136]</t>
+          <t>[544.21274316]</t>
         </is>
       </c>
       <c r="E1651" t="inlineStr"/>
@@ -44709,7 +44712,7 @@
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>[2920794.25999043]</t>
+          <t>[2483080.31721022]</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr"/>
@@ -44732,8 +44735,8 @@
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 10.84412782 10.4885184  10.13290898  9.29575356  7.97705213  6.65835071]</t>
+          <t>[12.15890319 12.15890307 12.15890294 12.15890431 12.15890716 12.15891001
+ 11.13226079  9.07895951  7.02565823  5.99900633  5.9990038   5.99900127]</t>
         </is>
       </c>
       <c r="E1653" t="inlineStr"/>
@@ -44756,8 +44759,8 @@
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>[0.05135714 0.05135714 0.05135714 0.02908426 0.02908426 0.02908426
- 0.0126187  0.0126187  0.0126187  0.01220265 0.01220265 0.01220265]</t>
+          <t>[0.02780419 0.02780419 0.02780419 0.0214     0.0214     0.0214
+ 0.0214     0.0214     0.0214     0.02143564 0.02143564 0.02143564]</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr"/>
@@ -44804,18 +44807,18 @@
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>[[69861459.06598444]
- [63654995.38463002]
- [57428785.26968221]
- [84144268.97573814]
- [67431221.5315291 ]
- [50687414.55018986]
- [95573636.33108613]
- [76123978.84035225]
- [53522700.01538748]
- [34521347.96736122]
- [ 5492676.18503193]
- [-1515805.8411418 ]]</t>
+          <t>[[1.05581159e+08]
+ [9.57560327e+07]
+ [8.58885491e+07]
+ [9.26582328e+07]
+ [7.38259186e+07]
+ [5.49548112e+07]
+ [5.30570015e+07]
+ [6.20801144e+07]
+ [7.32067121e+07]
+ [5.75776795e+07]
+ [1.13849860e+07]
+ [8.62835625e+05]]</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr"/>
@@ -44838,18 +44841,18 @@
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>[[ 3559870.00879252]
- [ 3560516.81111279]
- [ 3561105.45419598]
- [ 6277326.53168449]
- [ 6278946.59817244]
- [ 6280260.20519406]
- [14725003.36655716]
- [15319045.02973688]
- [15961483.31096564]
- [18303325.20819971]
- [22057929.32637621]
- [27647430.48186382]]</t>
+          <t>[[ 5847666.01396773]
+ [ 5848560.80001983]
+ [ 5849376.33393485]
+ [ 7598143.11491927]
+ [ 7599798.7085657 ]
+ [ 7601141.96831403]
+ [ 8426506.6362002 ]
+ [10751537.29414593]
+ [14755504.12495985]
+ [18017260.74641877]
+ [18017986.32092569]
+ [18018243.02551159]]</t>
         </is>
       </c>
       <c r="E1657" t="inlineStr"/>
@@ -44872,18 +44875,18 @@
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>[[-16659.61692149]
- [-18612.32950635]
- [-20058.95343438]
- [-37923.83911746]
- [-40309.0645347 ]
- [-42312.05445087]
- [-99317.80042301]
- [-98179.68252619]
- [-96765.79961671]
- [-93450.44129217]
- [-81477.56999782]
- [-69021.88182149]]</t>
+          <t>[[-34021.89330505]
+ [-38009.67844509]
+ [-40963.94070373]
+ [-56905.02442048]
+ [-60484.08847188]
+ [-63489.60650327]
+ [-60077.02107514]
+ [-50058.21146582]
+ [-39495.11498614]
+ [-34258.94948356]
+ [-34814.56208853]
+ [-35343.40650532]]</t>
         </is>
       </c>
       <c r="E1658" t="inlineStr"/>
@@ -44936,18 +44939,18 @@
       <c r="C1660" t="inlineStr"/>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>[[0.35680588]
- [0.32537342]
- [0.2938686 ]
- [0.43169248]
- [0.34755362]
- [0.26382064]
- [0.50343651]
- [0.41032424]
- [0.30666268]
- [0.23859905]
- [0.19637763]
- [0.24371454]]</t>
+          <t>[[0.53963858]
+ [0.48992108]
+ [0.44004404]
+ [0.47622226]
+ [0.38162367]
+ [0.28762034]
+ [0.2800717 ]
+ [0.32982303]
+ [0.39453571]
+ [0.33322586]
+ [0.1690186 ]
+ [0.1588196 ]]</t>
         </is>
       </c>
       <c r="E1660" t="inlineStr"/>
@@ -44966,18 +44969,18 @@
       <c r="C1661" t="inlineStr"/>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>[[0.08198184]
- [0.07725502]
- [0.07259032]
- [0.23997252]
- [0.22911135]
- [0.21827155]
- [1.18671078]
- [1.17268462]
- [1.16028049]
- [1.22433247]
- [1.24795393]
- [1.29762601]]</t>
+          <t>[[0.26523841]
+ [0.25627802]
+ [0.2472403 ]
+ [0.4694284 ]
+ [0.45182281]
+ [0.43411067]
+ [0.3651978 ]
+ [0.37207896]
+ [0.39592487]
+ [0.40683463]
+ [0.40251721]
+ [0.39820797]]</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr"/>
@@ -44996,18 +44999,18 @@
       <c r="C1662" t="inlineStr"/>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>[[1.39685285]
- [1.26598113]
- [1.1353878 ]
- [1.708367  ]
- [1.39453673]
- [1.08241365]
- [2.20574096]
- [1.89002383]
- [1.52137343]
- [1.31055306]
- [0.98825913]
- [1.15046984]]</t>
+          <t>[[1.86775615]
+ [1.70081314]
+ [1.53391758]
+ [1.69960495]
+ [1.39441009]
+ [1.09043556]
+ [1.07881274]
+ [1.3489282 ]
+ [1.87375483]
+ [1.91605405]
+ [0.96511018]
+ [0.7247798 ]]</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr"/>
@@ -45123,7 +45126,7 @@
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>[0.27999646]</t>
+          <t>[0.25699012]</t>
         </is>
       </c>
       <c r="E1667" t="inlineStr"/>
@@ -45146,7 +45149,7 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>[0.28365688]</t>
+          <t>[0.26036126]</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr"/>
@@ -45169,7 +45172,7 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>[0.27999646 0.28365688 0.813496   1.01616413 1.19274981 3.02481876]</t>
+          <t>[0.25699012 0.26036126 0.75336455 0.93157813 1.0856148  3.05265441]</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr"/>
@@ -45188,9 +45191,9 @@
       <c r="C1670" t="inlineStr"/>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>[[   0.84388361    0.56946444   -1.59088745    1.97988037   -0.80234097]
- [  15.83982488   20.39074802  -95.50307827  122.16690021  -61.89439484]
- [ -75.59313969  195.40240196 -349.60117628  424.34818567 -193.55627166]]</t>
+          <t>[[   0.86271549    1.9278203    -5.68301227    5.87807736   -1.98560087]
+ [  43.13647075  -86.20114447  121.43900108  -68.88506515   -8.48926221]
+ [ -88.49805364  301.83013231 -587.88931529  637.57413514 -262.01689852]]</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr"/>
@@ -45209,9 +45212,9 @@
       <c r="C1671" t="inlineStr"/>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>[[   0.83560771    0.53725793   -1.47664276    1.83459578   -0.73081865]
- [   8.43206865   15.03377841  -62.07388519   79.18245242  -39.57441428]
- [ -74.18325098  189.03967369 -336.77356448  408.96274166 -186.04559988]]</t>
+          <t>[[   0.84269548    1.95885436   -5.70994507    5.86529277   -1.95689755]
+ [  20.32834498  -36.10645273   44.98711279  -17.12566731  -11.08333773]
+ [ -85.51103769  290.88791838 -568.0158548   614.80154907 -251.16257495]]</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr"/>
@@ -45230,7 +45233,7 @@
       <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>[[  4.38580681 -16.93879529  30.90397338 -24.84756612   7.49658121]
+          <t>[[  6.74690109 -21.65590046  31.8585735  -21.28401523   5.3344411 ]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -45255,7 +45258,7 @@
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>[0.28365688 1.19274981 3.06609241]</t>
+          <t>[0.26036126 1.0856148  3.11208256]</t>
         </is>
       </c>
       <c r="E1673" t="inlineStr"/>
@@ -45278,7 +45281,7 @@
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>[0.27999646 1.01616413 3.02481876]</t>
+          <t>[0.25699012 0.93157813 3.05265441]</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr"/>
@@ -45301,7 +45304,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>[4.58641349 0.         0.        ]</t>
+          <t>[4.65929353 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr"/>
@@ -45325,18 +45328,18 @@
       <c r="D1676" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00553095]
- [0.02069081]
- [0.04461   ]
- [0.09848119]
- [0.17613667]
- [0.27307817]
- [0.34303274]
- [0.42402893]
- [0.51450522]
- [0.6064984 ]
- [0.70506536]
- [0.8076364 ]]</t>
+ [0.00771485]
+ [0.02863862]
+ [0.06158055]
+ [0.13053867]
+ [0.22361036]
+ [0.33623548]
+ [0.41213928]
+ [0.49623856]
+ [0.593208  ]
+ [0.69836113]
+ [0.81445873]
+ [0.93474497]]</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr"/>
@@ -45359,7 +45362,7 @@
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>[0.8076364]</t>
+          <t>[0.93474497]</t>
         </is>
       </c>
       <c r="E1677" t="inlineStr"/>
@@ -45382,18 +45385,18 @@
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>[[-15610887.44818368]
- [-14023536.89268298]
- [-12434994.93518549]
- [-11136012.51178243]
- [ -9835396.49448067]
- [ -8533389.95921976]
- [ -8189848.13209433]
- [ -7857290.62886233]
- [ -7535760.47732304]
- [ -7268962.45179177]
- [ -7039960.2560007 ]
- [ -6848706.78611806]]</t>
+          <t>[[-14277781.45600925]
+ [-13320102.65992886]
+ [-12361050.02135536]
+ [-11298326.49312473]
+ [-10233705.07972168]
+ [ -9167463.46173711]
+ [ -8581492.27985907]
+ [ -8103833.51188786]
+ [ -7734277.29332669]
+ [ -7439226.64973219]
+ [ -7144034.1799882 ]
+ [ -6848706.78611807]]</t>
         </is>
       </c>
       <c r="E1678" t="inlineStr"/>
@@ -45416,18 +45419,18 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>[[2938090.33464534]
- [2938748.75457626]
- [2939348.63310421]
- [2939822.2285196 ]
- [2940757.27242059]
- [2941517.43280888]
- [2938920.52539089]
- [2939066.51011289]
- [2939174.87525217]
- [2939035.8061459 ]
- [2938929.77103   ]
- [2938770.86681194]]</t>
+          <t>[[2938030.14263115]
+ [2938575.35543545]
+ [2939072.87307982]
+ [2939921.57996426]
+ [2940699.36346993]
+ [2941332.4142118 ]
+ [2939949.49891165]
+ [2939733.22144838]
+ [2939515.85315876]
+ [2939383.13533518]
+ [2939557.84579286]
+ [2939625.27363868]]</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr"/>
@@ -45450,18 +45453,18 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>[[8739.93069962]
- [8743.18582158]
- [8746.26786455]
- [8748.94312893]
- [8754.38491586]
- [8759.30415066]
- [8745.20075187]
- [8746.55032421]
- [8747.82284247]
- [8747.58175841]
- [8747.80608838]
- [8748.16613164]]</t>
+          <t>[[8739.64131112]
+ [8742.34019338]
+ [8744.89932843]
+ [8749.41506455]
+ [8753.94489378]
+ [8758.04261571]
+ [8750.90583534]
+ [8750.23012041]
+ [8749.94311971]
+ [8750.59492682]
+ [8753.92263062]
+ [8756.91526683]]</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr"/>
@@ -45484,18 +45487,18 @@
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>[[-1881291.26041579]
- [-1778664.10277271]
- [-1675522.52911538]
- [-1527132.91254807]
- [-1377553.38889041]
- [-1227283.69039806]
- [-1136816.93910518]
- [-1045723.88728681]
- [ -954043.96128528]
- [ -867924.20976593]
- [ -781062.62992797]
- [ -693050.82246311]]</t>
+          <t>[[-1890542.4344609 ]
+ [-1787615.70087783]
+ [-1683962.51426491]
+ [-1534653.10622968]
+ [-1384124.68114047]
+ [-1232822.94065532]
+ [-1141871.88336121]
+ [-1050579.15478807]
+ [ -958462.62338851]
+ [ -871224.63572324]
+ [ -782662.2786495 ]
+ [ -693051.19370616]]</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr"/>
@@ -45518,18 +45521,18 @@
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>[[ 3.80520688e+08]
- [ 3.46167408e+08]
- [ 3.11715356e+08]
- [ 2.62308376e+08]
- [ 2.12705421e+08]
- [ 1.63013781e+08]
- [ 1.33173318e+08]
- [ 1.03267188e+08]
- [ 7.33135037e+07]
- [ 4.53269885e+07]
- [ 1.73172550e+07]
- [-1.06981120e+07]]</t>
+          <t>[[ 3.81891036e+08]
+ [ 3.47475681e+08]
+ [ 3.12920282e+08]
+ [ 2.63330653e+08]
+ [ 2.13540960e+08]
+ [ 1.63650250e+08]
+ [ 1.33711037e+08]
+ [ 1.03746612e+08]
+ [ 7.37180779e+07]
+ [ 4.56115029e+07]
+ [ 1.74545186e+07]
+ [-1.06981108e+07]]</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr"/>
@@ -45552,18 +45555,18 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>[[6203388.1818362 ]
- [6203318.11195728]
- [6203247.97385601]
- [6203596.73233675]
- [6203495.56481517]
- [6203394.27337163]
- [6204183.1028436 ]
- [6204171.15634456]
- [6204160.51279913]
- [6204284.89921882]
- [6204490.83552296]
- [6204790.11673654]]</t>
+          <t>[[6203752.90487816]
+ [6203682.33372878]
+ [6203611.63042264]
+ [6203813.3476173 ]
+ [6203711.4557093 ]
+ [6203609.38520768]
+ [6203588.36319371]
+ [6203730.70574494]
+ [6203974.49568759]
+ [6204131.25006286]
+ [6204073.90610345]
+ [6204016.53558876]]</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr"/>
@@ -45588,7 +45591,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-1.71966582e+07]]</t>
+ [-1.52336482e+07]]</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr"/>
@@ -45611,8 +45614,8 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>[[-1.98321300e+06]
- [ 4.14731705e+08]
+          <t>[[-1.99256715e+06]
+ [ 4.16124579e+08]
  [ 6.20262840e+06]]</t>
         </is>
       </c>
@@ -45636,7 +45639,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>[1982682.0360818]</t>
+          <t>[1782617.50803176]</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr"/>
@@ -45659,7 +45662,7 @@
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>[-3.23276744e+00 -4.58545692e-02  1.02545578e+02]</t>
+          <t>[-3.59558341e+00 -5.10008626e-02  1.13679861e+02]</t>
         </is>
       </c>
       <c r="E1687" t="inlineStr"/>
@@ -45682,7 +45685,7 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>[2.76178965e+10 2.74869637e+10 2.96358377e+08 5.41253437e+02
+          <t>[2.80389697e+10 2.79080368e+10 2.92605692e+08 5.41253437e+02
  1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
@@ -51109,7 +51112,7 @@
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>[2.8228916]</t>
+          <t>[2.97518627]</t>
         </is>
       </c>
       <c r="E1860" t="inlineStr"/>
@@ -53948,8 +53951,8 @@
       </c>
       <c r="D1981" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[12.15889738 12.15888125 12.15888235 12.15888151 12.15888179 12.15888242
+ 12.15890171]</t>
         </is>
       </c>
       <c r="E1981" t="inlineStr">
@@ -54934,7 +54937,7 @@
       </c>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[12.15890325 12.15890288 12.15891143  5.99900759  5.999     ]</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr">
@@ -54984,7 +54987,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>[[0.05789818 0.03809647 0.01626663 0.00731973 0.01548895]]</t>
+          <t>[[0.03197045 0.02       0.02       0.02       0.02006662]]</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/30m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/30m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.41735213]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[2.55517966]</t>
+          <t>[2.7795294]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[11.         11.          8.84379117  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -4140,8 +4140,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[[0.0852541  0.0522459  0.10174142 0.07747147 0.09229431 0.08193058
-  0.12296051]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -4164,7 +4163,8 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213]</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.]</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.41735213]</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[[0.055      0.055      0.04421896 0.035      0.035     ]]</t>
+          <t>[[0.0567344 0.025     0.025     0.025     0.025    ]]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[11.         11.          8.84379117  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -9843,7 +9843,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>[[  0.   0. -60.]
+          <t>[[  0.   0. -75.]
  [  0.   0. -30.]
  [  0.   0. -20.]
  [  0.   0. -10.]
@@ -10392,7 +10392,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[5.999]</t>
+          <t>[6.]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -13980,7 +13980,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[1153.02773465]</t>
+          <t>[1036.98888729]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[3320.84529318]</t>
+          <t>[3249.8848979]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14103,7 +14103,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[1153.02773465]</t>
+          <t>[1036.98888729]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[1570.5162044]</t>
+          <t>[817.5577013]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[654.74691929]</t>
+          <t>[654.77302046]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -14292,7 +14292,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[75.]</t>
+          <t>[90.]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[1806.53017249]</t>
+          <t>[1478.85163079]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[4653071.07128613]</t>
+          <t>[3898313.75351104]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[87.04968018]</t>
+          <t>[84.69743815]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14465,10 +14465,10 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          729.034078    860.2225698
-  948.63159706  984.81958944 1017.40298746 1047.13901865]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         562.90161344 662.91551967
+ 729.32177147 756.28312431 780.45299216 802.42503738]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[-60.         -50.         -40.         -30.         -26.66666667
+          <t>[-75.         -60.         -45.         -30.         -26.66666667
  -23.33333333 -20.         -16.66666667 -13.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14612,11 +14612,11 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          47941.642397
-  48633.63313747  50732.65247576  54309.05199929  59484.44671607
-  66439.48953108  75427.53761774  86797.83218348 101034.29313054
- 118820.05963849      0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         28397.48972612
+ 28814.94210294 30082.00382747 32243.77801283 35376.3600571
+ 39591.79945657 45045.46940651 51948.16151303 60586.86438209
+ 71359.80288097     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14712,7 +14712,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>[-60.         -50.         -40.         -30.         -26.66666667
+          <t>[-75.         -60.         -45.         -30.         -26.66666667
  -23.33333333 -20.         -16.66666667 -13.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>[-60.         -50.         -40.         -30.         -26.66666667
+          <t>[-75.         -60.         -45.         -30.         -26.66666667
  -23.33333333 -20.         -16.66666667 -13.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14866,8 +14866,10 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
- 11.]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -14962,7 +14964,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[  0.   0. -60.]</t>
+          <t>[  0.   0. -75.]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15008,9 +15010,9 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[0.         0.13333333 0.26666667 0.4        0.44444444 0.48888889
- 0.53333333 0.57777778 0.62222222 0.66666667 0.71111111 0.75555556
- 0.8        0.84444444 0.88888889 0.93333333 0.95555556 0.97777778
+          <t>[0.         0.16666667 0.33333333 0.5        0.53703704 0.57407407
+ 0.61111111 0.64814815 0.68518519 0.72222222 0.75925926 0.7962963
+ 0.83333333 0.87037037 0.90740741 0.94444444 0.96296296 0.98148148
  1.        ]</t>
         </is>
       </c>
@@ -15034,11 +15036,11 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          47941.642397
-  48633.63313747  50732.65247576  54309.05199929  59484.44671607
-  66439.48953108  75427.53761774  86797.83218348 101034.29313054
- 118820.05963849    729.034078      860.2225698     948.63159706
-    984.81958944   1017.40298746   1047.13901865]</t>
+          <t>[    0.             0.             0.         28397.48972612
+ 28814.94210294 30082.00382747 32243.77801283 35376.3600571
+ 39591.79945657 45045.46940651 51948.16151303 60586.86438209
+ 71359.80288097   562.90161344   662.91551967   729.32177147
+   756.28312431   780.45299216   802.42503738]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr"/>
@@ -15180,11 +15182,11 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -47941.642397
-  -48633.63313747  -50732.65247576  -54309.05199929  -59484.44671607
-  -66439.48953108  -75427.53761774  -86797.83218348 -101034.29313054
- -118820.05963849    -729.034078      -860.2225698     -948.63159706
-    -984.81958944   -1017.40298746   -1047.13901865]</t>
+          <t>[     0.              0.              0.         -28397.48972612
+ -28814.94210294 -30082.00382747 -32243.77801283 -35376.3600571
+ -39591.79945657 -45045.46940651 -51948.16151303 -60586.86438209
+ -71359.80288097   -562.90161344   -662.91551967   -729.32177147
+   -756.28312431   -780.45299216   -802.42503738]</t>
         </is>
       </c>
       <c r="E580" t="inlineStr"/>
@@ -15234,8 +15236,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15258,26 +15259,26 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[3.09888740e+10 1.85474786e+13 3.09888740e+10 1.85474786e+13
+  1.90480977e+10 5.56625713e+10]
+ [2.78764530e+10 1.31069127e+13 2.78764530e+10 1.31069127e+13
+  1.73680977e+10 5.56625713e+10]
+ [2.47640319e+10 8.86101349e+12 2.47640319e+10 8.86101349e+12
+  1.56880977e+10 5.56625713e+10]
+ [2.16516109e+10 5.66044758e+12 2.16516109e+10 5.66044758e+12
+  1.40080977e+10 5.56625713e+10]
+ [1.85391898e+10 3.35588167e+12 1.85391898e+10 3.35588167e+12
+  1.23280977e+10 5.56625713e+10]
+ [1.54267688e+10 1.79798243e+12 1.54267688e+10 1.79798243e+12
+  1.06480977e+10 5.56625713e+10]
+ [1.23143477e+10 8.37416528e+11 1.23143477e+10 8.37416528e+11
+  8.96809766e+09 5.56625713e+10]
+ [9.20192665e+09 3.24850622e+11 9.20192665e+09 3.24850622e+11
+  7.28809766e+09 5.56625713e+10]
+ [6.08950560e+09 1.10951382e+11 6.08950560e+09 1.10951382e+11
+  5.60809766e+09 5.56625713e+10]
+ [2.97708454e+09 4.63854761e+10 2.97708454e+09 4.63854761e+10
+  3.92809766e+09 5.56625713e+10]]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15300,9 +15301,9 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[[  0.           0.         -60.        ]
- [  0.           0.         -50.        ]
- [  0.           0.         -40.        ]
+          <t>[[  0.           0.         -75.        ]
+ [  0.           0.         -60.        ]
+ [  0.           0.         -45.        ]
  [  0.           0.         -30.        ]
  [  0.           0.         -26.66666667]
  [  0.           0.         -23.33333333]
@@ -15341,9 +15342,9 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[2.52624915 2.52624915 2.52624915 2.82703246 2.82703246 2.82703246
- 3.28634624 3.28634624 3.28634624 3.11445606 3.11445606 3.11445606
- 3.19560822 3.19560822 3.19560822 3.75280308 3.75280308 3.75280308]</t>
+          <t>[1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
+ 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
+ 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15366,9 +15367,9 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>[1.4376035  1.4376035  1.4376035  1.60932787 1.60932787 1.60932787
- 1.87180084 1.87180084 1.87180084 1.77354071 1.77354071 1.77354071
- 1.8199258  1.8199258  1.8199258  2.13865713 2.13865713 2.13865713]</t>
+          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315]</t>
         </is>
       </c>
       <c r="E586" t="inlineStr"/>
@@ -15391,9 +15392,9 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[1.4376035  1.4376035  1.4376035  1.60932787 1.60932787 1.60932787
- 1.87180084 1.87180084 1.87180084 1.77354071 1.77354071 1.77354071
- 1.8199258  1.8199258  1.8199258  2.13865713 2.13865713 2.13865713]</t>
+          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315]</t>
         </is>
       </c>
       <c r="E587" t="inlineStr"/>
@@ -15416,9 +15417,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[37.73488447 37.73488447 37.73488447 42.16448082 42.16448082 42.16448082
- 48.90276966 48.90276966 48.90276966 46.38475681 46.38475681 46.38475681
- 47.57409941 47.57409941 47.57409941 55.71373373 55.71373373 55.71373373]</t>
+          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15441,9 +15442,9 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[37.73488447 37.73488447 37.73488447 42.16448082 42.16448082 42.16448082
- 48.90276966 48.90276966 48.90276966 46.38475681 46.38475681 46.38475681
- 47.57409941 47.57409941 47.57409941 55.71373373 55.71373373 55.71373373]</t>
+          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15466,10 +15467,9 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>[ 75.46976894  75.46976894  75.46976894  84.32896164  84.32896164
-  84.32896164  97.80553932  97.80553932  97.80553932  92.76951362
-  92.76951362  92.76951362  95.14819883  95.14819883  95.14819883
- 111.42746747 111.42746747 111.42746747]</t>
+          <t>[34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
+ 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
+ 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314]</t>
         </is>
       </c>
       <c r="E590" t="inlineStr"/>
@@ -15565,9 +15565,8 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[0.06875    0.06875    0.06875    0.07699366 0.07699366 0.07699366
- 0.08960645 0.08960645 0.08960645 0.08488289 0.08488289 0.08488289
- 0.08711244 0.08711244 0.08711244 0.10244555 0.10244555 0.10244555]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
+ 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15680,17 +15679,17 @@
       <c r="D598" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -15714,8 +15713,8 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[2.02354145 2.02354145 2.02354145 1.766185   1.64632676 1.52646853
- 1.10912467 0.9828658  0.85660693 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.09338794 1.09338794 1.09338794 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15738,8 +15737,8 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.00434483 0.93633145 0.86831846
- 0.63072627 0.55908108 0.48743676 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15762,8 +15761,8 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.00434483 0.93633145 0.86831846
- 0.63072627 0.55908108 0.48743676 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15786,8 +15785,8 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 24.76461066 20.05730062 15.98783746
-  9.62045021  6.69483155  4.4320606   3.11989206  3.11989206  3.11989206]</t>
+          <t>[8.65819263 8.65819263 8.65819263 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15810,8 +15809,8 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 24.76461066 20.05730062 15.98783746
-  9.62045021  6.69483155  4.4320606   3.11989206  3.11989206  3.11989206]</t>
+          <t>[8.65819263 8.65819263 8.65819263 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15834,8 +15833,8 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[60.60306831 60.60306831 60.60306831 49.52922131 40.11460124 31.97567493
- 19.24090041 13.3896631   8.8641212   6.23978412  6.23978412  6.23978412]</t>
+          <t>[17.31638526 17.31638526 17.31638526 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15929,9 +15928,9 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.28126372  9.56252744
-  8.84379117  7.89552744  6.94726372  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -15954,8 +15953,8 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0.055      0.055      0.055      0.04960948 0.04960948 0.04960948
- 0.03960948 0.03960948 0.03960948 0.035      0.035      0.035     ]</t>
+          <t>[0.0408672 0.0408672 0.0408672 0.025     0.025     0.025     0.025
+ 0.025     0.025     0.025     0.025     0.025    ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16003,17 +16002,17 @@
       <c r="D611" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -16062,7 +16061,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E613" t="inlineStr"/>
@@ -16085,9 +16084,9 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16112,7 +16111,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.45593661e+07]]</t>
+ [-1.71503117e+07]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16135,9 +16134,9 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[-1.99160168e+06]
- [ 3.86880269e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.08760944e+06]
+ [ 4.01854590e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16160,7 +16159,8 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[1512500. 1512500. 3025000.       0.       0.       0.]</t>
+          <t>[ 885647.71156764  885647.71156764 1771295.42313528       0.
+       0.               0.        ]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[45.]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[2518911.42930409]</t>
+          <t>[1765979.02738052]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[-2.54457144e+00 -3.60929843e-02  9.64375212e+01]</t>
+          <t>[-3.62946168e+00 -5.14866569e-02  1.14871465e+02]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16298,8 +16298,8 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.12468720e+10 3.11159391e+10 3.03125126e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[2.82474768e+10 2.81165437e+10 2.78206205e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16345,8 +16345,8 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16474,25 +16474,25 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[[      0.        ]
- [      0.        ]
- [      0.        ]
- [ -47941.642397  ]
- [ -48633.63313747]
- [ -50732.65247576]
- [ -54309.05199929]
- [ -59484.44671607]
- [ -66439.48953108]
- [ -75427.53761774]
- [ -86797.83218348]
- [-101034.29313054]
- [-118820.05963849]
- [   -729.034078  ]
- [   -860.2225698 ]
- [   -948.63159706]
- [   -984.81958944]
- [  -1017.40298746]
- [  -1047.13901865]]</t>
+          <t>[[     0.        ]
+ [     0.        ]
+ [     0.        ]
+ [-28397.48972612]
+ [-28814.94210294]
+ [-30082.00382747]
+ [-32243.77801283]
+ [-35376.3600571 ]
+ [-39591.79945657]
+ [-45045.46940651]
+ [-51948.16151303]
+ [-60586.86438209]
+ [-71359.80288097]
+ [  -562.90161344]
+ [  -662.91551967]
+ [  -729.32177147]
+ [  -756.28312431]
+ [  -780.45299216]
+ [  -802.42503738]]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16585,19 +16585,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-1047.13901865]
- [-1206.50664157]
- [-1321.22751075]
- [-1413.18261726]
- [-1409.857905  ]
- [-1377.76078408]
- [-1326.64065493]
- [-1208.89268927]
- [-1087.8847062 ]
- [ -962.19898835]
- [ -978.02680667]
- [ -993.06340443]
- [-1007.39507288]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16620,10 +16620,10 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[ 0.         10.         20.         30.         33.33333333 36.66666667
- 40.         43.33333333 46.66666667 50.         53.33333333 56.66666667
- 60.         63.33333333 66.66666667 70.         71.66666667 73.33333333
- 75.        ]</t>
+          <t>[ 0.         15.         30.         45.         48.33333333 51.66666667
+ 55.         58.33333333 61.66666667 65.         68.33333333 71.66666667
+ 75.         78.33333333 81.66666667 85.         86.66666667 88.33333333
+ 90.        ]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16719,24 +16719,24 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[-42854218.99185704]
- [-40921906.80953157]
- [-38752283.51525653]
- [-37872141.18192104]
- [-36987393.68576173]
- [-36093281.74364405]
- [-35067620.62781902]
- [-34021944.29040791]
- [-32949961.84868949]
- [-31888214.00683503]
- [-30784215.0280906 ]
- [-29627379.36339083]
- [-28615356.47575979]
- [-27797967.3166277 ]
- [-26980215.82136762]
- [-26500204.81906645]
- [-26020137.08029054]
- [-25540017.92806355]]</t>
+          <t>[[-30965218.73083317]
+ [-28711639.8385003 ]
+ [-26247209.57576079]
+ [-25652013.75873311]
+ [-25054038.49096441]
+ [-24450405.64398045]
+ [-23838037.104154  ]
+ [-23213544.33872145]
+ [-22573097.54305052]
+ [-21912262.75470563]
+ [-21225784.65930941]
+ [-20507277.3444542 ]
+ [-19887809.57660537]
+ [-19384991.66894834]
+ [-18881899.16802145]
+ [-18630275.88922653]
+ [-18378610.42727201]
+ [-18126906.89819442]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16759,24 +16759,24 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[ -3893727.80776023]
- [-10397746.58694787]
- [-11199365.4285547 ]
- [  2938086.17782361]
- [  2938173.44266901]
- [  2938262.64588079]
- [  2938429.98854295]
- [  2938525.19905948]
- [  2938626.92709098]
- [  2938699.34373674]
- [  2938822.49677668]
- [  2938961.1352614 ]
- [  2938960.56403688]
- [  2938715.8261874 ]
- [  2938772.08408545]
- [  2938356.79611971]
- [  2938370.31459074]
- [  2938383.64826998]]</t>
+          <t>[[  -800673.89879163]
+ [ -6442277.71017441]
+ [-18048711.70577127]
+ [  2938258.31227902]
+ [  2938411.66391886]
+ [  2938567.35562391]
+ [  2938727.75049549]
+ [  2938895.51011297]
+ [  2939073.75317491]
+ [  2939266.25687064]
+ [  2939477.74149746]
+ [  2939714.30695847]
+ [  2939699.23412012]
+ [  2939332.68541785]
+ [  2939435.96317856]
+ [  2938612.36118557]
+ [  2938637.16907734]
+ [  2938661.65485856]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16799,24 +16799,24 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-18189.58016132]
- [-49026.35321658]
- [-54736.25063864]
- [  8739.88525334]
- [  8740.29647729]
- [  8740.71961596]
- [  8741.51173045]
- [  8741.96899068]
- [  8742.46029695]
- [  8742.81671215]
- [  8743.41740746]
- [  8744.09649197]
- [  8744.11770812]
- [  8742.96980786]
- [  8743.25948682]
- [  8741.27400276]
- [  8741.34478038]
- [  8741.41499293]]</t>
+          <t>[[ -3749.21902964]
+ [-30292.23409467]
+ [-86682.70570861]
+ [  8740.70449321]
+ [  8741.43188953]
+ [  8742.17523558]
+ [  8742.94593688]
+ [  8743.75697556]
+ [  8744.62369699]
+ [  8745.56481815]
+ [  8746.60385813]
+ [  8747.7713321 ]
+ [  8747.73610282]
+ [  8746.00138366]
+ [  8746.53395774]
+ [  8742.54886572]
+ [  8742.67880225]
+ [  8742.80774177]]</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
@@ -16839,24 +16839,24 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[ -195522.76828554]
- [ -962842.32909878]
- [-1987960.93806945]
- [-2306571.82730385]
- [-2276837.96539885]
- [-2247007.28803663]
- [-2217095.24676096]
- [-2187117.16992635]
- [-2157079.91867042]
- [-2126988.03438485]
- [-2096845.98669989]
- [-2066661.7527091 ]
- [-2036444.95617343]
- [-2006197.30541863]
- [-1975916.55364898]
- [-1960771.22580026]
- [-1945623.36167407]
- [-1930473.46083677]]</t>
+          <t>[[  -23995.57377349]
+ [ -365849.56451061]
+ [-2157340.52177565]
+ [-2461353.50359349]
+ [-2431293.71509484]
+ [-2401057.81860052]
+ [-2370657.95721891]
+ [-2340106.42506152]
+ [-2309415.77618124]
+ [-2278598.95195272]
+ [-2247669.43484872]
+ [-2216641.43992349]
+ [-2185530.13320228]
+ [-2154337.57117456]
+ [-2123061.64471152]
+ [-2107402.49816061]
+ [-2091726.20046418]
+ [-2076033.72193585]]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16879,24 +16879,24 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[4.25670467e+07]
- [2.07947439e+08]
- [4.24023425e+08]
- [4.89242385e+08]
- [4.79318672e+08]
- [4.69374662e+08]
- [4.59413913e+08]
- [4.49439644e+08]
- [4.39453425e+08]
- [4.29456296e+08]
- [4.19449360e+08]
- [4.09434385e+08]
- [3.99413476e+08]
- [3.89387023e+08]
- [3.79354619e+08]
- [3.74337790e+08]
- [3.69320647e+08]
- [3.64303300e+08]]</t>
+          <t>[[5.16120684e+06]
+ [7.86871684e+07]
+ [4.57247547e+08]
+ [5.18761853e+08]
+ [5.08769748e+08]
+ [4.98740897e+08]
+ [4.88678138e+08]
+ [4.78584315e+08]
+ [4.68462307e+08]
+ [4.58315050e+08]
+ [4.48145565e+08]
+ [4.37957003e+08]
+ [4.27752679e+08]
+ [4.17533165e+08]
+ [4.07298174e+08]
+ [4.02176993e+08]
+ [3.97052751e+08]
+ [3.91925665e+08]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16919,24 +16919,24 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[[ 977980.43174478]
- [2158986.69291999]
- [3788206.71760401]
- [6203738.61984625]
- [6203714.25993186]
- [6203689.77275204]
- [6203525.41329236]
- [6203500.99505019]
- [6203476.10049714]
- [6203493.87393293]
- [6203467.20175908]
- [6203439.46843739]
- [6203391.50794151]
- [6203366.73133319]
- [6203346.71994306]
- [6203228.63030041]
- [6203218.62388098]
- [6203208.61631114]]</t>
+          <t>[[ 808324.95608759]
+ [1865400.64751387]
+ [3496542.46773627]
+ [6203710.92939941]
+ [6203687.21951967]
+ [6203663.39910182]
+ [6203639.35349915]
+ [6203614.96010224]
+ [6203590.08394038]
+ [6203564.5724699 ]
+ [6203538.24908683]
+ [6203510.90447689]
+ [6203482.28429928]
+ [6203457.60935878]
+ [6203437.58101642]
+ [6203417.54186583]
+ [6203407.51927097]
+ [6203397.49502824]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16959,12 +16959,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[-60.         -50.         -40.         -30.         -26.66666667
+          <t>[-75.         -60.         -45.         -30.         -26.66666667
  -23.33333333 -20.         -16.66666667 -13.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
+  10.          11.66666667  13.33333333  15.          27.30150617
+  39.60301235  51.90451852  69.47809877  87.05167901 104.62525926
+ 115.16940741 125.71355556 136.2577037  143.2871358  150.3165679
  157.346     ]</t>
         </is>
       </c>
@@ -16988,12 +16988,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         10.28126372  9.56252744
-  8.84379117  7.89552744  6.94726372  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -17016,11 +17016,11 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.06875    0.06875    0.06875    0.07699366 0.07699366 0.07699366
- 0.08960645 0.08960645 0.08960645 0.08488289 0.08488289 0.08488289
- 0.08711244 0.08711244 0.08711244 0.10244555 0.10244555 0.10244555
- 0.055      0.055      0.055      0.04960948 0.04960948 0.04960948
- 0.03960948 0.03960948 0.03960948 0.035      0.035      0.035     ]</t>
+          <t>[0.07      0.07      0.07      0.07      0.07      0.07      0.07
+ 0.07      0.07      0.07      0.07      0.07      0.07      0.07
+ 0.07      0.07      0.07      0.07      0.0408672 0.0408672 0.0408672
+ 0.025     0.025     0.025     0.025     0.025     0.025     0.025
+ 0.025     0.025    ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -17168,11 +17168,11 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[2.52624915 2.52624915 2.52624915 2.82703246 2.82703246 2.82703246
- 3.28634624 3.28634624 3.28634624 3.11445606 3.11445606 3.11445606
- 3.19560822 3.19560822 3.19560822 3.75280308 3.75280308 3.75280308
- 2.02354145 2.02354145 2.02354145 1.766185   1.64632676 1.52646853
- 1.10912467 0.9828658  0.85660693 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
+ 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
+ 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
+ 1.09338794 1.09338794 1.09338794 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr"/>
@@ -17195,11 +17195,11 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>[1.4376035  1.4376035  1.4376035  1.60932787 1.60932787 1.60932787
- 1.87180084 1.87180084 1.87180084 1.77354071 1.77354071 1.77354071
- 1.8199258  1.8199258  1.8199258  2.13865713 2.13865713 2.13865713
- 1.15086843 1.15086843 1.15086843 1.00434483 0.93633145 0.86831846
- 0.63072627 0.55908108 0.48743676 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E652" t="inlineStr"/>
@@ -17222,11 +17222,11 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>[1.4376035  1.4376035  1.4376035  1.60932787 1.60932787 1.60932787
- 1.87180084 1.87180084 1.87180084 1.77354071 1.77354071 1.77354071
- 1.8199258  1.8199258  1.8199258  2.13865713 2.13865713 2.13865713
- 1.15086843 1.15086843 1.15086843 1.00434483 0.93633145 0.86831846
- 0.63072627 0.55908108 0.48743676 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E653" t="inlineStr"/>
@@ -17249,11 +17249,11 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>[37.73488447 37.73488447 37.73488447 42.16448082 42.16448082 42.16448082
- 48.90276966 48.90276966 48.90276966 46.38475681 46.38475681 46.38475681
- 47.57409941 47.57409941 47.57409941 55.71373373 55.71373373 55.71373373
- 30.30153415 30.30153415 30.30153415 24.76461066 20.05730062 15.98783746
-  9.62045021  6.69483155  4.4320606   3.11989206  3.11989206  3.11989206]</t>
+          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+  8.65819263  8.65819263  8.65819263  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E654" t="inlineStr"/>
@@ -17276,11 +17276,11 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>[37.73488447 37.73488447 37.73488447 42.16448082 42.16448082 42.16448082
- 48.90276966 48.90276966 48.90276966 46.38475681 46.38475681 46.38475681
- 47.57409941 47.57409941 47.57409941 55.71373373 55.71373373 55.71373373
- 30.30153415 30.30153415 30.30153415 24.76461066 20.05730062 15.98783746
-  9.62045021  6.69483155  4.4320606   3.11989206  3.11989206  3.11989206]</t>
+          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+  8.65819263  8.65819263  8.65819263  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E655" t="inlineStr"/>
@@ -17303,12 +17303,11 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>[ 75.46976894  75.46976894  75.46976894  84.32896164  84.32896164
-  84.32896164  97.80553932  97.80553932  97.80553932  92.76951362
-  92.76951362  92.76951362  95.14819883  95.14819883  95.14819883
- 111.42746747 111.42746747 111.42746747  60.60306831  60.60306831
-  60.60306831  49.52922131  40.11460124  31.97567493  19.24090041
-  13.3896631    8.8641212    6.23978412   6.23978412   6.23978412]</t>
+          <t>[34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
+ 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
+ 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
+ 17.31638526 17.31638526 17.31638526 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -17331,36 +17330,36 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>[[-4.28542190e+07]
- [-4.09219068e+07]
- [-3.87522835e+07]
- [-3.78721412e+07]
- [-3.69873937e+07]
- [-3.60932817e+07]
- [-3.50676206e+07]
- [-3.40219443e+07]
- [-3.29499618e+07]
- [-3.18882140e+07]
- [-3.07842150e+07]
- [-2.96273794e+07]
- [-2.86153565e+07]
- [-2.77979673e+07]
- [-2.69802158e+07]
- [-2.65002048e+07]
- [-2.60201371e+07]
- [-2.55400179e+07]
- [-2.27498445e+07]
- [-2.09393879e+07]
- [-1.91273557e+07]
- [-1.68636244e+07]
- [-1.47512644e+07]
- [-1.27912946e+07]
- [-1.19334865e+07]
- [-1.11726434e+07]
- [-1.05091097e+07]
- [-1.00010424e+07]
- [-9.49348031e+06]
- [-1.33586582e-08]]</t>
+          <t>[[-3.09652187e+07]
+ [-2.87116398e+07]
+ [-2.62472096e+07]
+ [-2.56520138e+07]
+ [-2.50540385e+07]
+ [-2.44504056e+07]
+ [-2.38380371e+07]
+ [-2.32135443e+07]
+ [-2.25730975e+07]
+ [-2.19122628e+07]
+ [-2.12257847e+07]
+ [-2.05072773e+07]
+ [-1.98878096e+07]
+ [-1.93849917e+07]
+ [-1.88818992e+07]
+ [-1.86302759e+07]
+ [-1.83786104e+07]
+ [-1.81269069e+07]
+ [-1.61079287e+07]
+ [-1.50691118e+07]
+ [-1.40290970e+07]
+ [-1.31109498e+07]
+ [-1.21916074e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [-1.08266249e-08]]</t>
         </is>
       </c>
       <c r="E657" t="inlineStr"/>
@@ -17383,36 +17382,36 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>[[-3.89372781e+06]
- [-1.03977466e+07]
- [-1.11993654e+07]
- [ 2.93808618e+06]
- [ 2.93817344e+06]
- [ 2.93826265e+06]
- [ 2.93842999e+06]
- [ 2.93852520e+06]
- [ 2.93862693e+06]
- [ 2.93869934e+06]
- [ 2.93882250e+06]
- [ 2.93896114e+06]
- [ 2.93896056e+06]
- [ 2.93871583e+06]
- [ 2.93877208e+06]
- [ 2.93835680e+06]
- [ 2.93837031e+06]
- [ 2.93838365e+06]
- [ 2.94058536e+06]
- [ 2.94115757e+06]
- [ 2.94167151e+06]
- [ 2.94341741e+06]
- [ 2.94385781e+06]
- [ 2.94413298e+06]
- [ 2.94077714e+06]
- [ 2.94061660e+06]
- [ 2.94039016e+06]
- [ 2.93982225e+06]
- [ 2.93977914e+06]
- [ 1.98676839e+03]]</t>
+          <t>[[-8.00673899e+05]
+ [-6.44227771e+06]
+ [-1.80487117e+07]
+ [ 2.93825831e+06]
+ [ 2.93841166e+06]
+ [ 2.93856736e+06]
+ [ 2.93872775e+06]
+ [ 2.93889551e+06]
+ [ 2.93907375e+06]
+ [ 2.93926626e+06]
+ [ 2.93947774e+06]
+ [ 2.93971431e+06]
+ [ 2.93969923e+06]
+ [ 2.93933269e+06]
+ [ 2.93943596e+06]
+ [ 2.93861236e+06]
+ [ 2.93863717e+06]
+ [ 2.93866165e+06]
+ [ 2.94239166e+06]
+ [ 2.94369830e+06]
+ [ 2.94487118e+06]
+ [ 2.94550401e+06]
+ [ 2.94718935e+06]
+ [ 2.94845153e+06]
+ [ 2.94432108e+06]
+ [ 2.94399108e+06]
+ [ 2.94354601e+06]
+ [ 2.94141779e+06]
+ [ 2.94137768e+06]
+ [ 3.61237600e+03]]</t>
         </is>
       </c>
       <c r="E658" t="inlineStr"/>
@@ -17435,36 +17434,36 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[[-1.81895802e+04]
- [-4.90263532e+04]
- [-5.47362506e+04]
- [ 8.73988525e+03]
- [ 8.74029648e+03]
- [ 8.74071962e+03]
- [ 8.74151173e+03]
- [ 8.74196899e+03]
- [ 8.74246030e+03]
- [ 8.74281671e+03]
- [ 8.74341741e+03]
- [ 8.74409649e+03]
- [ 8.74411771e+03]
- [ 8.74296981e+03]
- [ 8.74325949e+03]
- [ 8.74127400e+03]
- [ 8.74134478e+03]
- [ 8.74141499e+03]
- [ 8.75221854e+03]
- [ 8.75538859e+03]
- [ 8.75838764e+03]
- [ 8.76819107e+03]
- [ 8.77193943e+03]
- [ 8.77544764e+03]
- [ 8.75708522e+03]
- [ 8.75748214e+03]
- [ 8.75799079e+03]
- [ 8.75624105e+03]
- [ 8.75917194e+03]
- [ 2.22977317e+01]]</t>
+          <t>[[-3.74921903e+03]
+ [-3.02922341e+04]
+ [-8.66827057e+04]
+ [ 8.74070449e+03]
+ [ 8.74143189e+03]
+ [ 8.74217524e+03]
+ [ 8.74294594e+03]
+ [ 8.74375698e+03]
+ [ 8.74462370e+03]
+ [ 8.74556482e+03]
+ [ 8.74660386e+03]
+ [ 8.74777133e+03]
+ [ 8.74773610e+03]
+ [ 8.74600138e+03]
+ [ 8.74653396e+03]
+ [ 8.74254887e+03]
+ [ 8.74267880e+03]
+ [ 8.74280774e+03]
+ [ 8.76137375e+03]
+ [ 8.76860686e+03]
+ [ 8.77544246e+03]
+ [ 8.78030165e+03]
+ [ 8.79205479e+03]
+ [ 8.80247011e+03]
+ [ 8.77963022e+03]
+ [ 8.77947369e+03]
+ [ 8.77920382e+03]
+ [ 8.76618155e+03]
+ [ 8.76781521e+03]
+ [ 3.03690254e+01]]</t>
         </is>
       </c>
       <c r="E659" t="inlineStr"/>
@@ -17487,36 +17486,36 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[[-1.95522768e+05]
- [-9.62842329e+05]
- [-1.98796094e+06]
- [-2.30657183e+06]
- [-2.27683797e+06]
- [-2.24700729e+06]
- [-2.21709525e+06]
- [-2.18711717e+06]
- [-2.15707992e+06]
- [-2.12698803e+06]
- [-2.09684599e+06]
- [-2.06666175e+06]
- [-2.03644496e+06]
- [-2.00619731e+06]
- [-1.97591655e+06]
- [-1.96077123e+06]
- [-1.94562336e+06]
- [-1.93047346e+06]
- [-1.82456921e+06]
- [-1.71806404e+06]
- [-1.61115813e+06]
- [-1.45777702e+06]
- [-1.30386369e+06]
- [-1.14958704e+06]
- [-1.05698455e+06]
- [-9.63975136e+05]
- [-8.70352636e+05]
- [-7.82227739e+05]
- [-6.93356199e+05]
- [-5.73798616e-04]]</t>
+          <t>[[-2.39955738e+04]
+ [-3.65849565e+05]
+ [-2.15734052e+06]
+ [-2.46135350e+06]
+ [-2.43129372e+06]
+ [-2.40105782e+06]
+ [-2.37065796e+06]
+ [-2.34010643e+06]
+ [-2.30941578e+06]
+ [-2.27859895e+06]
+ [-2.24766943e+06]
+ [-2.21664144e+06]
+ [-2.18553013e+06]
+ [-2.15433757e+06]
+ [-2.12306164e+06]
+ [-2.10740250e+06]
+ [-2.09172620e+06]
+ [-2.07603372e+06]
+ [-1.95912380e+06]
+ [-1.84001827e+06]
+ [-1.71923814e+06]
+ [-1.54306658e+06]
+ [-1.36249820e+06]
+ [-1.17900850e+06]
+ [-1.06827951e+06]
+ [-9.56864310e+05]
+ [-8.44525749e+05]
+ [-7.69153412e+05]
+ [-6.93367804e+05]
+ [-2.62203167e-04]]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
@@ -17539,36 +17538,36 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[[ 4.25670467e+07]
- [ 2.07947439e+08]
- [ 4.24023425e+08]
- [ 4.89242385e+08]
- [ 4.79318672e+08]
- [ 4.69374662e+08]
- [ 4.59413913e+08]
- [ 4.49439644e+08]
- [ 4.39453425e+08]
- [ 4.29456296e+08]
- [ 4.19449360e+08]
- [ 4.09434385e+08]
- [ 3.99413476e+08]
- [ 3.89387023e+08]
- [ 3.79354619e+08]
- [ 3.74337790e+08]
- [ 3.69320647e+08]
- [ 3.64303300e+08]
- [ 3.29281930e+08]
- [ 2.94159896e+08]
- [ 2.58980782e+08]
- [ 2.08644491e+08]
- [ 1.58279155e+08]
- [ 1.07938369e+08]
- [ 7.77854686e+07]
- [ 4.76364588e+07]
- [ 1.74967640e+07]
- [-1.06066420e+07]
- [-3.86561970e+07]
- [ 5.11256706e-02]]</t>
+          <t>[[ 5.16120684e+06]
+ [ 7.86871684e+07]
+ [ 4.57247547e+08]
+ [ 5.18761853e+08]
+ [ 5.08769748e+08]
+ [ 4.98740897e+08]
+ [ 4.88678138e+08]
+ [ 4.78584315e+08]
+ [ 4.68462307e+08]
+ [ 4.58315050e+08]
+ [ 4.48145565e+08]
+ [ 4.37957003e+08]
+ [ 4.27752679e+08]
+ [ 4.17533165e+08]
+ [ 4.07298174e+08]
+ [ 4.02176993e+08]
+ [ 3.97052751e+08]
+ [ 3.91925665e+08]
+ [ 3.53888516e+08]
+ [ 3.15466645e+08]
+ [ 2.76776534e+08]
+ [ 2.20969448e+08]
+ [ 1.64594096e+08]
+ [ 1.07970038e+08]
+ [ 7.40316377e+07]
+ [ 4.01256780e+07]
+ [ 6.27832494e+06]
+ [-1.62166003e+07]
+ [-3.86423339e+07]
+ [ 3.11868929e-02]]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
@@ -17591,36 +17590,36 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[[ 977980.43174478]
- [2158986.69291999]
- [3788206.71760401]
- [6203738.61984625]
- [6203714.25993186]
- [6203689.77275204]
- [6203525.41329236]
- [6203500.99505019]
- [6203476.10049714]
- [6203493.87393293]
- [6203467.20175908]
- [6203439.46843739]
- [6203391.50794151]
- [6203366.73133319]
- [6203346.71994306]
- [6203228.63030041]
- [6203218.62388098]
- [6203208.61631114]
- [6203615.70547657]
- [6203545.73908957]
- [6203475.73885923]
- [6203513.43935929]
- [6203467.54658978]
- [6203422.20585614]
- [6203568.44400462]
- [6203616.0723543 ]
- [6203686.59896396]
- [6203837.9376874 ]
- [6203781.28151446]
- [      0.        ]]</t>
+          <t>[[ 8.08324956e+05]
+ [ 1.86540065e+06]
+ [ 3.49654247e+06]
+ [ 6.20371093e+06]
+ [ 6.20368722e+06]
+ [ 6.20366340e+06]
+ [ 6.20363935e+06]
+ [ 6.20361496e+06]
+ [ 6.20359008e+06]
+ [ 6.20356457e+06]
+ [ 6.20353825e+06]
+ [ 6.20351090e+06]
+ [ 6.20348228e+06]
+ [ 6.20345761e+06]
+ [ 6.20343758e+06]
+ [ 6.20341754e+06]
+ [ 6.20340752e+06]
+ [ 6.20339750e+06]
+ [ 6.20389237e+06]
+ [ 6.20381806e+06]
+ [ 6.20374372e+06]
+ [ 6.20430327e+06]
+ [ 6.20419606e+06]
+ [ 6.20408872e+06]
+ [ 6.20403864e+06]
+ [ 6.20409912e+06]
+ [ 6.20417906e+06]
+ [ 6.20419510e+06]
+ [ 6.20415192e+06]
+ [-1.09629702e-08]]</t>
         </is>
       </c>
       <c r="E662" t="inlineStr"/>
@@ -17662,17 +17661,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -17719,7 +17718,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>[40682.04562332]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E665" t="inlineStr"/>
@@ -18271,7 +18270,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[117977.93230762]</t>
+          <t>[117992.08572713]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18294,7 +18293,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[209392.02038664]</t>
+          <t>[209453.42241018]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18317,7 +18316,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[25227.95426345]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18455,7 +18454,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>[41458.177152]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E697" t="inlineStr"/>
@@ -18478,7 +18477,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[708934.8292992]</t>
+          <t>[709171.2]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18616,7 +18615,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[9681293.55277508]</t>
+          <t>[9681605.47891894]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18639,7 +18638,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[654746.91928556]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18662,7 +18661,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[4014381.42942866]</t>
+          <t>[2273486.79279381]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18685,7 +18684,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[1570516.20439638]</t>
+          <t>[817557.70130116]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18708,7 +18707,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[17295416.01981323]</t>
+          <t>[15554833.30932223]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18731,7 +18730,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>[1153.02773465]</t>
+          <t>[1036.98888729]</t>
         </is>
       </c>
       <c r="E709" t="inlineStr"/>
@@ -18754,7 +18753,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[2518911.42930409]</t>
+          <t>[1765979.02738052]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18823,7 +18822,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[4014381.42942866]</t>
+          <t>[2273486.79279381]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
@@ -18846,7 +18845,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[4014381.42942866]</t>
+          <t>[2273486.79279381]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
@@ -18896,7 +18895,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.298369]</t>
+          <t>[0.16913383]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr"/>
@@ -19018,9 +19017,9 @@
       <c r="D720" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -19044,9 +19043,9 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1409.857905
- 1377.76078408 1326.64065493 1208.89268927 1087.8847062   962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -19115,9 +19114,9 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E724" t="inlineStr"/>
@@ -19140,9 +19139,9 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E725" t="inlineStr"/>
@@ -19188,9 +19187,9 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E727" t="inlineStr"/>
@@ -19259,8 +19258,8 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -19284,9 +19283,9 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.28126372  9.56252744
-  8.84379117  7.89552744  6.94726372  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -19355,8 +19354,8 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>[0.         0.08158508 0.16317016 0.24475524 0.36130536 0.47785548
- 0.59440559 0.66433566 0.73426573 0.8041958  0.86946387 0.93473193
+          <t>[0.         0.08641975 0.17283951 0.25925926 0.38271605 0.50617284
+ 0.62962963 0.7037037  0.77777778 0.85185185 0.90123457 0.95061728
  1.        ]</t>
         </is>
       </c>
@@ -19380,9 +19379,9 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1409.857905
- 1377.76078408 1326.64065493 1208.89268927 1087.8847062   962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
@@ -19451,9 +19450,9 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -19522,10 +19521,10 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>[-1047.13901865 -1206.50664157 -1321.22751075 -1413.18261726
- -1409.857905   -1377.76078408 -1326.64065493 -1208.89268927
- -1087.8847062   -962.19898835  -978.02680667  -993.06340443
- -1007.39507288]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E741" t="inlineStr"/>
@@ -19548,9 +19547,9 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E742" t="inlineStr"/>
@@ -19573,9 +19572,9 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[  0.          11.61331002  23.22662005  34.83993007  51.43037296
-  68.02081585  84.61125874  94.56552448 104.51979021 114.47405594
- 123.76470396 133.05535198 142.346     ]</t>
+          <t>[  0.          12.30150617  24.60301235  36.90451852  54.47809877
+  72.05167901  89.62525926 100.16940741 110.71355556 121.2577037
+ 128.2871358  135.3165679  142.346     ]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr"/>
@@ -19598,8 +19597,8 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[0.055      0.055      0.055      0.04960948 0.04960948 0.04960948
- 0.03960948 0.03960948 0.03960948 0.035      0.035      0.035     ]</t>
+          <t>[0.0408672 0.0408672 0.0408672 0.025     0.025     0.025     0.025
+ 0.025     0.025     0.025     0.025     0.025    ]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19740,8 +19739,8 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[2.02354145 2.02354145 2.02354145 1.766185   1.64632676 1.52646853
- 1.10912467 0.9828658  0.85660693 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.09338794 1.09338794 1.09338794 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19764,8 +19763,8 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.00434483 0.93633145 0.86831846
- 0.63072627 0.55908108 0.48743676 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -19788,8 +19787,8 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.00434483 0.93633145 0.86831846
- 0.63072627 0.55908108 0.48743676 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E752" t="inlineStr"/>
@@ -19812,8 +19811,8 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 24.76461066 20.05730062 15.98783746
-  9.62045021  6.69483155  4.4320606   3.11989206  3.11989206  3.11989206]</t>
+          <t>[8.65819263 8.65819263 8.65819263 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E753" t="inlineStr"/>
@@ -19836,8 +19835,8 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 24.76461066 20.05730062 15.98783746
-  9.62045021  6.69483155  4.4320606   3.11989206  3.11989206  3.11989206]</t>
+          <t>[8.65819263 8.65819263 8.65819263 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr"/>
@@ -19860,8 +19859,8 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[60.60306831 60.60306831 60.60306831 49.52922131 40.11460124 31.97567493
- 19.24090041 13.3896631   8.8641212   6.23978412  6.23978412  6.23978412]</t>
+          <t>[17.31638526 17.31638526 17.31638526 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr"/>
@@ -19955,8 +19954,8 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+          <t>[12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E759" t="inlineStr"/>
@@ -19979,18 +19978,18 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[[-22748909.48795525]
- [-20936877.28897275]
- [-19123656.99455465]
- [-16859197.78302836]
- [-14747128.72194711]
- [-12787842.32006797]
- [-11930866.31540746]
- [-11171199.60616048]
- [-10508881.44745224]
- [-10001319.38229697]
- [ -9493615.37584774]
- [ -8985776.3084463 ]]</t>
+          <t>[[-16111494.81071107]
+ [-15071480.00474904]
+ [-14030584.74683795]
+ [-13111242.26497846]
+ [-12190728.92008964]
+ [-11269230.46898925]
+ [-10739039.70396252]
+ [-10254835.9241617 ]
+ [ -9816667.5003503 ]
+ [ -9539868.15269817]
+ [ -9262989.54291176]
+ [ -8986034.52447547]]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr"/>
@@ -20013,18 +20012,18 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>[[2938067.973096  ]
- [2938680.67204584]
- [2939234.33521935]
- [2940446.5328827 ]
- [2941184.99468239]
- [2941772.09594494]
- [2939802.17782414]
- [2939815.22968643]
- [2939775.26978221]
- [2939443.5243337 ]
- [2939508.89182458]
- [2939468.56159599]]</t>
+          <t>[[2938463.72332601]
+ [2939814.74745798]
+ [2941031.28506405]
+ [2942195.89024553]
+ [2944002.01228332]
+ [2945394.88464255]
+ [2942626.12713033]
+ [2942494.5039313 ]
+ [2942268.52543965]
+ [2940665.74392494]
+ [2940678.35992624]
+ [2940642.95298668]]</t>
         </is>
       </c>
       <c r="E761" t="inlineStr"/>
@@ -20047,18 +20046,18 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[[8739.95490456]
- [8743.23772811]
- [8746.34562628]
- [8753.36168658]
- [8758.39227252]
- [8763.2347739 ]
- [8751.91428469]
- [8753.0840879 ]
- [8754.41033133]
- [8753.78753683]
- [8757.08070948]
- [8760.04218808]]</t>
+          <t>[[8742.04907309]
+ [8749.36404164]
+ [8756.27723715]
+ [8763.58666766]
+ [8775.65816345]
+ [8786.44119102]
+ [8770.58257801]
+ [8771.33202658]
+ [8772.07085768]
+ [8761.86193587]
+ [8763.695678  ]
+ [8765.36981126]]</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -20081,18 +20080,18 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>[[-1889563.41829822]
- [-1786606.37895046]
- [-1682934.4582452 ]
- [-1533713.91822832]
- [-1383389.64711039]
- [-1232162.19855971]
- [-1141091.60208434]
- [-1049448.75698289]
- [ -957016.68631121]
- [ -869825.80031904]
- [ -781721.5975282 ]
- [ -692941.93337508]]</t>
+          <t>[[-1978549.18625065]
+ [-1866789.93758551]
+ [-1752846.876812  ]
+ [-1585668.18892599]
+ [-1413343.06083119]
+ [-1237341.05132165]
+ [-1130671.73370642]
+ [-1023033.75151866]
+ [ -914176.32439497]
+ [ -840938.9654225 ]
+ [ -767152.3898034 ]
+ [ -692940.93608826]]</t>
         </is>
       </c>
       <c r="E763" t="inlineStr"/>
@@ -20115,18 +20114,18 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>[[ 3.52652494e+08]
- [ 3.18253714e+08]
- [ 2.83729096e+08]
- [ 2.34226306e+08]
- [ 1.84569069e+08]
- [ 1.34817747e+08]
- [ 1.04953709e+08]
- [ 7.50539646e+07]
- [ 4.51191346e+07]
- [ 1.71602673e+07]
- [-1.07901877e+07]
- [-3.86931091e+07]]</t>
+          <t>[[ 3.65412996e+08]
+ [ 3.28473677e+08]
+ [ 2.91153345e+08]
+ [ 2.37125775e+08]
+ [ 1.82352178e+08]
+ [ 1.27155151e+08]
+ [ 9.39770229e+07]
+ [ 6.07663004e+07]
+ [ 2.75437914e+07]
+ [ 5.42130149e+06]
+ [-1.66652620e+07]
+ [-3.86931098e+07]]</t>
         </is>
       </c>
       <c r="E764" t="inlineStr"/>
@@ -20149,18 +20148,18 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>[[6203615.7047472 ]
- [6203545.70293789]
- [6203475.64178853]
- [6203513.27551209]
- [6203467.3362268 ]
- [6203421.9938881 ]
- [6203568.20047201]
- [6203615.86377111]
- [6203686.46708846]
- [6203837.91223762]
- [6203781.31240357]
- [6203724.69777438]]</t>
+          <t>[[6203892.65774366]
+ [6203818.31535935]
+ [6203743.88903231]
+ [6204303.44743804]
+ [6204196.09794963]
+ [6204088.61546411]
+ [6204038.41657646]
+ [6204098.8856325 ]
+ [6204178.92503671]
+ [6204195.08666501]
+ [6204151.94768982]
+ [6204108.79696184]]</t>
         </is>
       </c>
       <c r="E765" t="inlineStr"/>
@@ -20184,17 +20183,17 @@
       <c r="D766" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -20219,17 +20218,17 @@
       <c r="D767" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -20253,7 +20252,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E768" t="inlineStr"/>
@@ -20276,8 +20275,8 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -20300,7 +20299,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -20325,7 +20324,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -20348,9 +20347,9 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E772" t="inlineStr"/>
@@ -20443,19 +20442,19 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>[[-1047.13901865]
- [-1206.50664157]
- [-1321.22751075]
- [-1413.18261726]
- [-1409.857905  ]
- [-1377.76078408]
- [-1326.64065493]
- [-1208.89268927]
- [-1087.8847062 ]
- [ -962.19898835]
- [ -978.02680667]
- [ -993.06340443]
- [-1007.39507288]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E775" t="inlineStr"/>
@@ -20478,7 +20477,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[1570516.20439638]</t>
+          <t>[817557.70130116]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -20501,7 +20500,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[56.87990255]</t>
+          <t>[60.26451136]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -20524,7 +20523,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[7.35058974e+09 7.35058974e+09 3.68190194e+07 0.00000000e+00
+          <t>[4.35054766e+09 4.35054766e+09 1.18991375e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20548,7 +20547,8 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -20571,7 +20571,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[0.06875    0.07699366 0.08960645 0.08488289 0.08711244 0.10244555]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -20590,7 +20590,7 @@
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[0.         0.4        0.53333333 0.66666667 0.8        0.93333333
+          <t>[0.         0.5        0.61111111 0.72222222 0.83333333 0.94444444
  1.        ]</t>
         </is>
       </c>
@@ -20614,7 +20614,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[75.]</t>
+          <t>[90.]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20637,7 +20637,8 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213]</t>
         </is>
       </c>
       <c r="E783" t="inlineStr"/>
@@ -20660,7 +20661,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>[0.06875    0.07699366 0.08960645 0.08488289 0.08711244 0.10244555]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E784" t="inlineStr"/>
@@ -20813,7 +20814,7 @@
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[0.         0.4        0.53333333 0.66666667 0.8        0.93333333
+          <t>[0.         0.5        0.61111111 0.72222222 0.83333333 0.94444444
  1.        ]</t>
         </is>
       </c>
@@ -20833,7 +20834,7 @@
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[0.4]</t>
+          <t>[0.5]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20899,7 +20900,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>[1706530.17249189]</t>
+          <t>[1378851.63079456]</t>
         </is>
       </c>
       <c r="E795" t="inlineStr"/>
@@ -20922,7 +20923,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>[4153071.07128612]</t>
+          <t>[3398313.75351104]</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
@@ -20945,7 +20946,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>[40.01910449]</t>
+          <t>[45.]</t>
         </is>
       </c>
       <c r="E797" t="inlineStr"/>
@@ -20968,7 +20969,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[3.55762879e+09 3.55762879e+09 5.08696698e+07 0.00000000e+00
+          <t>[3.73490975e+09 3.73490975e+09 2.40206942e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20992,7 +20993,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[1570516.20439638]</t>
+          <t>[817557.70130116]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -21015,7 +21016,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>[4014381.42942866]</t>
+          <t>[2273486.79279381]</t>
         </is>
       </c>
       <c r="E800" t="inlineStr"/>
@@ -21038,7 +21039,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>[75.]</t>
+          <t>[90.]</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -21084,7 +21085,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>[-60.]</t>
+          <t>[-75.]</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -21107,7 +21108,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.41735213]</t>
         </is>
       </c>
       <c r="E804" t="inlineStr"/>
@@ -22822,7 +22823,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[11.         11.          8.84379117  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -22845,7 +22846,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[0.055      0.04960948 0.03960948 0.035     ]</t>
+          <t>[0.0408672 0.025     0.025     0.025    ]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -22864,7 +22865,7 @@
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -22910,7 +22911,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[11.         11.          8.84379117  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -22933,7 +22934,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[0.055      0.04960948 0.03960948 0.035     ]</t>
+          <t>[0.0408672 0.025     0.025     0.025    ]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -23086,7 +23087,7 @@
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E852" t="inlineStr"/>
@@ -24264,9 +24265,9 @@
       <c r="D886" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -24526,7 +24527,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>[0.00718846]</t>
+          <t>[0.00718672]</t>
         </is>
       </c>
       <c r="E897" t="inlineStr"/>
@@ -24618,7 +24619,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>[0.02944534]</t>
+          <t>[0.02944651]</t>
         </is>
       </c>
       <c r="E901" t="inlineStr"/>
@@ -25252,7 +25253,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E929" t="inlineStr"/>
@@ -25275,7 +25276,7 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E930" t="inlineStr"/>
@@ -27122,7 +27123,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[0.     4.8745 1.875 ]</t>
+          <t>[0.    4.875 1.875]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27191,7 +27192,7 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>[ 0.     -4.8745  1.875 ]</t>
+          <t>[ 0.    -4.875  1.875]</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr"/>
@@ -27237,7 +27238,7 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>[25227.95426345]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr"/>
@@ -27306,7 +27307,7 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>[33949.45548704]</t>
+          <t>[33954.33597653]</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr"/>
@@ -27329,7 +27330,7 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>[-0.88537221  0.          2.40318707]</t>
+          <t>[-0.88533715  0.          2.40314516]</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr"/>
@@ -27352,8 +27353,8 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>[388014.25589214 426867.9023198  247893.0889835       0.
-  87517.08492439      0.        ]</t>
+          <t>[388100.94902959 426951.50388173 247988.45095814      0.
+  87515.58729723      0.        ]</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
@@ -27445,7 +27446,7 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>[41458.177152]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E1024" t="inlineStr"/>
@@ -27491,7 +27492,7 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>[497337.83469174 497337.83469174 994664.61386957]</t>
+          <t>[497669.5296 497669.5296 995328.    ]</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr"/>
@@ -27677,8 +27678,8 @@
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>[-2.9995     -3.00741147 -3.03098483 -3.06974018 -3.12288859 -3.18934811
- -3.2677658  -3.35654532 -3.45387936 -3.55778649 -3.66615146 -3.77676827]</t>
+          <t>[-3.         -3.00790638 -3.03146457 -3.070195   -3.12330922 -3.18972598
+ -3.26809323 -3.35681564 -3.45408707 -3.55792736 -3.66622262 -3.77676827]</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr"/>
@@ -27725,8 +27726,8 @@
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>[ 2.9995      2.93052736  2.72501352  2.38714216  1.92379135  1.34439359
-  0.66074374 -0.11324105 -0.9618047  -1.86767288 -2.81240475 -3.77676827]</t>
+          <t>[ 3.          2.93102227  2.72549327  2.38759697  1.92421198  1.34477147
+  0.66107117 -0.11297073 -0.96159699 -1.86753202 -2.81233359 -3.77676827]</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr"/>
@@ -27773,8 +27774,8 @@
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>[5.999      5.9461874  5.78927314 5.53288369 5.18494688 4.75714325
- 4.26586323 3.73421034 3.19612251 2.70412972 2.3389862  2.2       ]</t>
+          <t>[6.         5.94717584 5.79022711 5.53378083 5.1857657  4.75786351
+ 4.26646632 3.73467992 3.19644643 2.70430582 2.33903815 2.2       ]</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr"/>
@@ -27989,7 +27990,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>[136801.54355707]</t>
+          <t>[136822.76423923]</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr"/>
@@ -28127,7 +28128,7 @@
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>[654746.91928556]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr"/>
@@ -28150,7 +28151,7 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[-3.85552185 -0.13885522  4.08556732]</t>
+          <t>[-3.85537294 -0.13886393  4.08542019]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28173,8 +28174,8 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>[2.01661599e+07 2.92791485e+07 1.79410345e+07 5.41253411e+02
- 1.20568495e+07 1.69892134e+05]</t>
+          <t>[2.01667992e+07 2.92795715e+07 1.79419955e+07 5.41567843e+02
+ 1.20568466e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1055" t="inlineStr"/>
@@ -30723,7 +30724,7 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[0.08704968]</t>
+          <t>[0.08469744]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30800,7 +30801,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[-209.46069732]</t>
+          <t>[-198.98873973]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30827,7 +30828,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[-0.04704968]</t>
+          <t>[-0.04469744]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30854,7 +30855,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[0.11804968]</t>
+          <t>[0.11569744]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -30877,7 +30878,7 @@
       <c r="C1136" t="inlineStr"/>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>[0.45950772]</t>
+          <t>[0.4722693]</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -30900,7 +30901,7 @@
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>[2.176242]</t>
+          <t>[2.11743595]</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -30923,7 +30924,7 @@
       <c r="C1138" t="inlineStr"/>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>[-0.54049228]</t>
+          <t>[-0.5277307]</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
@@ -30946,7 +30947,7 @@
       <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>[-1.176242]</t>
+          <t>[-1.11743595]</t>
         </is>
       </c>
       <c r="E1139" t="inlineStr">
@@ -30973,7 +30974,7 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>[0.15451318]</t>
+          <t>[0.15033795]</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
@@ -31000,7 +31001,7 @@
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>[6.74257176e+08]</t>
+          <t>[6.31680939e+08]</t>
         </is>
       </c>
       <c r="E1141" t="inlineStr">
@@ -31027,7 +31028,7 @@
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>[1.99250718e+09]</t>
+          <t>[1.94993094e+09]</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
@@ -31054,7 +31055,7 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>[3320.84529318]</t>
+          <t>[3249.8848979]</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
@@ -31081,7 +31082,7 @@
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>[9597.71865355]</t>
+          <t>[8497.64798688]</t>
         </is>
       </c>
       <c r="E1144" t="inlineStr">
@@ -31108,7 +31109,7 @@
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>[2.26974107e+08]</t>
+          <t>[2.16495363e+08]</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr">
@@ -31135,11 +31136,11 @@
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          47941.642397
-  48633.63313747  50732.65247576  54309.05199929  59484.44671607
-  66439.48953108  75427.53761774  86797.83218348 101034.29313054
- 118820.05963849    729.034078      860.2225698     948.63159706
-    984.81958944   1017.40298746   1047.13901865]</t>
+          <t>[    0.             0.             0.         28397.48972612
+ 28814.94210294 30082.00382747 32243.77801283 35376.3600571
+ 39591.79945657 45045.46940651 51948.16151303 60586.86438209
+ 71359.80288097   562.90161344   662.91551967   729.32177147
+   756.28312431   780.45299216   802.42503738]</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr"/>
@@ -31389,11 +31390,11 @@
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          47941.642397
-  48633.63313747  50732.65247576  54309.05199929  59484.44671607
-  66439.48953108  75427.53761774  86797.83218348 101034.29313054
- 118820.05963849      0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         28397.48972612
+ 28814.94210294 30082.00382747 32243.77801283 35376.3600571
+ 39591.79945657 45045.46940651 51948.16151303 60586.86438209
+ 71359.80288097     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E1156" t="inlineStr"/>
@@ -31515,7 +31516,7 @@
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>[-60.         -50.         -40.         -30.         -26.66666667
+          <t>[-75.         -60.         -45.         -30.         -26.66666667
  -23.33333333 -20.         -16.66666667 -13.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -31590,10 +31591,10 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          729.034078    860.2225698
-  948.63159706  984.81958944 1017.40298746 1047.13901865]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         562.90161344 662.91551967
+ 729.32177147 756.28312431 780.45299216 802.42503738]</t>
         </is>
       </c>
       <c r="E1164" t="inlineStr"/>
@@ -31688,7 +31689,7 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>[-60.         -50.         -40.         -30.         -26.66666667
+          <t>[-75.         -60.         -45.         -30.         -26.66666667
  -23.33333333 -20.         -16.66666667 -13.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -31783,11 +31784,11 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -47941.642397
-  -48633.63313747  -50732.65247576  -54309.05199929  -59484.44671607
-  -66439.48953108  -75427.53761774  -86797.83218348 -101034.29313054
- -118820.05963849    -729.034078      -860.2225698     -948.63159706
-    -984.81958944   -1017.40298746   -1047.13901865]</t>
+          <t>[     0.              0.              0.         -28397.48972612
+ -28814.94210294 -30082.00382747 -32243.77801283 -35376.3600571
+ -39591.79945657 -45045.46940651 -51948.16151303 -60586.86438209
+ -71359.80288097   -562.90161344   -662.91551967   -729.32177147
+   -756.28312431   -780.45299216   -802.42503738]</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr"/>
@@ -31837,11 +31838,11 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          3.33333333  3.33333333  3.33333333
+          <t>[15.         15.         15.          3.33333333  3.33333333  3.33333333
   3.33333333  3.33333333  3.33333333  3.33333333  3.33333333  3.33333333
   3.33333333  3.33333333  3.33333333  1.66666667  1.66666667  1.66666667
- 11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+ 12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E1174" t="inlineStr"/>
@@ -31864,7 +31865,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>[0.23079515]</t>
+          <t>[0.13687984]</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr"/>
@@ -31887,7 +31888,7 @@
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>[0.23199567]</t>
+          <t>[0.13761221]</t>
         </is>
       </c>
       <c r="E1176" t="inlineStr"/>
@@ -31910,7 +31911,7 @@
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>[0.23079515 0.23199567 0.96517648 0.969688   1.05948206 1.95144687]</t>
+          <t>[0.13687984 0.13761221 0.66790162 0.79474169 0.87997539 1.61736209]</t>
         </is>
       </c>
       <c r="E1177" t="inlineStr"/>
@@ -31933,7 +31934,7 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>[0.23199567 1.05948206 2.09591487]</t>
+          <t>[0.13761221 0.87997539 1.7247243 ]</t>
         </is>
       </c>
       <c r="E1178" t="inlineStr"/>
@@ -31956,7 +31957,7 @@
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>[0.23079515 0.96517648 1.95144687]</t>
+          <t>[0.13687984 0.79474169 1.61736209]</t>
         </is>
       </c>
       <c r="E1179" t="inlineStr"/>
@@ -31979,7 +31980,7 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>[4.67134521 0.         0.        ]</t>
+          <t>[3.97476359 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1180" t="inlineStr"/>
@@ -31998,9 +31999,9 @@
       <c r="C1181" t="inlineStr"/>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>[[ 1.03125269  0.45456577 -1.99158476  2.54782708 -1.04206079]
- [-2.71020686  1.49678448  4.58136644 -5.38501524  3.01707117]
- [-5.27775877  6.9330874  11.69365774 -7.36391052 -4.98507585]]</t>
+          <t>[[  0.68422199   0.86427992  -0.989164     0.91038996  -0.46972786]
+ [ -3.95078009  -2.0351563   16.89395683 -14.78106927   4.87304884]
+ [ -6.43686684   1.53550817  40.19055285 -46.92513745  12.63594327]]</t>
         </is>
       </c>
       <c r="E1181" t="inlineStr"/>
@@ -32019,9 +32020,9 @@
       <c r="C1182" t="inlineStr"/>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>[[ 1.02294116  0.45440278 -1.97095255  2.51077681 -1.0171682 ]
- [-2.73806221  1.30755602  4.98791666 -6.71311597  4.1557055 ]
- [-4.63609623  5.65342146  8.60719828 -3.38738445 -5.23713905]]</t>
+          <t>[[  0.68004431   0.86072931  -0.97566721   0.89703837  -0.46214478]
+ [ -4.01617866  -2.28690853  16.55842736 -14.57287957   5.3175394 ]
+ [ -5.92921723   0.73383456  35.33183191 -38.95875721   9.82230796]]</t>
         </is>
       </c>
       <c r="E1182" t="inlineStr"/>
@@ -32040,7 +32041,7 @@
       <c r="C1183" t="inlineStr"/>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>[[-10.31791279  25.07578526 -30.23693407  32.83998643 -16.36092484]
+          <t>[[ -0.55513893   1.3574558    8.41006137 -13.64615661   5.43377836]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -32061,12 +32062,9 @@
       <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>[[ 1.08354870e+00  6.41264880e-02 -6.10618753e-01  6.82700518e-01
-  -2.19756957e-01]
- [-4.26869591e+01  1.13541551e+01  6.98281255e+01 -6.07465384e+01
-   2.32512170e+01]
- [-7.75894101e-01  6.88418385e-01  3.57615626e+00 -2.83396589e+00
-   3.45285350e-01]]</t>
+          <t>[[  0.83572988   0.16891276   0.10723582  -0.14510074   0.03322229]
+ [  7.54106082   0.66204516 -14.9025264   10.48896552  -2.78954511]
+ [ -1.38367412   0.29589939   6.80046079  -6.2276605    1.51497444]]</t>
         </is>
       </c>
       <c r="E1184" t="inlineStr"/>
@@ -32085,9 +32083,9 @@
       <c r="C1185" t="inlineStr"/>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>[[  1.08049187   0.06506355  -0.60540415   0.67489605  -0.21504733]
- [ 17.40839879  -4.19639013 -26.75278009  25.22679361 -10.68602217]
- [ -0.95514432   0.69924848   3.67827381  -2.68692691   0.26454894]]</t>
+          <t>[[ 0.83354937  0.16870445  0.11145192 -0.14815778  0.03445204]
+ [ 5.05980313  0.5039666  -9.11685011  6.34065439 -1.78757401]
+ [-1.71467176  0.25170911  7.48734726 -6.5822461   1.55786149]]</t>
         </is>
       </c>
       <c r="E1185" t="inlineStr"/>
@@ -32106,7 +32104,7 @@
       <c r="C1186" t="inlineStr"/>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>[[-2.35607898  3.21483696  1.09775127 -0.85982426 -0.09668499]
+          <t>[[ 0.15812078  0.30356508  2.74992395 -3.16074678  0.94913697]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -32131,37 +32129,37 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>[[1.72556586e-04]
- [3.98045315e-04]
- [7.92850097e-05]
- [3.63385530e-03]
- [6.45697533e-03]
- [9.92489379e-03]
- [1.40245227e-02]
- [1.86894810e-02]
- [2.38764487e-02]
- [2.95740842e-02]
- [3.57882155e-02]
- [4.25167872e-02]
- [4.97478016e-02]
- [5.74613531e-02]
- [6.56413718e-02]
- [7.42761519e-02]
- [7.87471702e-02]
- [8.33115105e-02]
- [8.79679213e-02]
- [1.24833216e-01]
- [1.69027653e-01]
- [2.19769242e-01]
- [3.03372494e-01]
- [3.99869049e-01]
- [5.08515955e-01]
- [5.79610190e-01]
- [6.55550229e-01]
- [7.35826236e-01]
- [8.12910346e-01]
- [8.88527348e-01]
- [9.61234493e-01]]</t>
+          <t>[[2.58371675e-05]
+ [2.60563992e-04]
+ [9.42579833e-04]
+ [7.04960608e-03]
+ [1.31507591e-02]
+ [2.09368912e-02]
+ [3.03755247e-02]
+ [4.14340630e-02]
+ [5.40797992e-02]
+ [6.82799251e-02]
+ [8.40015405e-02]
+ [1.01211662e-01]
+ [1.19877234e-01]
+ [1.39965134e-01]
+ [1.61442222e-01]
+ [1.84275314e-01]
+ [1.96189954e-01]
+ [2.08431120e-01]
+ [2.20994651e-01]
+ [3.31822324e-01]
+ [4.73582429e-01]
+ [6.42916029e-01]
+ [9.41055598e-01]
+ [1.30324705e+00]
+ [1.71315092e+00]
+ [1.97590492e+00]
+ [2.24872309e+00]
+ [2.52872608e+00]
+ [2.71661176e+00]
+ [2.90270809e+00]
+ [3.08609990e+00]]</t>
         </is>
       </c>
       <c r="E1187" t="inlineStr"/>
@@ -32184,7 +32182,7 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>[0.96123449]</t>
+          <t>[3.0860999]</t>
         </is>
       </c>
       <c r="E1188" t="inlineStr"/>
@@ -32207,24 +32205,24 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>[[-42854218.99185704]
- [-40921906.80953157]
- [-38752283.51525653]
- [-37872141.18192104]
- [-36987393.68576173]
- [-36093281.74364405]
- [-35067620.62781902]
- [-34021944.29040791]
- [-32949961.84868949]
- [-31888214.00683503]
- [-30784215.0280906 ]
- [-29627379.36339083]
- [-28615356.47575979]
- [-27797967.3166277 ]
- [-26980215.82136762]
- [-26500204.81906645]
- [-26020137.08029054]
- [-25540017.92806355]]</t>
+          <t>[[-30965218.73083317]
+ [-28711639.8385003 ]
+ [-26247209.57576079]
+ [-25652013.75873311]
+ [-25054038.49096441]
+ [-24450405.64398045]
+ [-23838037.104154  ]
+ [-23213544.33872145]
+ [-22573097.54305052]
+ [-21912262.75470563]
+ [-21225784.65930941]
+ [-20507277.3444542 ]
+ [-19887809.57660537]
+ [-19384991.66894834]
+ [-18881899.16802145]
+ [-18630275.88922653]
+ [-18378610.42727201]
+ [-18126906.89819442]]</t>
         </is>
       </c>
       <c r="E1189" t="inlineStr"/>
@@ -32247,24 +32245,24 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>[[ -3893727.80776023]
- [-10397746.58694787]
- [-11199365.4285547 ]
- [  2938086.17782361]
- [  2938173.44266901]
- [  2938262.64588079]
- [  2938429.98854295]
- [  2938525.19905948]
- [  2938626.92709098]
- [  2938699.34373674]
- [  2938822.49677668]
- [  2938961.1352614 ]
- [  2938960.56403688]
- [  2938715.8261874 ]
- [  2938772.08408545]
- [  2938356.79611971]
- [  2938370.31459074]
- [  2938383.64826998]]</t>
+          <t>[[  -800673.89879163]
+ [ -6442277.71017441]
+ [-18048711.70577127]
+ [  2938258.31227902]
+ [  2938411.66391886]
+ [  2938567.35562391]
+ [  2938727.75049549]
+ [  2938895.51011297]
+ [  2939073.75317491]
+ [  2939266.25687064]
+ [  2939477.74149746]
+ [  2939714.30695847]
+ [  2939699.23412012]
+ [  2939332.68541785]
+ [  2939435.96317856]
+ [  2938612.36118557]
+ [  2938637.16907734]
+ [  2938661.65485856]]</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
@@ -32287,24 +32285,24 @@
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>[[-18189.58016132]
- [-49026.35321658]
- [-54736.25063864]
- [  8739.88525334]
- [  8740.29647729]
- [  8740.71961596]
- [  8741.51173045]
- [  8741.96899068]
- [  8742.46029695]
- [  8742.81671215]
- [  8743.41740746]
- [  8744.09649197]
- [  8744.11770812]
- [  8742.96980786]
- [  8743.25948682]
- [  8741.27400276]
- [  8741.34478038]
- [  8741.41499293]]</t>
+          <t>[[ -3749.21902964]
+ [-30292.23409467]
+ [-86682.70570861]
+ [  8740.70449321]
+ [  8741.43188953]
+ [  8742.17523558]
+ [  8742.94593688]
+ [  8743.75697556]
+ [  8744.62369699]
+ [  8745.56481815]
+ [  8746.60385813]
+ [  8747.7713321 ]
+ [  8747.73610282]
+ [  8746.00138366]
+ [  8746.53395774]
+ [  8742.54886572]
+ [  8742.67880225]
+ [  8742.80774177]]</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
@@ -32327,24 +32325,24 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>[[ -195522.76828554]
- [ -962842.32909878]
- [-1987960.93806945]
- [-2306571.82730385]
- [-2276837.96539885]
- [-2247007.28803663]
- [-2217095.24676096]
- [-2187117.16992635]
- [-2157079.91867042]
- [-2126988.03438485]
- [-2096845.98669989]
- [-2066661.7527091 ]
- [-2036444.95617343]
- [-2006197.30541863]
- [-1975916.55364898]
- [-1960771.22580026]
- [-1945623.36167407]
- [-1930473.46083677]]</t>
+          <t>[[  -23995.57377349]
+ [ -365849.56451061]
+ [-2157340.52177565]
+ [-2461353.50359349]
+ [-2431293.71509484]
+ [-2401057.81860052]
+ [-2370657.95721891]
+ [-2340106.42506152]
+ [-2309415.77618124]
+ [-2278598.95195272]
+ [-2247669.43484872]
+ [-2216641.43992349]
+ [-2185530.13320228]
+ [-2154337.57117456]
+ [-2123061.64471152]
+ [-2107402.49816061]
+ [-2091726.20046418]
+ [-2076033.72193585]]</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
@@ -32367,24 +32365,24 @@
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>[[4.25670467e+07]
- [2.07947439e+08]
- [4.24023425e+08]
- [4.89242385e+08]
- [4.79318672e+08]
- [4.69374662e+08]
- [4.59413913e+08]
- [4.49439644e+08]
- [4.39453425e+08]
- [4.29456296e+08]
- [4.19449360e+08]
- [4.09434385e+08]
- [3.99413476e+08]
- [3.89387023e+08]
- [3.79354619e+08]
- [3.74337790e+08]
- [3.69320647e+08]
- [3.64303300e+08]]</t>
+          <t>[[5.16120684e+06]
+ [7.86871684e+07]
+ [4.57247547e+08]
+ [5.18761853e+08]
+ [5.08769748e+08]
+ [4.98740897e+08]
+ [4.88678138e+08]
+ [4.78584315e+08]
+ [4.68462307e+08]
+ [4.58315050e+08]
+ [4.48145565e+08]
+ [4.37957003e+08]
+ [4.27752679e+08]
+ [4.17533165e+08]
+ [4.07298174e+08]
+ [4.02176993e+08]
+ [3.97052751e+08]
+ [3.91925665e+08]]</t>
         </is>
       </c>
       <c r="E1193" t="inlineStr"/>
@@ -32407,24 +32405,24 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>[[ 977980.43174478]
- [2158986.69291999]
- [3788206.71760401]
- [6203738.61984625]
- [6203714.25993186]
- [6203689.77275204]
- [6203525.41329236]
- [6203500.99505019]
- [6203476.10049714]
- [6203493.87393293]
- [6203467.20175908]
- [6203439.46843739]
- [6203391.50794151]
- [6203366.73133319]
- [6203346.71994306]
- [6203228.63030041]
- [6203218.62388098]
- [6203208.61631114]]</t>
+          <t>[[ 808324.95608759]
+ [1865400.64751387]
+ [3496542.46773627]
+ [6203710.92939941]
+ [6203687.21951967]
+ [6203663.39910182]
+ [6203639.35349915]
+ [6203614.96010224]
+ [6203590.08394038]
+ [6203564.5724699 ]
+ [6203538.24908683]
+ [6203510.90447689]
+ [6203482.28429928]
+ [6203457.60935878]
+ [6203437.58101642]
+ [6203417.54186583]
+ [6203407.51927097]
+ [6203397.49502824]]</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr"/>
@@ -32447,9 +32445,9 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>[[ 2.93808618e+06]
- [ 8.73988525e+03]
- [-3.87522835e+07]]</t>
+          <t>[[ 2.93825831e+06]
+ [ 8.74070449e+03]
+ [-2.62472096e+07]]</t>
         </is>
       </c>
       <c r="E1195" t="inlineStr"/>
@@ -32472,9 +32470,9 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>[[-2.33620198e+06]
- [ 4.99144163e+08]
- [ 6.20373862e+06]]</t>
+          <t>[[-2.49122509e+06]
+ [ 5.28714366e+08]
+ [ 6.20371093e+06]]</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
@@ -32497,12 +32495,12 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>[-60.         -50.         -40.         -30.         -26.66666667
+          <t>[-75.         -60.         -45.         -30.         -26.66666667
  -23.33333333 -20.         -16.66666667 -13.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
+  10.          11.66666667  13.33333333  15.          27.30150617
+  39.60301235  51.90451852  69.47809877  87.05167901 104.62525926
+ 115.16940741 125.71355556 136.2577037  143.2871358  150.3165679
  157.346     ]</t>
         </is>
       </c>
@@ -32526,12 +32524,12 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         10.28126372  9.56252744
-  8.84379117  7.89552744  6.94726372  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1198" t="inlineStr"/>
@@ -32554,11 +32552,11 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>[0.06875    0.06875    0.06875    0.07699366 0.07699366 0.07699366
- 0.08960645 0.08960645 0.08960645 0.08488289 0.08488289 0.08488289
- 0.08711244 0.08711244 0.08711244 0.10244555 0.10244555 0.10244555
- 0.055      0.055      0.055      0.04960948 0.04960948 0.04960948
- 0.03960948 0.03960948 0.03960948 0.035      0.035      0.035     ]</t>
+          <t>[0.07      0.07      0.07      0.07      0.07      0.07      0.07
+ 0.07      0.07      0.07      0.07      0.07      0.07      0.07
+ 0.07      0.07      0.07      0.07      0.0408672 0.0408672 0.0408672
+ 0.025     0.025     0.025     0.025     0.025     0.025     0.025
+ 0.025     0.025    ]</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
@@ -32657,11 +32655,11 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>[2.52624915 2.52624915 2.52624915 2.82703246 2.82703246 2.82703246
- 3.28634624 3.28634624 3.28634624 3.11445606 3.11445606 3.11445606
- 3.19560822 3.19560822 3.19560822 3.75280308 3.75280308 3.75280308
- 2.02354145 2.02354145 2.02354145 1.766185   1.64632676 1.52646853
- 1.10912467 0.9828658  0.85660693 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
+ 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
+ 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611 1.96417611
+ 1.09338794 1.09338794 1.09338794 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E1203" t="inlineStr"/>
@@ -32684,11 +32682,11 @@
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>[1.4376035  1.4376035  1.4376035  1.60932787 1.60932787 1.60932787
- 1.87180084 1.87180084 1.87180084 1.77354071 1.77354071 1.77354071
- 1.8199258  1.8199258  1.8199258  2.13865713 2.13865713 2.13865713
- 1.15086843 1.15086843 1.15086843 1.00434483 0.93633145 0.86831846
- 0.63072627 0.55908108 0.48743676 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1204" t="inlineStr"/>
@@ -32711,11 +32709,11 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>[1.4376035  1.4376035  1.4376035  1.60932787 1.60932787 1.60932787
- 1.87180084 1.87180084 1.87180084 1.77354071 1.77354071 1.77354071
- 1.8199258  1.8199258  1.8199258  2.13865713 2.13865713 2.13865713
- 1.15086843 1.15086843 1.15086843 1.00434483 0.93633145 0.86831846
- 0.63072627 0.55908108 0.48743676 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315 1.11882315
+ 0.62188398 0.62188398 0.62188398 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1205" t="inlineStr"/>
@@ -32738,12 +32736,11 @@
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>[ 75.46976894  75.46976894  75.46976894  84.32896164  84.32896164
-  84.32896164  97.80553932  97.80553932  97.80553932  92.76951362
-  92.76951362  92.76951362  95.14819883  95.14819883  95.14819883
- 111.42746747 111.42746747 111.42746747  60.60306831  60.60306831
-  60.60306831  49.52922131  40.11460124  31.97567493  19.24090041
-  13.3896631    8.8641212    6.23978412   6.23978412   6.23978412]</t>
+          <t>[34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
+ 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
+ 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314 34.21751314
+ 17.31638526 17.31638526 17.31638526 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
@@ -32766,11 +32763,11 @@
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>[37.73488447 37.73488447 37.73488447 42.16448082 42.16448082 42.16448082
- 48.90276966 48.90276966 48.90276966 46.38475681 46.38475681 46.38475681
- 47.57409941 47.57409941 47.57409941 55.71373373 55.71373373 55.71373373
- 30.30153415 30.30153415 30.30153415 24.76461066 20.05730062 15.98783746
-  9.62045021  6.69483155  4.4320606   3.11989206  3.11989206  3.11989206]</t>
+          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+  8.65819263  8.65819263  8.65819263  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -32793,11 +32790,11 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>[37.73488447 37.73488447 37.73488447 42.16448082 42.16448082 42.16448082
- 48.90276966 48.90276966 48.90276966 46.38475681 46.38475681 46.38475681
- 47.57409941 47.57409941 47.57409941 55.71373373 55.71373373 55.71373373
- 30.30153415 30.30153415 30.30153415 24.76461066 20.05730062 15.98783746
-  9.62045021  6.69483155  4.4320606   3.11989206  3.11989206  3.11989206]</t>
+          <t>[17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+ 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657 17.10875657
+  8.65819263  8.65819263  8.65819263  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -32888,17 +32885,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -32922,36 +32919,36 @@
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>[[-4.28542190e+07]
- [-4.09219068e+07]
- [-3.87522835e+07]
- [-3.78721412e+07]
- [-3.69873937e+07]
- [-3.60932817e+07]
- [-3.50676206e+07]
- [-3.40219443e+07]
- [-3.29499618e+07]
- [-3.18882140e+07]
- [-3.07842150e+07]
- [-2.96273794e+07]
- [-2.86153565e+07]
- [-2.77979673e+07]
- [-2.69802158e+07]
- [-2.65002048e+07]
- [-2.60201371e+07]
- [-2.55400179e+07]
- [-2.27498445e+07]
- [-2.09393879e+07]
- [-1.91273557e+07]
- [-1.68636244e+07]
- [-1.47512644e+07]
- [-1.27912946e+07]
- [-1.19334865e+07]
- [-1.11726434e+07]
- [-1.05091097e+07]
- [-1.00010424e+07]
- [-9.49348031e+06]
- [-1.33586582e-08]]</t>
+          <t>[[-3.09652187e+07]
+ [-2.87116398e+07]
+ [-2.62472096e+07]
+ [-2.56520138e+07]
+ [-2.50540385e+07]
+ [-2.44504056e+07]
+ [-2.38380371e+07]
+ [-2.32135443e+07]
+ [-2.25730975e+07]
+ [-2.19122628e+07]
+ [-2.12257847e+07]
+ [-2.05072773e+07]
+ [-1.98878096e+07]
+ [-1.93849917e+07]
+ [-1.88818992e+07]
+ [-1.86302759e+07]
+ [-1.83786104e+07]
+ [-1.81269069e+07]
+ [-1.61079287e+07]
+ [-1.50691118e+07]
+ [-1.40290970e+07]
+ [-1.31109498e+07]
+ [-1.21916074e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [-1.08266249e-08]]</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
@@ -32974,36 +32971,36 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>[[-3.89372781e+06]
- [-1.03977466e+07]
- [-1.11993654e+07]
- [ 2.93808618e+06]
- [ 2.93817344e+06]
- [ 2.93826265e+06]
- [ 2.93842999e+06]
- [ 2.93852520e+06]
- [ 2.93862693e+06]
- [ 2.93869934e+06]
- [ 2.93882250e+06]
- [ 2.93896114e+06]
- [ 2.93896056e+06]
- [ 2.93871583e+06]
- [ 2.93877208e+06]
- [ 2.93835680e+06]
- [ 2.93837031e+06]
- [ 2.93838365e+06]
- [ 2.94058536e+06]
- [ 2.94115757e+06]
- [ 2.94167151e+06]
- [ 2.94341741e+06]
- [ 2.94385781e+06]
- [ 2.94413298e+06]
- [ 2.94077714e+06]
- [ 2.94061660e+06]
- [ 2.94039016e+06]
- [ 2.93982225e+06]
- [ 2.93977914e+06]
- [ 1.98676839e+03]]</t>
+          <t>[[-8.00673899e+05]
+ [-6.44227771e+06]
+ [-1.80487117e+07]
+ [ 2.93825831e+06]
+ [ 2.93841166e+06]
+ [ 2.93856736e+06]
+ [ 2.93872775e+06]
+ [ 2.93889551e+06]
+ [ 2.93907375e+06]
+ [ 2.93926626e+06]
+ [ 2.93947774e+06]
+ [ 2.93971431e+06]
+ [ 2.93969923e+06]
+ [ 2.93933269e+06]
+ [ 2.93943596e+06]
+ [ 2.93861236e+06]
+ [ 2.93863717e+06]
+ [ 2.93866165e+06]
+ [ 2.94239166e+06]
+ [ 2.94369830e+06]
+ [ 2.94487118e+06]
+ [ 2.94550401e+06]
+ [ 2.94718935e+06]
+ [ 2.94845153e+06]
+ [ 2.94432108e+06]
+ [ 2.94399108e+06]
+ [ 2.94354601e+06]
+ [ 2.94141779e+06]
+ [ 2.94137768e+06]
+ [ 3.61237600e+03]]</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
@@ -33026,36 +33023,36 @@
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>[[-1.81895802e+04]
- [-4.90263532e+04]
- [-5.47362506e+04]
- [ 8.73988525e+03]
- [ 8.74029648e+03]
- [ 8.74071962e+03]
- [ 8.74151173e+03]
- [ 8.74196899e+03]
- [ 8.74246030e+03]
- [ 8.74281671e+03]
- [ 8.74341741e+03]
- [ 8.74409649e+03]
- [ 8.74411771e+03]
- [ 8.74296981e+03]
- [ 8.74325949e+03]
- [ 8.74127400e+03]
- [ 8.74134478e+03]
- [ 8.74141499e+03]
- [ 8.75221854e+03]
- [ 8.75538859e+03]
- [ 8.75838764e+03]
- [ 8.76819107e+03]
- [ 8.77193943e+03]
- [ 8.77544764e+03]
- [ 8.75708522e+03]
- [ 8.75748214e+03]
- [ 8.75799079e+03]
- [ 8.75624105e+03]
- [ 8.75917194e+03]
- [ 2.22977317e+01]]</t>
+          <t>[[-3.74921903e+03]
+ [-3.02922341e+04]
+ [-8.66827057e+04]
+ [ 8.74070449e+03]
+ [ 8.74143189e+03]
+ [ 8.74217524e+03]
+ [ 8.74294594e+03]
+ [ 8.74375698e+03]
+ [ 8.74462370e+03]
+ [ 8.74556482e+03]
+ [ 8.74660386e+03]
+ [ 8.74777133e+03]
+ [ 8.74773610e+03]
+ [ 8.74600138e+03]
+ [ 8.74653396e+03]
+ [ 8.74254887e+03]
+ [ 8.74267880e+03]
+ [ 8.74280774e+03]
+ [ 8.76137375e+03]
+ [ 8.76860686e+03]
+ [ 8.77544246e+03]
+ [ 8.78030165e+03]
+ [ 8.79205479e+03]
+ [ 8.80247011e+03]
+ [ 8.77963022e+03]
+ [ 8.77947369e+03]
+ [ 8.77920382e+03]
+ [ 8.76618155e+03]
+ [ 8.76781521e+03]
+ [ 3.03690254e+01]]</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
@@ -33078,36 +33075,36 @@
       </c>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>[[-1.95522768e+05]
- [-9.62842329e+05]
- [-1.98796094e+06]
- [-2.30657183e+06]
- [-2.27683797e+06]
- [-2.24700729e+06]
- [-2.21709525e+06]
- [-2.18711717e+06]
- [-2.15707992e+06]
- [-2.12698803e+06]
- [-2.09684599e+06]
- [-2.06666175e+06]
- [-2.03644496e+06]
- [-2.00619731e+06]
- [-1.97591655e+06]
- [-1.96077123e+06]
- [-1.94562336e+06]
- [-1.93047346e+06]
- [-1.82456921e+06]
- [-1.71806404e+06]
- [-1.61115813e+06]
- [-1.45777702e+06]
- [-1.30386369e+06]
- [-1.14958704e+06]
- [-1.05698455e+06]
- [-9.63975136e+05]
- [-8.70352636e+05]
- [-7.82227739e+05]
- [-6.93356199e+05]
- [-5.73798616e-04]]</t>
+          <t>[[-2.39955738e+04]
+ [-3.65849565e+05]
+ [-2.15734052e+06]
+ [-2.46135350e+06]
+ [-2.43129372e+06]
+ [-2.40105782e+06]
+ [-2.37065796e+06]
+ [-2.34010643e+06]
+ [-2.30941578e+06]
+ [-2.27859895e+06]
+ [-2.24766943e+06]
+ [-2.21664144e+06]
+ [-2.18553013e+06]
+ [-2.15433757e+06]
+ [-2.12306164e+06]
+ [-2.10740250e+06]
+ [-2.09172620e+06]
+ [-2.07603372e+06]
+ [-1.95912380e+06]
+ [-1.84001827e+06]
+ [-1.71923814e+06]
+ [-1.54306658e+06]
+ [-1.36249820e+06]
+ [-1.17900850e+06]
+ [-1.06827951e+06]
+ [-9.56864310e+05]
+ [-8.44525749e+05]
+ [-7.69153412e+05]
+ [-6.93367804e+05]
+ [-2.62203167e-04]]</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
@@ -33130,36 +33127,36 @@
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>[[ 4.25670467e+07]
- [ 2.07947439e+08]
- [ 4.24023425e+08]
- [ 4.89242385e+08]
- [ 4.79318672e+08]
- [ 4.69374662e+08]
- [ 4.59413913e+08]
- [ 4.49439644e+08]
- [ 4.39453425e+08]
- [ 4.29456296e+08]
- [ 4.19449360e+08]
- [ 4.09434385e+08]
- [ 3.99413476e+08]
- [ 3.89387023e+08]
- [ 3.79354619e+08]
- [ 3.74337790e+08]
- [ 3.69320647e+08]
- [ 3.64303300e+08]
- [ 3.29281930e+08]
- [ 2.94159896e+08]
- [ 2.58980782e+08]
- [ 2.08644491e+08]
- [ 1.58279155e+08]
- [ 1.07938369e+08]
- [ 7.77854686e+07]
- [ 4.76364588e+07]
- [ 1.74967640e+07]
- [-1.06066420e+07]
- [-3.86561970e+07]
- [ 5.11256706e-02]]</t>
+          <t>[[ 5.16120684e+06]
+ [ 7.86871684e+07]
+ [ 4.57247547e+08]
+ [ 5.18761853e+08]
+ [ 5.08769748e+08]
+ [ 4.98740897e+08]
+ [ 4.88678138e+08]
+ [ 4.78584315e+08]
+ [ 4.68462307e+08]
+ [ 4.58315050e+08]
+ [ 4.48145565e+08]
+ [ 4.37957003e+08]
+ [ 4.27752679e+08]
+ [ 4.17533165e+08]
+ [ 4.07298174e+08]
+ [ 4.02176993e+08]
+ [ 3.97052751e+08]
+ [ 3.91925665e+08]
+ [ 3.53888516e+08]
+ [ 3.15466645e+08]
+ [ 2.76776534e+08]
+ [ 2.20969448e+08]
+ [ 1.64594096e+08]
+ [ 1.07970038e+08]
+ [ 7.40316377e+07]
+ [ 4.01256780e+07]
+ [ 6.27832494e+06]
+ [-1.62166003e+07]
+ [-3.86423339e+07]
+ [ 3.11868929e-02]]</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr"/>
@@ -33182,36 +33179,36 @@
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>[[ 977980.43174478]
- [2158986.69291999]
- [3788206.71760401]
- [6203738.61984625]
- [6203714.25993186]
- [6203689.77275204]
- [6203525.41329236]
- [6203500.99505019]
- [6203476.10049714]
- [6203493.87393293]
- [6203467.20175908]
- [6203439.46843739]
- [6203391.50794151]
- [6203366.73133319]
- [6203346.71994306]
- [6203228.63030041]
- [6203218.62388098]
- [6203208.61631114]
- [6203615.70547657]
- [6203545.73908957]
- [6203475.73885923]
- [6203513.43935929]
- [6203467.54658978]
- [6203422.20585614]
- [6203568.44400462]
- [6203616.0723543 ]
- [6203686.59896396]
- [6203837.9376874 ]
- [6203781.28151446]
- [      0.        ]]</t>
+          <t>[[ 8.08324956e+05]
+ [ 1.86540065e+06]
+ [ 3.49654247e+06]
+ [ 6.20371093e+06]
+ [ 6.20368722e+06]
+ [ 6.20366340e+06]
+ [ 6.20363935e+06]
+ [ 6.20361496e+06]
+ [ 6.20359008e+06]
+ [ 6.20356457e+06]
+ [ 6.20353825e+06]
+ [ 6.20351090e+06]
+ [ 6.20348228e+06]
+ [ 6.20345761e+06]
+ [ 6.20343758e+06]
+ [ 6.20341754e+06]
+ [ 6.20340752e+06]
+ [ 6.20339750e+06]
+ [ 6.20389237e+06]
+ [ 6.20381806e+06]
+ [ 6.20374372e+06]
+ [ 6.20430327e+06]
+ [ 6.20419606e+06]
+ [ 6.20408872e+06]
+ [ 6.20403864e+06]
+ [ 6.20409912e+06]
+ [ 6.20417906e+06]
+ [ 6.20419510e+06]
+ [ 6.20415192e+06]
+ [-1.09629702e-08]]</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
@@ -33234,24 +33231,24 @@
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>[[-10759204.7432334 ]
- [ 14110756.72524307]
- [ 46463822.91557051]
- [ 50421811.99690604]
- [ 49440303.48195981]
- [ 48459459.9462612 ]
- [ 40999294.89361011]
- [ 40195693.06577487]
- [ 39398752.00684515]
- [ 40683958.47006778]
- [ 39851874.29497994]
- [ 39035802.02445081]
- [ 37221854.18525777]
- [ 36318487.13004801]
- [ 35414545.71735288]
- [ 29893288.88531444]
- [ 29525923.35169615]
- [ 29158551.36448637]]</t>
+          <t>[[-1.44953439e+07]
+ [ 4.73924321e+06]
+ [ 9.91191011e+07]
+ [ 1.14554550e+08]
+ [ 1.12400971e+08]
+ [ 1.10241233e+08]
+ [ 1.08077602e+08]
+ [ 1.05912502e+08]
+ [ 1.03748591e+08]
+ [ 1.01588848e+08]
+ [ 9.94366942e+07]
+ [ 9.72961536e+07]
+ [ 9.51013130e+07]
+ [ 9.28433473e+07]
+ [ 9.05817142e+07]
+ [ 8.94500303e+07]
+ [ 8.83176151e+07]
+ [ 8.71845197e+07]]</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr"/>
@@ -33274,24 +33271,24 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>[[2779786.90626192]
- [7390114.84901395]
- [8066467.68082359]
- [2230281.10713793]
- [2230333.74329011]
- [2230387.57561574]
- [1918697.35380944]
- [1918746.84690495]
- [1918799.79520323]
- [2024759.639865  ]
- [2024827.49834231]
- [2024904.02537312]
- [1973470.81195233]
- [1973334.90164167]
- [1973364.657422  ]
- [1680120.1925729 ]
- [1680126.01974093]
- [1680131.76044624]]</t>
+          <t>[[  815069.34458875]
+ [ 5987587.69890415]
+ [16562124.64682659]
+ [ 3389258.339452  ]
+ [ 3389392.4896454 ]
+ [ 3389528.7178177 ]
+ [ 3389669.12201979]
+ [ 3389816.0661048 ]
+ [ 3389972.32098142]
+ [ 3390141.24395979]
+ [ 3390327.03234622]
+ [ 3390535.11252341]
+ [ 3390518.1202233 ]
+ [ 3390187.46222033]
+ [ 3390277.3090664 ]
+ [ 3389538.70453604]
+ [ 3389559.64522686]
+ [ 3389580.29781241]]</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr"/>
@@ -33316,22 +33313,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.23820673e+07]
- [-2.09126648e+07]
- [-1.85562222e+07]
- [-1.62206403e+07]
- [-1.19358932e+07]
- [-9.97121907e+06]
- [-8.02981541e+06]
- [-6.45804943e+06]
- [-4.46831705e+06]
- [-2.51687431e+06]
- [-7.58717775e+05]
- [-6.46136787e+03]
- [-7.35516260e+03]
- [-6.67257957e+03]
- [-6.90665660e+03]
- [-7.11791545e+03]]</t>
+ [-9.28638598e+06]
+ [-1.75781370e+07]
+ [-1.55974295e+07]
+ [-1.36342566e+07]
+ [-1.16897292e+07]
+ [-9.76557425e+06]
+ [-7.86420978e+06]
+ [-5.98885527e+06]
+ [-4.14368214e+06]
+ [-2.33401682e+06]
+ [-7.22223260e+05]
+ [-6.15057446e+03]
+ [-7.00137744e+03]
+ [-7.48011865e+03]
+ [-7.74252451e+03]
+ [-7.97935065e+03]]</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
@@ -33390,24 +33387,24 @@
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>[[0.05996185]
- [0.09691351]
- [0.28243946]
- [0.32369498]
- [0.31030541]
- [0.2971582 ]
- [0.24522165]
- [0.23460544]
- [0.2242967 ]
- [0.22589345]
- [0.21573184]
- [0.20604858]
- [0.19209352]
- [0.18558326]
- [0.18100797]
- [0.15280159]
- [0.15094232]
- [0.14908317]]</t>
+          <t>[[0.07408607]
+ [0.05800336]
+ [0.54916054]
+ [0.63290924]
+ [0.61602368]
+ [0.59923714]
+ [0.58256836]
+ [0.56603892]
+ [0.54967366]
+ [0.53350123]
+ [0.51755485]
+ [0.50187324]
+ [0.4865416 ]
+ [0.47324934]
+ [0.46177023]
+ [0.4560264 ]
+ [0.45027906]
+ [0.44452852]]</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
@@ -33426,24 +33423,24 @@
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>[[0.0917835 ]
- [0.11766259]
- [0.29431555]
- [0.12563964]
- [0.11496115]
- [0.10467634]
- [0.07120584]
- [0.06423117]
- [0.057697  ]
- [0.05759022]
- [0.05153744]
- [0.04654194]
- [0.04151604]
- [0.0400378 ]
- [0.03901983]
- [0.02853717]
- [0.02808077]
- [0.02762523]]</t>
+          <t>[[0.06775891]
+ [0.0916766 ]
+ [0.3380176 ]
+ [0.11529039]
+ [0.10625427]
+ [0.09759786]
+ [0.08939801]
+ [0.08175454]
+ [0.07479377]
+ [0.06802604]
+ [0.06118961]
+ [0.0553894 ]
+ [0.05123331]
+ [0.04926436]
+ [0.04831128]
+ [0.04427507]
+ [0.04380999]
+ [0.043346  ]]</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
@@ -33462,24 +33459,24 @@
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>[[0.11716456]
- [0.22610953]
- [0.36899972]
- [0.3678204 ]
- [0.36007065]
- [0.35229371]
- [0.29629832]
- [0.28935552]
- [0.28236621]
- [0.29050972]
- [0.28307217]
- [0.27554233]
- [0.26148761]
- [0.25471895]
- [0.24794876]
- [0.20841265]
- [0.20542931]
- [0.20244628]]</t>
+          <t>[[0.10276715]
+ [0.18857439]
+ [0.65735971]
+ [0.73256519]
+ [0.71773222]
+ [0.70284798]
+ [0.68790478]
+ [0.67289398]
+ [0.65780547]
+ [0.64262722]
+ [0.62734451]
+ [0.61193888]
+ [0.59689607]
+ [0.58227691]
+ [0.56765104]
+ [0.56033834]
+ [0.55302507]
+ [0.54571152]]</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
@@ -33502,36 +33499,36 @@
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>[[-1.07592047e+07]
- [ 1.41107567e+07]
- [ 4.64638229e+07]
- [ 5.04218120e+07]
- [ 4.94403035e+07]
- [ 4.84594599e+07]
- [ 4.09992949e+07]
- [ 4.01956931e+07]
- [ 3.93987520e+07]
- [ 4.06839585e+07]
- [ 3.98518743e+07]
- [ 3.90358020e+07]
- [ 3.72218542e+07]
- [ 3.63184871e+07]
- [ 3.54145457e+07]
- [ 2.98932889e+07]
- [ 2.95259234e+07]
- [ 2.91585514e+07]
- [ 4.85259499e+07]
- [ 4.30456762e+07]
- [ 3.75558264e+07]
- [ 3.52772732e+07]
- [ 3.01897903e+07]
- [ 2.26886501e+07]
- [ 2.30798939e+07]
- [ 1.50411198e+07]
- [ 5.24723484e+05]
- [-4.02794784e+06]
- [ 2.36408524e+07]
- [ 4.91558825e-02]]</t>
+          <t>[[-1.44953439e+07]
+ [ 4.73924321e+06]
+ [ 9.91191011e+07]
+ [ 1.14554550e+08]
+ [ 1.12400971e+08]
+ [ 1.10241233e+08]
+ [ 1.08077602e+08]
+ [ 1.05912502e+08]
+ [ 1.03748591e+08]
+ [ 1.01588848e+08]
+ [ 9.94366942e+07]
+ [ 9.72961536e+07]
+ [ 9.51013130e+07]
+ [ 9.28433473e+07]
+ [ 9.05817142e+07]
+ [ 8.94500303e+07]
+ [ 8.83176151e+07]
+ [ 8.47943211e+07]
+ [ 1.48763400e+08]
+ [ 1.31962936e+08]
+ [ 1.15039658e+08]
+ [ 1.46328244e+08]
+ [ 1.05377878e+08]
+ [ 6.42429599e+07]
+ [ 4.38208368e+07]
+ [ 2.19122005e+07]
+ [-1.09105352e+07]
+ [ 2.73652591e+06]
+ [ 3.32953128e+07]
+ [ 4.17545189e-02]]</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -33554,36 +33551,36 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>[[2.77978691e+06]
- [7.39011485e+06]
- [8.06646768e+06]
- [2.23028111e+06]
- [2.23033374e+06]
- [2.23038758e+06]
- [1.91869735e+06]
- [1.91874685e+06]
- [1.91879980e+06]
- [2.02475964e+06]
- [2.02482750e+06]
- [2.02490403e+06]
- [1.97347081e+06]
- [1.97333490e+06]
- [1.97336466e+06]
- [1.68012019e+06]
- [1.68012602e+06]
- [1.68013176e+06]
- [3.11811849e+06]
- [3.11860935e+06]
- [3.11904957e+06]
- [3.59706435e+06]
- [3.91122684e+06]
- [4.28335612e+06]
- [6.01180065e+06]
- [6.97897280e+06]
- [8.29753753e+06]
- [1.03460539e+07]
- [1.03459187e+07]
- [4.97686144e+03]]</t>
+          <t>[[8.15069345e+05]
+ [5.98758770e+06]
+ [1.65621246e+07]
+ [3.38925834e+06]
+ [3.38939249e+06]
+ [3.38952872e+06]
+ [3.38966912e+06]
+ [3.38981607e+06]
+ [3.38997232e+06]
+ [3.39014124e+06]
+ [3.39032703e+06]
+ [3.39053511e+06]
+ [3.39051812e+06]
+ [3.39018746e+06]
+ [3.39027731e+06]
+ [3.38953870e+06]
+ [3.38955965e+06]
+ [3.37066454e+06]
+ [6.16450543e+06]
+ [6.16658938e+06]
+ [6.16845825e+06]
+ [1.00630084e+07]
+ [1.00673935e+07]
+ [1.00706674e+07]
+ [1.06044800e+07]
+ [1.18824251e+07]
+ [1.34923619e+07]
+ [1.44569132e+07]
+ [1.44567438e+07]
+ [1.26545849e+04]]</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
@@ -33608,34 +33605,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.23820673e+07]
- [-2.09126648e+07]
- [-1.85562222e+07]
- [-1.62206403e+07]
- [-1.19358932e+07]
- [-9.97121907e+06]
- [-8.02981541e+06]
- [-6.45804943e+06]
- [-4.46831705e+06]
- [-2.51687431e+06]
- [-7.58717775e+05]
- [-6.46136787e+03]
- [-7.35516260e+03]
- [-6.67257957e+03]
- [-6.90665660e+03]
- [-7.11791545e+03]
- [-1.45001641e+04]
- [-1.61997622e+04]
- [-1.74588718e+04]
- [-2.00158722e+04]
- [-1.98310081e+04]
- [-1.93009196e+04]
- [-2.27396937e+04]
- [-2.05963145e+04]
- [-1.83136242e+04]
- [-1.95600471e+04]
- [-1.98772810e+04]
- [-2.01792318e+04]]</t>
+ [-9.28638598e+06]
+ [-1.75781370e+07]
+ [-1.55974295e+07]
+ [-1.36342566e+07]
+ [-1.16897292e+07]
+ [-9.76557425e+06]
+ [-7.86420978e+06]
+ [-5.98885527e+06]
+ [-4.14368214e+06]
+ [-2.33401682e+06]
+ [-7.22223260e+05]
+ [-6.15057446e+03]
+ [-7.00137744e+03]
+ [-7.48011865e+03]
+ [-7.74252451e+03]
+ [-7.77987428e+03]
+ [-1.42375305e+04]
+ [-1.59714012e+04]
+ [-1.72433450e+04]
+ [-3.02170993e+04]
+ [-3.21436020e+04]
+ [-3.37579392e+04]
+ [-3.34459572e+04]
+ [-3.12078886e+04]
+ [-2.88000982e+04]
+ [-2.77091934e+04]
+ [-2.80375872e+04]
+ [-2.83542274e+04]]</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
@@ -33706,36 +33703,36 @@
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>[[5.99618475e-02]
- [9.69135108e-02]
- [2.82439458e-01]
- [3.23694983e-01]
- [3.10305408e-01]
- [2.97158204e-01]
- [2.45221652e-01]
- [2.34605437e-01]
- [2.24296695e-01]
- [2.25893454e-01]
- [2.15731842e-01]
- [2.06048580e-01]
- [1.92093523e-01]
- [1.85583257e-01]
- [1.81007973e-01]
- [1.52801593e-01]
- [1.50942318e-01]
- [1.49083174e-01]
- [2.48410189e-01]
- [2.20729661e-01]
- [1.93055294e-01]
- [1.82281285e-01]
- [1.57442382e-01]
- [1.21476538e-01]
- [1.28854938e-01]
- [9.82011473e-02]
- [7.31589716e-02]
- [9.34212956e-02]
- [1.50944179e-01]
- [1.11624778e-04]]</t>
+          <t>[[7.40860705e-02]
+ [5.80033613e-02]
+ [5.49160537e-01]
+ [6.32909240e-01]
+ [6.16023677e-01]
+ [5.99237141e-01]
+ [5.82568364e-01]
+ [5.66038922e-01]
+ [5.49673659e-01]
+ [5.33501234e-01]
+ [5.17554848e-01]
+ [5.01873242e-01]
+ [4.86541598e-01]
+ [4.73249337e-01]
+ [4.61770230e-01]
+ [4.56026402e-01]
+ [4.50279057e-01]
+ [4.32385941e-01]
+ [7.58735735e-01]
+ [6.73525433e-01]
+ [5.87763796e-01]
+ [7.49703665e-01]
+ [5.43422751e-01]
+ [3.38715785e-01]
+ [2.41782860e-01]
+ [1.52981742e-01]
+ [1.31166350e-01]
+ [1.28144078e-01]
+ [2.11980533e-01]
+ [1.82307533e-04]]</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
@@ -33754,36 +33751,36 @@
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>[[0.0917835 ]
- [0.11766259]
- [0.29431555]
- [0.12563964]
- [0.11496115]
- [0.10467634]
- [0.07120584]
- [0.06423117]
- [0.057697  ]
- [0.05759022]
- [0.05153744]
- [0.04654194]
- [0.04151604]
- [0.0400378 ]
- [0.03901983]
- [0.02853717]
- [0.02808077]
- [0.02762523]
- [0.08242201]
- [0.0778218 ]
- [0.07325637]
- [0.08727535]
- [0.08374874]
- [0.08101539]
- [0.11140514]
- [0.11532245]
- [0.12235993]
- [0.15371362]
- [0.15086359]
- [0.00069142]]</t>
+          <t>[[0.06775891]
+ [0.0916766 ]
+ [0.3380176 ]
+ [0.11529039]
+ [0.10625427]
+ [0.09759786]
+ [0.08939801]
+ [0.08175454]
+ [0.07479377]
+ [0.06802604]
+ [0.06118961]
+ [0.0553894 ]
+ [0.05123331]
+ [0.04926436]
+ [0.04831128]
+ [0.04427507]
+ [0.04380999]
+ [0.04386754]
+ [0.13019571]
+ [0.12570343]
+ [0.12124697]
+ [0.33693335]
+ [0.3279878 ]
+ [0.31903424]
+ [0.27418927]
+ [0.27860821]
+ [0.28621527]
+ [0.26166921]
+ [0.25892095]
+ [0.00126897]]</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
@@ -33802,36 +33799,36 @@
       <c r="C1231" t="inlineStr"/>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>[[2.41381405e-01]
- [4.08858244e-01]
- [6.26685642e-01]
- [6.12232927e-01]
- [5.98288187e-01]
- [5.84323837e-01]
- [4.86314189e-01]
- [4.73926927e-01]
- [4.61458240e-01]
- [4.74914145e-01]
- [4.61606711e-01]
- [4.48102657e-01]
- [4.23834093e-01]
- [4.12257009e-01]
- [4.00705571e-01]
- [3.34554869e-01]
- [3.29457582e-01]
- [3.24366614e-01]
- [5.51369235e-01]
- [4.93601922e-01]
- [4.36369288e-01]
- [4.29202355e-01]
- [3.97565031e-01]
- [3.51734438e-01]
- [4.56158807e-01]
- [4.81267129e-01]
- [4.98789188e-01]
- [6.24824713e-01]
- [8.50180029e-01]
- [3.20317877e-10]]</t>
+          <t>[[3.49692559e-01]
+ [4.81481447e-01]
+ [1.24119139e+00]
+ [1.35777290e+00]
+ [1.32532005e+00]
+ [1.29293471e+00]
+ [1.26056578e+00]
+ [1.22815918e+00]
+ [1.19565578e+00]
+ [1.16298894e+00]
+ [1.13008127e+00]
+ [1.09684007e+00]
+ [1.06559452e+00]
+ [1.03658163e+00]
+ [1.00771761e+00]
+ [9.93345522e-01]
+ [9.79012054e-01]
+ [9.53425086e-01]
+ [1.80443173e+00]
+ [1.60117663e+00]
+ [1.40303448e+00]
+ [2.08528048e+00]
+ [1.60566461e+00]
+ [1.14816587e+00]
+ [1.00693467e+00]
+ [9.54214381e-01]
+ [7.92956729e-01]
+ [1.10037951e+00]
+ [1.47264888e+00]
+ [2.91155888e-10]]</t>
         </is>
       </c>
       <c r="E1231" t="inlineStr"/>
@@ -33850,7 +33847,7 @@
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>[-0.03466737]</t>
+          <t>[-0.17682606]</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr">
@@ -33873,7 +33870,7 @@
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>[-0.14757435]</t>
+          <t>[-0.03126269]</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr">
@@ -33896,7 +33893,7 @@
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>[1.05395188]</t>
+          <t>[1.0007888]</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr"/>
@@ -33919,7 +33916,7 @@
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>[28.23732221]</t>
+          <t>[29.73732221]</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
@@ -33942,9 +33939,9 @@
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1409.857905
- 1377.76078408 1326.64065493 1208.89268927 1087.8847062   962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr"/>
@@ -34013,9 +34010,9 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1239" t="inlineStr"/>
@@ -34038,8 +34035,8 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -34063,9 +34060,9 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1409.857905
- 1377.76078408 1326.64065493 1208.89268927 1087.8847062   962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
@@ -34134,9 +34131,9 @@
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1244" t="inlineStr"/>
@@ -34159,9 +34156,9 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1245" t="inlineStr"/>
@@ -34253,10 +34250,10 @@
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>[-1047.13901865 -1206.50664157 -1321.22751075 -1413.18261726
- -1409.857905   -1377.76078408 -1326.64065493 -1208.89268927
- -1087.8847062   -962.19898835  -978.02680667  -993.06340443
- -1007.39507288]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E1249" t="inlineStr"/>
@@ -34279,9 +34276,9 @@
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1250" t="inlineStr"/>
@@ -34304,18 +34301,18 @@
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>[[52768380.06221201]
- [47420160.34765946]
- [42049691.39064704]
- [40775644.65063427]
- [36694771.01706996]
- [30427126.47107403]
- [34899828.58700473]
- [30237760.19711509]
- [20688173.20596264]
- [ 2265875.06630109]
- [-3128830.16758715]
- [24399881.8173993 ]]</t>
+          <t>[[ 1.54084304e+08]
+ [ 1.37969863e+08]
+ [ 1.21680214e+08]
+ [ 1.58456676e+08]
+ [ 1.18710475e+08]
+ [ 7.86481415e+07]
+ [ 6.01332858e+07]
+ [ 4.21771109e+07]
+ [ 1.45753692e+07]
+ [-1.16541545e+07]
+ [ 3.88751923e+06]
+ [ 3.39146846e+07]]</t>
         </is>
       </c>
       <c r="E1251" t="inlineStr"/>
@@ -34338,18 +34335,18 @@
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>[[ 3115931.08602374]
- [ 3116457.11884196]
- [ 3116931.84932959]
- [ 3594106.27409865]
- [ 3908372.21778684]
- [ 4280637.1408953 ]
- [ 6010254.81038161]
- [ 6977539.3549816 ]
- [ 8296275.99251165]
- [10345105.22570394]
- [10345241.77715339]
- [10345113.56373297]]</t>
+          <t>[[ 6158189.23908074]
+ [ 6160344.56148856]
+ [ 6162283.60692909]
+ [10054322.14986388]
+ [10059024.3281451 ]
+ [10062641.36669404]
+ [10599835.45697914]
+ [11877932.83708396]
+ [13488122.7421875 ]
+ [14454278.70925533]
+ [14454294.04473279]
+ [14454141.14727047]]</t>
         </is>
       </c>
       <c r="E1252" t="inlineStr"/>
@@ -34372,18 +34369,18 @@
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>[[-14500.16407755]
- [-16199.76215416]
- [-17458.87179718]
- [-20015.87223742]
- [-19831.00807121]
- [-19300.91960226]
- [-22739.69371694]
- [-20596.31445259]
- [-18313.62424038]
- [-19560.04714398]
- [-19877.28095268]
- [-20179.23179818]]</t>
+          <t>[[-14237.53052135]
+ [-15971.40115798]
+ [-17243.34497807]
+ [-30217.09934593]
+ [-32143.6020261 ]
+ [-33757.93923908]
+ [-33445.9571736 ]
+ [-31207.8885523 ]
+ [-28800.09817433]
+ [-27709.19337349]
+ [-28037.58723658]
+ [-28354.227381  ]]</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr"/>
@@ -34436,18 +34433,18 @@
       <c r="C1255" t="inlineStr"/>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>[[0.26986745]
- [0.24282303]
- [0.21570476]
- [0.20987765]
- [0.18986416]
- [0.15935814]
- [0.185319  ]
- [0.16569768]
- [0.12817357]
- [0.09188155]
- [0.09252108]
- [0.15403579]]</t>
+          <t>[[0.69842849]
+ [0.62576257]
+ [0.55235767]
+ [0.72088173]
+ [0.54260014]
+ [0.36432863]
+ [0.28437008]
+ [0.21225613]
+ [0.12454501]
+ [0.12484223]
+ [0.11457077]
+ [0.19066168]]</t>
         </is>
       </c>
       <c r="E1255" t="inlineStr"/>
@@ -34466,18 +34463,18 @@
       <c r="C1256" t="inlineStr"/>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>[[0.08240303]
- [0.07779874]
- [0.07323027]
- [0.08723175]
- [0.0837076 ]
- [0.08097813]
- [0.1113786 ]
- [0.11530266]
- [0.12234771]
- [0.15370634]
- [0.15085798]
- [0.14804875]]</t>
+          <t>[[0.13015144]
+ [0.12565362]
+ [0.12119306]
+ [0.33676254]
+ [0.32781092]
+ [0.31885387]
+ [0.27409961]
+ [0.27853273]
+ [0.28615555]
+ [0.26164061]
+ [0.25889359]
+ [0.25615813]]</t>
         </is>
       </c>
       <c r="E1256" t="inlineStr"/>
@@ -34496,18 +34493,18 @@
       <c r="C1257" t="inlineStr"/>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>[[0.51885703]
- [0.46884139]
- [0.41889847]
- [0.4183367 ]
- [0.39484915]
- [0.35598339]
- [0.45707813]
- [0.45683746]
- [0.43607633]
- [0.36452367]
- [0.30089553]
- [0.51052065]]</t>
+          <t>[[1.85827677]
+ [1.66856972]
+ [1.47912995]
+ [2.06059317]
+ [1.61201539]
+ [1.16741922]
+ [1.00804445]
+ [0.902905  ]
+ [0.66858538]
+ [0.40400855]
+ [0.5692184 ]
+ [0.9001341 ]]</t>
         </is>
       </c>
       <c r="E1257" t="inlineStr"/>
@@ -34530,7 +34527,7 @@
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>[0.298369]</t>
+          <t>[0.16913383]</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr"/>
@@ -34553,7 +34550,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>[0.30195795]</t>
+          <t>[0.1705862]</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr"/>
@@ -34576,7 +34573,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>[0.298369   0.30195795 0.92899903 1.12479629 1.28358232 2.8702213 ]</t>
+          <t>[0.16913383 0.1705862  0.67648736 0.92372257 1.06618006 2.57442293]</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr"/>
@@ -34595,12 +34592,12 @@
       <c r="C1261" t="inlineStr"/>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>[[ 9.61030705e-01  7.28370644e-01 -3.20842178e+00  4.24923482e+00
-  -1.73021440e+00]
- [ 5.13294941e+02 -1.26067730e+03  2.36562071e+03 -2.27096204e+03
-   6.52776847e+02]
- [-5.41388116e+01  1.49007076e+02 -2.59103347e+02  3.10216673e+02
-  -1.44981590e+02]]</t>
+          <t>[[ 1.08421064e+00 -1.77281886e-01  8.46125197e-01 -1.27685536e+00
+   5.23801417e-01]
+ [ 2.91924575e+02 -3.58920350e+02  2.62924261e+02 -2.34456997e+02
+   3.95285104e+01]
+ [-9.32162670e+01  1.51683309e+02 -3.21591728e+01  3.18984037e+00
+  -2.84977091e+01]]</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr"/>
@@ -34619,9 +34616,9 @@
       <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>[[   0.94192539    0.76911702   -3.27808967    4.30062533   -1.73357807]
- [  51.14672881 -119.32941439  218.90734411 -200.587564     50.86290547]
- [ -50.42537667  140.31549829 -250.27579175  297.93307557 -136.54740545]]</t>
+          <t>[[  1.07554606  -0.16844417   0.84070954  -1.27421752   0.5264061 ]
+ [ 54.47694879 -63.53112784  46.29820907 -39.09931056   2.85528054]
+ [-87.00687725 141.10312565 -37.72752676  15.53105602 -30.89977766]]</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr"/>
@@ -34640,7 +34637,7 @@
       <c r="C1263" t="inlineStr"/>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>[[  7.77061305 -28.88921331  48.6610623  -37.30571749  10.76325545]
+          <t>[[  6.22021119 -19.33664712  30.99991402 -24.23921      7.35573191]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -34665,7 +34662,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>[0.30195795 1.28358232 2.97950458]</t>
+          <t>[0.1705862  1.06618006 2.65318487]</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -34688,7 +34685,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>[0.298369   1.12479629 2.8702213 ]</t>
+          <t>[0.16913383 0.92372257 2.57442293]</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr"/>
@@ -34711,7 +34708,7 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>[6.00638029 0.         0.        ]</t>
+          <t>[4.642703 0.       0.      ]</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -34735,18 +34732,18 @@
       <c r="D1267" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00455325]
- [0.01695627]
- [0.03644316]
- [0.07648201]
- [0.13100408]
- [0.19971147]
- [0.24822512]
- [0.30329028]
- [0.36523966]
- [0.42857098]
- [0.49427718]
- [0.55849116]]</t>
+ [0.01776947]
+ [0.06747925]
+ [0.14589997]
+ [0.31718373]
+ [0.55720042]
+ [0.85007486]
+ [1.04539312]
+ [1.25351675]
+ [1.47261479]
+ [1.62255732]
+ [1.77309735]
+ [1.92179892]]</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -34769,7 +34766,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[0.55849116]</t>
+          <t>[1.92179892]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -34792,18 +34789,18 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>[[-22748909.48795525]
- [-20936877.28897275]
- [-19123656.99455465]
- [-16859197.78302836]
- [-14747128.72194711]
- [-12787842.32006797]
- [-11930866.31540746]
- [-11171199.60616048]
- [-10508881.44745224]
- [-10001319.38229697]
- [ -9493615.37584774]
- [ -8985776.3084463 ]]</t>
+          <t>[[-16111494.81071107]
+ [-15071480.00474904]
+ [-14030584.74683795]
+ [-13111242.26497846]
+ [-12190728.92008964]
+ [-11269230.46898925]
+ [-10739039.70396252]
+ [-10254835.9241617 ]
+ [ -9816667.5003503 ]
+ [ -9539868.15269817]
+ [ -9262989.54291176]
+ [ -8986034.52447547]]</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
@@ -34826,18 +34823,18 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>[[2938067.973096  ]
- [2938680.67204584]
- [2939234.33521935]
- [2940446.5328827 ]
- [2941184.99468239]
- [2941772.09594494]
- [2939802.17782414]
- [2939815.22968643]
- [2939775.26978221]
- [2939443.5243337 ]
- [2939508.89182458]
- [2939468.56159599]]</t>
+          <t>[[2938463.72332601]
+ [2939814.74745798]
+ [2941031.28506405]
+ [2942195.89024553]
+ [2944002.01228332]
+ [2945394.88464255]
+ [2942626.12713033]
+ [2942494.5039313 ]
+ [2942268.52543965]
+ [2940665.74392494]
+ [2940678.35992624]
+ [2940642.95298668]]</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
@@ -34860,18 +34857,18 @@
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>[[8739.95490456]
- [8743.23772811]
- [8746.34562628]
- [8753.36168658]
- [8758.39227252]
- [8763.2347739 ]
- [8751.91428469]
- [8753.0840879 ]
- [8754.41033133]
- [8753.78753683]
- [8757.08070948]
- [8760.04218808]]</t>
+          <t>[[8742.04907309]
+ [8749.36404164]
+ [8756.27723715]
+ [8763.58666766]
+ [8775.65816345]
+ [8786.44119102]
+ [8770.58257801]
+ [8771.33202658]
+ [8772.07085768]
+ [8761.86193587]
+ [8763.695678  ]
+ [8765.36981126]]</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
@@ -34894,18 +34891,18 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>[[-1889563.41829822]
- [-1786606.37895046]
- [-1682934.4582452 ]
- [-1533713.91822832]
- [-1383389.64711039]
- [-1232162.19855971]
- [-1141091.60208434]
- [-1049448.75698289]
- [ -957016.68631121]
- [ -869825.80031904]
- [ -781721.5975282 ]
- [ -692941.93337508]]</t>
+          <t>[[-1978549.18625065]
+ [-1866789.93758551]
+ [-1752846.876812  ]
+ [-1585668.18892599]
+ [-1413343.06083119]
+ [-1237341.05132165]
+ [-1130671.73370642]
+ [-1023033.75151866]
+ [ -914176.32439497]
+ [ -840938.9654225 ]
+ [ -767152.3898034 ]
+ [ -692940.93608826]]</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -34928,18 +34925,18 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>[[ 3.52652494e+08]
- [ 3.18253714e+08]
- [ 2.83729096e+08]
- [ 2.34226306e+08]
- [ 1.84569069e+08]
- [ 1.34817747e+08]
- [ 1.04953709e+08]
- [ 7.50539646e+07]
- [ 4.51191346e+07]
- [ 1.71602673e+07]
- [-1.07901877e+07]
- [-3.86931091e+07]]</t>
+          <t>[[ 3.65412996e+08]
+ [ 3.28473677e+08]
+ [ 2.91153345e+08]
+ [ 2.37125775e+08]
+ [ 1.82352178e+08]
+ [ 1.27155151e+08]
+ [ 9.39770229e+07]
+ [ 6.07663004e+07]
+ [ 2.75437914e+07]
+ [ 5.42130149e+06]
+ [-1.66652620e+07]
+ [-3.86931098e+07]]</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -34962,18 +34959,18 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>[[6203615.7047472 ]
- [6203545.70293789]
- [6203475.64178853]
- [6203513.27551209]
- [6203467.3362268 ]
- [6203421.9938881 ]
- [6203568.20047201]
- [6203615.86377111]
- [6203686.46708846]
- [6203837.91223762]
- [6203781.31240357]
- [6203724.69777438]]</t>
+          <t>[[6203892.65774366]
+ [6203818.31535935]
+ [6203743.88903231]
+ [6204303.44743804]
+ [6204196.09794963]
+ [6204088.61546411]
+ [6204038.41657646]
+ [6204098.8856325 ]
+ [6204178.92503671]
+ [6204195.08666501]
+ [6204151.94768982]
+ [6204108.79696184]]</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
@@ -34998,7 +34995,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.45593661e+07]]</t>
+ [-1.71503117e+07]]</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -35021,9 +35018,9 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>[[-1.99160168e+06]
- [ 3.86880269e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.08760944e+06]
+ [ 4.01854590e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -35046,7 +35043,7 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[2518911.42930409]</t>
+          <t>[1765979.02738052]</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
@@ -35069,7 +35066,7 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[-2.54457144e+00 -3.60929843e-02  9.64375212e+01]</t>
+          <t>[-3.62946168e+00 -5.14866569e-02  1.14871465e+02]</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr"/>
@@ -35092,8 +35089,8 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[3.12468720e+10 3.11159391e+10 3.03125126e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[2.82474768e+10 2.81165437e+10 2.78206205e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr"/>
@@ -35112,8 +35109,8 @@
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>[160.         142.86890828 122.75902625 129.59030954 126.273578
- 107.37411734]</t>
+          <t>[120.24788761 120.24788761 120.24788761 120.24788761 120.24788761
+ 120.24788761]</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr"/>
@@ -35170,7 +35167,7 @@
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>[1.11990777 1.16381591 0.94728554 1.02626624 1.17601505]</t>
+          <t>[1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -35252,8 +35249,10 @@
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>[5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5
- 5.5]</t>
+          <t>[4.20867607 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607
+ 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607
+ 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607 4.20867607
+ 4.20867607]</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -35276,7 +35275,7 @@
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>[  0.   0. -30.]</t>
+          <t>[  0.    0.  -37.5]</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -35299,7 +35298,7 @@
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>[5701.99066627]</t>
+          <t>[4173.51651643]</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr"/>
@@ -35322,7 +35321,7 @@
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>[57313492.1835771]</t>
+          <t>[41950052.22608165]</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr"/>
@@ -35364,7 +35363,7 @@
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>[95.03317777]</t>
+          <t>[55.64688689]</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr"/>
@@ -35387,7 +35386,7 @@
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>[718.68840689]</t>
+          <t>[246.41769013]</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr"/>
@@ -35410,7 +35409,7 @@
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>[718.68840689]</t>
+          <t>[246.41769013]</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr"/>
@@ -35433,8 +35432,8 @@
       </c>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>[5.84454043e+06 5.84454043e+06 2.27379167e+05 1.75345068e+09
- 1.75345068e+09 0.00000000e+00]</t>
+          <t>[4.27785443e+06 4.27785443e+06 1.01882385e+05 2.00534554e+09
+ 2.00534554e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1295" t="inlineStr"/>
@@ -35480,7 +35479,7 @@
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>[-60.         -50.         -40.         -30.         -26.66666667
+          <t>[-75.         -60.         -45.         -30.         -26.66666667
  -23.33333333 -20.         -16.66666667 -13.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -35506,8 +35505,10 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
- 11.]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213]</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr"/>
@@ -35530,7 +35531,7 @@
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>[30. 10. 10. 10. 10.  5.]</t>
+          <t>[45. 10. 10. 10. 10.  5.]</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr"/>
@@ -35661,7 +35662,7 @@
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>[-60. -30. -20. -10.   0.  10.  15.]</t>
+          <t>[-75. -30. -20. -10.   0.  10.  15.]</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
@@ -35680,7 +35681,7 @@
       <c r="C1306" t="inlineStr"/>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>[0.         0.34782609 0.52173913 0.69565217 0.86956522 1.        ]</t>
+          <t>[0.         0.42307692 0.57692308 0.73076923 0.88461538 1.        ]</t>
         </is>
       </c>
       <c r="E1306" t="inlineStr">
@@ -35761,8 +35762,8 @@
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>[19704.74333855 22050.85319252 25633.50065406 24292.75726489
- 24925.74410178 29271.86404059]</t>
+          <t>[15320.57367546 15320.57367549 15320.57367551 15320.57367554
+ 15320.57367556 15320.57367559]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr">
@@ -35789,8 +35790,8 @@
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>[294332.09888337 328882.95038723 381441.6033349  361801.10312551
- 371077.97543322 434567.1231231 ]</t>
+          <t>[133448.30124483 133448.30124548 133448.30124614 133448.30124679
+ 133448.30124745 133448.30124811]</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr">
@@ -35817,8 +35818,8 @@
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>[294332.09888337 328882.95038723 381441.6033349  361801.10312551
- 371077.97543322 434567.1231231 ]</t>
+          <t>[133448.30124483 133448.30124548 133448.30124614 133448.30124679
+ 133448.30124745 133448.30124811]</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
@@ -35845,8 +35846,8 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>[7.05324943e+12 7.88121137e+12 9.14070461e+12 8.67004800e+12
- 8.89235503e+12 1.04137820e+13]</t>
+          <t>[3.19789842e+12 3.19789842e+12 3.19789842e+12 3.19789842e+12
+ 3.19789842e+12 3.19789842e+12]</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr">
@@ -35873,8 +35874,8 @@
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>[7.05324943e+12 7.88121137e+12 9.14070461e+12 8.67004800e+12
- 8.89235503e+12 1.04137820e+13]</t>
+          <t>[3.19789842e+12 3.19789842e+12 3.19789842e+12 3.19789842e+12
+ 3.19789842e+12 3.19789842e+12]</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
@@ -35901,8 +35902,8 @@
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>[5.59322680e+12 6.24980061e+12 7.24857875e+12 6.87534807e+12
- 7.05163754e+12 8.25812913e+12]</t>
+          <t>[2.53593345e+12 2.53593345e+12 2.53593345e+12 2.53593345e+12
+ 2.53593345e+12 2.53593345e+12]</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
@@ -35929,8 +35930,8 @@
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>[4.72196102e+11 5.28417282e+11 6.14270325e+11 5.82141320e+11
- 5.97309947e+11 7.01458520e+11]</t>
+          <t>[3.67135722e+11 3.67135722e+11 3.67135722e+11 3.67135722e+11
+ 3.67135722e+11 3.67135722e+11]</t>
         </is>
       </c>
       <c r="E1315" t="inlineStr">
@@ -36038,12 +36039,12 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.42355284 0.15595649 0.15595649 0.        ]
- [0.         0.         0.37848876 0.13957245 0.13957245 0.        ]
- [0.         0.         0.32558955 0.12034083 0.12034083 0.        ]
- [0.         0.         0.34355919 0.12687358 0.12687358 0.        ]
- [0.         0.         0.33483454 0.12370176 0.12370176 0.        ]
- [0.         0.         0.28512021 0.10562925 0.10562925 0.        ]]</t>
+          <t>[[0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
+ [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
+ [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
+ [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
+ [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]
+ [0.         0.         0.54475767 0.26321512 0.26321512 0.        ]]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -36066,12 +36067,12 @@
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[[0.69560209 0.69560209 0.         0.         0.         0.07797824]
- [0.62137742 0.62137742 0.         0.         0.         0.06978623]
- [0.53424487 0.53424487 0.         0.         0.         0.06017042]
- [0.56384384 0.56384384 0.         0.         0.         0.06343679]
- [0.54947295 0.54947295 0.         0.         0.         0.06185088]
- [0.46758313 0.46758313 0.         0.         0.         0.05281463]]</t>
+          <t>[[0.89379631 0.89379631 0.         0.         0.         0.13160756]
+ [0.89379631 0.89379631 0.         0.         0.         0.13160756]
+ [0.89379631 0.89379631 0.         0.         0.         0.13160756]
+ [0.89379631 0.89379631 0.         0.         0.         0.13160756]
+ [0.89379631 0.89379631 0.         0.         0.         0.13160756]
+ [0.89379631 0.89379631 0.         0.         0.         0.13160756]]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -36094,7 +36095,7 @@
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1168.96960339]</t>
+          <t>[1001.62910509]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -36117,7 +36118,7 @@
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[4153071.07128612]</t>
+          <t>[3398313.75351104]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -36140,7 +36141,7 @@
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>[1706530.17249189]</t>
+          <t>[1378851.63079456]</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr"/>
@@ -36163,7 +36164,7 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[40.01910449]</t>
+          <t>[45.]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -36186,7 +36187,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[3.55762879e+09 3.55762879e+09 5.08696698e+07 0.00000000e+00
+          <t>[3.73490975e+09 3.73490975e+09 2.40206942e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36210,7 +36211,9 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -36233,9 +36236,8 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[0.0735625  0.0735625  0.0735625  0.08238322 0.08238322 0.08238322
- 0.0958789  0.0958789  0.0958789  0.09082469 0.09082469 0.09082469
- 0.09321032 0.09321032 0.09321032 0.10961673 0.10961673 0.10961673]</t>
+          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
+ 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -36283,7 +36285,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[1806530.17249189]</t>
+          <t>[1478851.63079456]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -36306,7 +36308,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[4653071.07128613]</t>
+          <t>[3898313.75351104]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -36329,7 +36331,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[41.95546271]</t>
+          <t>[48.0429016]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -36352,7 +36354,7 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[4.12164129e+09 4.12164129e+09 5.38946698e+07 0.00000000e+00
+          <t>[4.54579540e+09 4.54579540e+09 2.57919896e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36376,7 +36378,7 @@
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>[3377046.37688827]</t>
+          <t>[2296409.33209572]</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr"/>
@@ -36399,7 +36401,7 @@
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>[8667452.50071479]</t>
+          <t>[6171800.54630485]</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr"/>
@@ -36422,7 +36424,7 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[-60.]</t>
+          <t>[-75.]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -36441,7 +36443,7 @@
       <c r="C1336" t="inlineStr"/>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[0.95041765]</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr"/>
@@ -36464,8 +36466,7 @@
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr"/>
@@ -36488,26 +36489,26 @@
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[3.09888740e+10 1.85474786e+13 3.09888740e+10 1.85474786e+13
+  1.90480977e+10 5.56625713e+10]
+ [2.78764530e+10 1.31069127e+13 2.78764530e+10 1.31069127e+13
+  1.73680977e+10 5.56625713e+10]
+ [2.47640319e+10 8.86101349e+12 2.47640319e+10 8.86101349e+12
+  1.56880977e+10 5.56625713e+10]
+ [2.16516109e+10 5.66044758e+12 2.16516109e+10 5.66044758e+12
+  1.40080977e+10 5.56625713e+10]
+ [1.85391898e+10 3.35588167e+12 1.85391898e+10 3.35588167e+12
+  1.23280977e+10 5.56625713e+10]
+ [1.54267688e+10 1.79798243e+12 1.54267688e+10 1.79798243e+12
+  1.06480977e+10 5.56625713e+10]
+ [1.23143477e+10 8.37416528e+11 1.23143477e+10 8.37416528e+11
+  8.96809766e+09 5.56625713e+10]
+ [9.20192665e+09 3.24850622e+11 9.20192665e+09 3.24850622e+11
+  7.28809766e+09 5.56625713e+10]
+ [6.08950560e+09 1.10951382e+11 6.08950560e+09 1.10951382e+11
+  5.60809766e+09 5.56625713e+10]
+ [2.97708454e+09 4.63854761e+10 2.97708454e+09 4.63854761e+10
+  3.92809766e+09 5.56625713e+10]]</t>
         </is>
       </c>
       <c r="E1338" t="inlineStr"/>
@@ -38613,7 +38614,7 @@
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>[200.         200.00000085 187.36413639 171.4       ]</t>
+          <t>[195.7560123 320.        280.        240.       ]</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
@@ -38632,7 +38633,7 @@
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>[1.         0.80398102 0.678329   1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
@@ -38651,7 +38652,7 @@
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[1.         0.80398102 0.678329   1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -38670,7 +38671,7 @@
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[0.9019905  0.79842561 0.8836269 ]</t>
+          <t>[0.61173754 1.         1.        ]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -38751,9 +38752,9 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[5.5        5.5        5.5        5.5        5.14063186 4.78126372
- 4.42189558 3.94776372 3.47363186 2.9995     2.9995     2.9995
- 2.9995    ]</t>
+          <t>[4.         4.         4.         4.         4.         4.
+ 4.         3.66666667 3.33333333 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
@@ -38979,9 +38980,9 @@
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -39004,9 +39005,9 @@
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.28126372  9.56252744
-  8.84379117  7.89552744  6.94726372  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr"/>
@@ -39029,7 +39030,7 @@
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[34.83993007 49.77132867 29.8627972  27.87194406]</t>
+          <t>[36.90451852 52.72074074 31.63244444 21.0882963 ]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -39159,7 +39160,7 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[ 15.          49.83993007  99.61125874 129.47405594 157.346     ]</t>
+          <t>[ 15.          51.90451852 104.62525926 136.2577037  157.346     ]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -39178,7 +39179,7 @@
       <c r="C1434" t="inlineStr"/>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>[0.         0.38116592 0.73991031 1.        ]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
@@ -39259,7 +39260,7 @@
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>[15783.62334338 12841.34874928  7666.35323229  5473.10691756]</t>
+          <t>[8528.42592405 5227.55912469 4572.06581752 3916.57251035]</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
@@ -39286,7 +39287,7 @@
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>[236351.96640313 156446.94483941  52219.68608525  24335.15806829]</t>
+          <t>[67533.90251654 41559.91184742 27804.58963808 17478.31679189]</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
@@ -39313,7 +39314,7 @@
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>[236351.96640313 156446.94483941  52219.68608525  24335.15806829]</t>
+          <t>[67533.90251654 41559.91184742 27804.58963808 17478.31679189]</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
@@ -39340,7 +39341,7 @@
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>[5.66383816e+12 3.74902815e+12 1.25137038e+12 5.83157394e+11]</t>
+          <t>[1.61835376e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
@@ -39367,7 +39368,7 @@
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>[5.66383816e+12 3.74902815e+12 1.25137038e+12 5.83157394e+11]</t>
+          <t>[1.61835376e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
@@ -39394,7 +39395,7 @@
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>[4.49142366e+12 2.97297933e+12 9.92336714e+11 4.62443814e+11]</t>
+          <t>[1.28335453e+12 7.89767795e+11 5.28373822e+11 3.32142469e+11]</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -39421,7 +39422,7 @@
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>[3.78232048e+11 3.07724629e+11 1.83713233e+11 1.31155210e+11]</t>
+          <t>[2.04371577e+11 1.25271007e+11 1.09563044e+11 9.38550805e+10]</t>
         </is>
       </c>
       <c r="E1443" t="inlineStr">
@@ -39529,10 +39530,10 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.52877592 0.19421459 0.19421459 0.        ]
- [0.         0.         0.64993173 0.26465247 0.26465247 0.        ]
- [0.         0.         1.0886532  0.59306147 0.59306147 0.        ]
- [0.         0.         1.52491083 1.02871027 1.02871027 0.        ]]</t>
+          <t>[[0.         0.         0.97860966 0.4943295  0.4943295  0.        ]
+ [0.         0.         1.59653861 0.80327408 0.80327408 0.        ]
+ [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
+ [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr"/>
@@ -39555,10 +39556,10 @@
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>[[0.86890906 0.86890906 0.         0.         0.         0.09710729]
- [1.06799788 1.06799788 0.         0.         0.         0.13232623]
- [1.78864932 1.78864932 0.         0.         0.         0.29653073]
- [2.50484558 2.50484558 0.         0.         0.         0.51435513]]</t>
+          <t>[[1.60801698 1.60801698 0.         0.         0.         0.24716475]
+ [2.62573607 2.62573607 0.         0.         0.         0.40163704]
+ [3.00158224 3.00158224 0.         0.         0.         0.52529097]
+ [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr"/>
@@ -39581,7 +39582,7 @@
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>[712.25837174]</t>
+          <t>[523.91531205]</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
@@ -39604,7 +39605,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>[4014381.42942866]</t>
+          <t>[2273486.79279381]</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr"/>
@@ -39627,8 +39628,8 @@
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         10.64063186  9.92189558  9.20315931
-  8.36965931  7.42139558  6.47313186  5.999       5.999       5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr"/>
@@ -39651,8 +39652,8 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>[0.05885    0.05885    0.05885    0.05308214 0.05308214 0.05308214
- 0.04238214 0.04238214 0.04238214 0.03745    0.03745    0.03745   ]</t>
+          <t>[0.0437279 0.0437279 0.0437279 0.02675   0.02675   0.02675   0.02675
+ 0.02675   0.02675   0.02675   0.02675   0.02675  ]</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr"/>
@@ -45171,7 +45172,7 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[2.55517966]</t>
+          <t>[2.7795294]</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -47075,9 +47076,9 @@
       <c r="D1713" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -47901,7 +47902,7 @@
       <c r="C1745" t="inlineStr"/>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>[0.         0.4        0.53333333 0.66666667 0.8        0.93333333
+          <t>[0.         0.5        0.61111111 0.72222222 0.83333333 0.94444444
  1.        ]</t>
         </is>
       </c>
@@ -47929,7 +47930,7 @@
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>[75.]</t>
+          <t>[90.]</t>
         </is>
       </c>
       <c r="E1746" t="inlineStr">
@@ -47956,7 +47957,7 @@
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>[75.]</t>
+          <t>[90.]</t>
         </is>
       </c>
       <c r="E1747" t="inlineStr">
@@ -47983,7 +47984,7 @@
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>[-60.]</t>
+          <t>[-75.]</t>
         </is>
       </c>
       <c r="E1748" t="inlineStr">
@@ -48010,7 +48011,8 @@
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[8.41735213 8.41735213 8.41735213 8.41735213 8.41735213 8.41735213
+ 8.41735213]</t>
         </is>
       </c>
       <c r="E1749" t="inlineStr">
@@ -48037,8 +48039,7 @@
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>[[0.0852541  0.0522459  0.10174142 0.07747147 0.09229431 0.08193058
-  0.12296051]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E1750" t="inlineStr">
@@ -48969,7 +48970,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr">
@@ -48996,7 +48997,7 @@
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>[11.         11.          8.84379117  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E1786" t="inlineStr">
@@ -49046,7 +49047,7 @@
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>[[0.055      0.055      0.04421896 0.035      0.035     ]]</t>
+          <t>[[0.0567344 0.025     0.025     0.025     0.025    ]]</t>
         </is>
       </c>
       <c r="E1788" t="inlineStr">
@@ -49146,7 +49147,7 @@
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E1792" t="inlineStr">
@@ -49503,7 +49504,7 @@
       </c>
       <c r="D1807" t="inlineStr">
         <is>
-          <t>[-0.006317]</t>
+          <t>[-0.00631526]</t>
         </is>
       </c>
       <c r="E1807" t="inlineStr"/>
@@ -49549,7 +49550,7 @@
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>[-0.00544265]</t>
+          <t>[-0.00544382]</t>
         </is>
       </c>
       <c r="E1809" t="inlineStr"/>
@@ -51046,7 +51047,7 @@
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>[0.77726827]</t>
+          <t>[0.77676827]</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -52036,7 +52037,7 @@
       </c>
       <c r="D1921" t="inlineStr">
         <is>
-          <t>[40682.04562332]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E1921" t="inlineStr"/>
@@ -52059,7 +52060,7 @@
       </c>
       <c r="D1922" t="inlineStr">
         <is>
-          <t>[629518.96502211]</t>
+          <t>[629537.66835959]</t>
         </is>
       </c>
       <c r="E1922" t="inlineStr"/>
@@ -52082,7 +52083,7 @@
       </c>
       <c r="D1923" t="inlineStr">
         <is>
-          <t>[-4.01003178 -0.14441984  4.24929631]</t>
+          <t>[-4.00991761 -0.14443037  4.24918643]</t>
         </is>
       </c>
       <c r="E1923" t="inlineStr"/>
@@ -52105,8 +52106,8 @@
       </c>
       <c r="D1924" t="inlineStr">
         <is>
-          <t>[9224591.7416582  8617359.56999176 8195565.62370818  351066.14056623
- 1743279.93471595 -201547.34360018]</t>
+          <t>[9225580.40494873 8618497.83646925 8196888.37923555  351088.87030514
+ 1743635.62842814 -201554.91603401]</t>
         </is>
       </c>
       <c r="E1924" t="inlineStr"/>
@@ -52129,8 +52130,8 @@
       </c>
       <c r="D1925" t="inlineStr">
         <is>
-          <t>[8803003.83878227 7821243.31218109 7820064.43983149  364572.16184084
- 1345889.34905672 -215859.22180367]</t>
+          <t>[8803899.15124393 7822207.43852207 7821305.99873213  364599.1774316
+ 1346158.17883116 -215871.37321263]</t>
         </is>
       </c>
       <c r="E1925" t="inlineStr"/>
@@ -52153,8 +52154,8 @@
       </c>
       <c r="D1926" t="inlineStr">
         <is>
-          <t>[20183055.00502324 29311052.87824882 17956082.7087389         0.
- 12072774.93314178   170465.68251563]</t>
+          <t>[2.01837025e+07 2.93114912e+07 1.79570509e+07 1.16415322e-10
+ 1.20727797e+07 1.70483168e+05]</t>
         </is>
       </c>
       <c r="E1926" t="inlineStr"/>
@@ -52177,7 +52178,7 @@
       </c>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>[0.00466215]</t>
+          <t>[0.00466098]</t>
         </is>
       </c>
       <c r="E1927" t="inlineStr"/>
@@ -52200,7 +52201,7 @@
       </c>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>[0.00330808]</t>
+          <t>[0.00330717]</t>
         </is>
       </c>
       <c r="E1928" t="inlineStr"/>
@@ -52223,7 +52224,7 @@
       </c>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E1929" t="inlineStr"/>
@@ -52246,7 +52247,7 @@
       </c>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>[-0.0009661]</t>
+          <t>[-0.00096587]</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr"/>
@@ -52269,7 +52270,7 @@
       </c>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>[-0.00093224]</t>
+          <t>[-0.00093202]</t>
         </is>
       </c>
       <c r="E1931" t="inlineStr"/>
@@ -52292,7 +52293,7 @@
       </c>
       <c r="D1932" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E1932" t="inlineStr"/>
@@ -52317,7 +52318,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E1933" t="inlineStr"/>
@@ -52340,9 +52341,9 @@
       </c>
       <c r="D1934" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E1934" t="inlineStr"/>
@@ -52365,20 +52366,20 @@
       </c>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>[[3.77212692e+07]
- [3.94409121e+07]
- [4.19929289e+07]
- [4.56090199e+07]
- [5.06449418e+07]
- [5.76402722e+07]
- [6.73768708e+07]
- [8.07951237e+07]
- [9.81304395e+07]
- [1.15412630e+08]
- [1.18612497e+08]
- [6.31659015e+07]
- [6.13025412e+07]
- [1.12867568e+07]
+          <t>[[3.77100750e+07]
+ [3.94292335e+07]
+ [4.19805835e+07]
+ [4.55957996e+07]
+ [5.06306239e+07]
+ [5.76246670e+07]
+ [6.73599764e+07]
+ [8.07775573e+07]
+ [9.81143750e+07]
+ [1.15402369e+08]
+ [1.18609783e+08]
+ [6.31658991e+07]
+ [6.13025391e+07]
+ [1.12867557e+07]
  [3.67595980e+06]]</t>
         </is>
       </c>
@@ -52402,21 +52403,21 @@
       </c>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>[[ 8198781.70594296]
- [ 5095327.15811212]
- [ 3047782.37602238]
- [ 7003274.18581239]
- [11730989.02670426]
- [17602448.15078774]
- [25094691.22252726]
- [34742153.56517174]
- [46807042.36370892]
- [60107631.68236353]
- [70031275.85325283]
- [36800928.55476876]
- [25411892.47588418]
- [24647897.46562164]
- [24524781.53624108]]</t>
+          <t>[[ 8196999.31830916]
+ [ 5094051.80087558]
+ [ 3046911.15812881]
+ [ 7001757.54569469]
+ [11728746.17396683]
+ [17599404.23607993]
+ [25090836.93232333]
+ [34737694.3872863 ]
+ [46802685.79137163]
+ [60104720.92907161]
+ [70030447.54624267]
+ [36800928.55531872]
+ [25411892.47643425]
+ [24647897.46745445]
+ [24524781.53807375]]</t>
         </is>
       </c>
       <c r="E1936" t="inlineStr"/>
@@ -52439,17 +52440,17 @@
       </c>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>[[19541743.00755713]
- [20787724.11727619]
- [22799392.78851007]
- [25699411.44681313]
- [29729542.03579101]
- [35347827.6219436 ]
- [43372175.51898308]
- [55104178.23482251]
- [71764285.95269753]
- [90596108.96297374]
- [97575448.40726511]
+          <t>[[19533470.81272292]
+ [20779111.50768383]
+ [22790297.47511837]
+ [25689644.04409209]
+ [29718870.44041621]
+ [35335991.44334316]
+ [43358968.86778108]
+ [55089814.72863077]
+ [71750489.6970504 ]
+ [90587113.57082447]
+ [97572896.30561961]
  [       0.        ]
  [       0.        ]
  [       0.        ]
@@ -52472,19 +52473,19 @@
       <c r="C1938" t="inlineStr"/>
       <c r="D1938" t="inlineStr">
         <is>
-          <t>[[0.1289189 ]
- [0.12771584]
- [0.13313496]
- [0.14988231]
- [0.17563809]
- [0.21297135]
- [0.26560644]
- [0.33816037]
- [0.43286972]
- [0.53562679]
- [0.59160208]
+          <t>[[0.1288821 ]
+ [0.12767813]
+ [0.13309542]
+ [0.14983922]
+ [0.17559051]
+ [0.21291838]
+ [0.26554777]
+ [0.33809798]
+ [0.4328115 ]
+ [0.53558914]
+ [0.59159187]
  [0.32472098]
- [0.27308225]
+ [0.27308224]
  [0.15978898]
  [0.15428413]]</t>
         </is>
@@ -52505,7 +52506,7 @@
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>[0.11070637]</t>
+          <t>[0.11068017]</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr"/>
@@ -52524,7 +52525,7 @@
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>[0.01195186]</t>
+          <t>[0.01194893]</t>
         </is>
       </c>
       <c r="E1940" t="inlineStr"/>
@@ -52543,7 +52544,7 @@
       <c r="C1941" t="inlineStr"/>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>[54.65752477]</t>
+          <t>[54.64230165]</t>
         </is>
       </c>
       <c r="E1941" t="inlineStr"/>
@@ -52562,7 +52563,7 @@
       <c r="C1942" t="inlineStr"/>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>[1.59324322]</t>
+          <t>[1.59284205]</t>
         </is>
       </c>
       <c r="E1942" t="inlineStr"/>
@@ -52608,7 +52609,7 @@
       </c>
       <c r="D1944" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E1944" t="inlineStr"/>
@@ -52631,7 +52632,7 @@
       </c>
       <c r="D1945" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E1945" t="inlineStr"/>
@@ -52654,8 +52655,8 @@
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1946" t="inlineStr"/>
